--- a/data/01-11-2025-systems.xlsx
+++ b/data/01-11-2025-systems.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="500">
   <si>
     <t>System Name</t>
   </si>
@@ -148,16 +148,991 @@
     <t>c53cb398-c968-4f8f-a6e5-8ea8c33b1c5a</t>
   </si>
   <si>
-    <t>KODALIA</t>
-  </si>
-  <si>
-    <t>BBU</t>
+    <t>SONARPUR A4(CAT2) /1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAAN </t>
+  </si>
+  <si>
+    <t>SONARPUR</t>
+  </si>
+  <si>
+    <t>10.127.0.76</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>KO-KTD-A42-SO-4009</t>
+  </si>
+  <si>
+    <t>Transmission Nodes</t>
+  </si>
+  <si>
+    <t>22.4385</t>
+  </si>
+  <si>
+    <t>88.4268</t>
+  </si>
+  <si>
+    <t>0e8bf0bb-64d7-42f5-87cd-d754e6bdab27</t>
+  </si>
+  <si>
+    <t>a33ec7ee-b51c-4921-b0ec-bcf0caab3834</t>
+  </si>
+  <si>
+    <t>4dd05c04-dddb-44df-ab90-0b95b3ee5f11</t>
+  </si>
+  <si>
+    <t>Multi-Access Aggregation Node</t>
+  </si>
+  <si>
+    <t>11ff6872-bdac-432f-becf-541a42fdd16a</t>
+  </si>
+  <si>
+    <t>Harinavi -B3(CAT2) /1</t>
+  </si>
+  <si>
+    <t>HNV PCM 1ST FLOOR</t>
+  </si>
+  <si>
+    <t>10.127.0.67</t>
+  </si>
+  <si>
+    <t>22.4157</t>
+  </si>
+  <si>
+    <t>88.416</t>
+  </si>
+  <si>
+    <t>d95f0c5e-10b5-4657-a6b2-2b894c6c5b08</t>
+  </si>
+  <si>
+    <t>45f1a024-b36f-465a-8896-125399380cb6</t>
+  </si>
+  <si>
+    <t>877d8e52-72d7-4e9c-9b76-ae634f5baa3c</t>
+  </si>
+  <si>
+    <t>BARUIPUR BDO OFFICE NODE 2 A1</t>
+  </si>
+  <si>
+    <t>BARUIPUR</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>10.123.138.224</t>
+  </si>
+  <si>
+    <t>Telephone Exchange (Exch.)</t>
+  </si>
+  <si>
+    <t>22.3568</t>
+  </si>
+  <si>
+    <t>88.4345</t>
+  </si>
+  <si>
+    <t>b5bfbef5-356c-499b-ad2b-351b7ed6a845</t>
+  </si>
+  <si>
+    <t>6185bba0-3672-48c2-a8ab-db3b3a81a5a3</t>
+  </si>
+  <si>
+    <t>BARUIPUR A1</t>
+  </si>
+  <si>
+    <t>10.123.138.220</t>
+  </si>
+  <si>
+    <t>f9fafe4e-cd78-4d47-ba73-80764c430a7e</t>
+  </si>
+  <si>
+    <t>BARUIPUR BDO OFFICE A1</t>
+  </si>
+  <si>
+    <t>10.123.138.212</t>
+  </si>
+  <si>
+    <t>e901151a-6be4-4c60-83ad-f235d5e661a0</t>
+  </si>
+  <si>
+    <t>BARUIPUR DRDO A1</t>
+  </si>
+  <si>
+    <t>BARUIPUR DRDO DATA CENTRE</t>
+  </si>
+  <si>
+    <t>10.123.136.35</t>
+  </si>
+  <si>
+    <t>Customer Premises</t>
+  </si>
+  <si>
+    <t>22.35968</t>
+  </si>
+  <si>
+    <t>88.392867</t>
+  </si>
+  <si>
+    <t>51b21244-07e3-4464-ad7b-4ce70805d559</t>
+  </si>
+  <si>
+    <t>3787ddde-544f-4658-97b4-01dcc10217d8</t>
+  </si>
+  <si>
+    <t>BARUIPUR B1</t>
+  </si>
+  <si>
+    <t>10.123.138.196</t>
+  </si>
+  <si>
+    <t>f3c35045-7ae4-4f84-92fa-4e3adad52686</t>
+  </si>
+  <si>
+    <t>AP NAGAR A1</t>
+  </si>
+  <si>
+    <t>AP NAGAR</t>
+  </si>
+  <si>
+    <t>10.123.138.222</t>
+  </si>
+  <si>
+    <t>22.440491</t>
+  </si>
+  <si>
+    <t>88.439556</t>
+  </si>
+  <si>
+    <t>54bc2231-880b-4ba6-ba6e-4d3cb594052b</t>
+  </si>
+  <si>
+    <t>6ac435ff-0a3f-473a-8c24-51eb7a4dbbbf</t>
+  </si>
+  <si>
+    <t>AP NAGAR B1</t>
+  </si>
+  <si>
+    <t>10.123.138.198</t>
+  </si>
+  <si>
+    <t>d9e00379-f20b-470d-a83f-be40c8f77d2c</t>
+  </si>
+  <si>
+    <t>BARUIPUR II A1</t>
+  </si>
+  <si>
+    <t>BARUIPUR II BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.207</t>
+  </si>
+  <si>
+    <t>22.3862</t>
+  </si>
+  <si>
+    <t>88.4307</t>
+  </si>
+  <si>
+    <t>3101bd5e-0fac-4546-8e79-2b18ff0fd35e</t>
+  </si>
+  <si>
+    <t>645687d9-733f-473d-8b43-9a15b23888b5</t>
+  </si>
+  <si>
+    <t>Amtala Rou A3(CAT2) /1</t>
+  </si>
+  <si>
+    <t>Amtala</t>
+  </si>
+  <si>
+    <t>10.127.0.71</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>KO-KTD-A32-AM-2023</t>
+  </si>
+  <si>
+    <t>22.369256</t>
+  </si>
+  <si>
+    <t>88.273992</t>
+  </si>
+  <si>
+    <t>084a1289-b640-4900-9783-d05e55306fb5</t>
+  </si>
+  <si>
+    <t>45fa1779-4232-476e-beb3-74becf4cbc95</t>
+  </si>
+  <si>
+    <t>e6222b47-7f08-4ff1-8c75-86b6b5b0a648</t>
+  </si>
+  <si>
+    <t>Behala Transmission Maintenance</t>
+  </si>
+  <si>
+    <t>e5619dc9-a59c-4046-86d5-9d34c5de70c7</t>
+  </si>
+  <si>
+    <t>BARUIPUR B3(CAT2) /1</t>
+  </si>
+  <si>
+    <t>10.127.0.81</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>KO-KTD-B32-BR-6005</t>
+  </si>
+  <si>
+    <t>b057a5ce-0436-402f-90c6-b30d2f4ef00a</t>
+  </si>
+  <si>
+    <t>BEHALA B4(CAT1) /1</t>
+  </si>
+  <si>
+    <t>Behala Telephone Exchange</t>
+  </si>
+  <si>
+    <t>10.127.0.13</t>
+  </si>
+  <si>
+    <t>KO-KTD-B41-BE-7004</t>
+  </si>
+  <si>
+    <t>22.4926667</t>
+  </si>
+  <si>
+    <t>88.3126029</t>
+  </si>
+  <si>
+    <t>8e78e99f-5b42-40a3-b542-d6682b30392d</t>
+  </si>
+  <si>
+    <t>81809297-b9fa-4baa-93e8-e6327464c94e</t>
+  </si>
+  <si>
+    <t>BORAL A3(CAT2) /1</t>
+  </si>
+  <si>
+    <t>BORAL</t>
+  </si>
+  <si>
+    <t>10.127.0.74</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>KO-KTD-A32-BO-2026</t>
+  </si>
+  <si>
+    <t>22.4497068</t>
+  </si>
+  <si>
+    <t>88.37348573</t>
+  </si>
+  <si>
+    <t>4655a834-c64f-48c8-90a0-6e4f9654acf1</t>
+  </si>
+  <si>
+    <t>fb960b2f-9c6a-4c19-b419-b013aa07b908</t>
+  </si>
+  <si>
+    <t>GARIA A4(CAT1) /1</t>
+  </si>
+  <si>
+    <t>GARIA</t>
+  </si>
+  <si>
+    <t>10.127.0.79</t>
+  </si>
+  <si>
+    <t>KO-KTD-A41-GA-3002</t>
+  </si>
+  <si>
+    <t>22.467477</t>
+  </si>
+  <si>
+    <t>88.378222</t>
+  </si>
+  <si>
+    <t>09fa1396-5351-4c2b-a049-61e771f054c1</t>
+  </si>
+  <si>
+    <t>0334365e-3c7e-4e0f-8547-33a673be10f6</t>
+  </si>
+  <si>
+    <t>Jadavpur Transmission Terminal</t>
+  </si>
+  <si>
+    <t>da09b4f7-7396-495a-9d6e-a03abe0605eb</t>
+  </si>
+  <si>
+    <t>JADAVPUR B4(CAT2) /1</t>
+  </si>
+  <si>
+    <t>JADAVPUR</t>
+  </si>
+  <si>
+    <t>10.127.0.14</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>KO-KTD-B42-JD-8007</t>
+  </si>
+  <si>
+    <t>22.497056</t>
+  </si>
+  <si>
+    <t>88.366333</t>
+  </si>
+  <si>
+    <t>41355205-b6db-4d38-bebf-9f0cf2998f64</t>
+  </si>
+  <si>
+    <t>a27f575b-7267-4355-9b6b-6a4e3ee0bed4</t>
+  </si>
+  <si>
+    <t>JOKA B3(CAT2) /1</t>
+  </si>
+  <si>
+    <t>JOKA RLU</t>
+  </si>
+  <si>
+    <t>10.127.0.68</t>
+  </si>
+  <si>
+    <t>KO-KTD-B32-JO-6008</t>
+  </si>
+  <si>
+    <t>22.4467779</t>
+  </si>
+  <si>
+    <t>88.2958551</t>
+  </si>
+  <si>
+    <t>c09b53e5-ef78-4846-b87b-a4bea12924f4</t>
+  </si>
+  <si>
+    <t>6792d039-3f75-499f-af49-a831119d0204</t>
+  </si>
+  <si>
+    <t>JULPIA A3(CAT2) /1</t>
+  </si>
+  <si>
+    <t>JULPIA</t>
+  </si>
+  <si>
+    <t>10.127.0.73</t>
+  </si>
+  <si>
+    <t>KO-KTD-A32-JU-2025</t>
+  </si>
+  <si>
+    <t>22.36603205</t>
+  </si>
+  <si>
+    <t>88.36153672</t>
+  </si>
+  <si>
+    <t>f9ff6e66-4926-4fda-a275-9671f294e925</t>
+  </si>
+  <si>
+    <t>f3e42d50-7a25-45db-bb84-d92ca037eba6</t>
+  </si>
+  <si>
+    <t>KAMALGAZI A3(CAT2) /1</t>
+  </si>
+  <si>
+    <t>KAMALGAZI BTS</t>
+  </si>
+  <si>
+    <t>10.127.0.75</t>
+  </si>
+  <si>
+    <t>KO-KTD-A32-KM-2020</t>
+  </si>
+  <si>
+    <t>22.4502</t>
+  </si>
+  <si>
+    <t>88.3905</t>
+  </si>
+  <si>
+    <t>abfa36d3-d0ed-486e-8f97-62651f7a9b9e</t>
+  </si>
+  <si>
+    <t>d9fee8ce-68af-4ed2-b5f5-8fea028b1853</t>
+  </si>
+  <si>
+    <t>RANIKUTI A4(CAT2) /1</t>
+  </si>
+  <si>
+    <t>RANIKUTI</t>
+  </si>
+  <si>
+    <t>10.127.0.80</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>KO-KTD-A42-RK-4001</t>
+  </si>
+  <si>
+    <t>22.48300348</t>
+  </si>
+  <si>
+    <t>88.35414639</t>
+  </si>
+  <si>
+    <t>ee2ea175-88c4-4021-bca9-f7814388d574</t>
+  </si>
+  <si>
+    <t>ec64ac2b-f434-42f8-88f4-251dba27e0e9</t>
+  </si>
+  <si>
+    <t>BARUIPUR III A1</t>
+  </si>
+  <si>
+    <t>BARUIPUR III BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.211</t>
+  </si>
+  <si>
+    <t>22.352</t>
+  </si>
+  <si>
+    <t>88.421576</t>
+  </si>
+  <si>
+    <t>876847d1-9e49-4c81-9716-c3b188826ce1</t>
+  </si>
+  <si>
+    <t>457e890f-197f-4182-934a-5daac05a2b8c</t>
+  </si>
+  <si>
+    <t>HARINAVI MNGPAN</t>
+  </si>
+  <si>
+    <t>IPMPLS</t>
+  </si>
+  <si>
+    <t>10.220.7.77</t>
+  </si>
+  <si>
+    <t>4965a3d2-d4f7-4ae5-85e6-3211fe024ebf</t>
+  </si>
+  <si>
+    <t>ac3a94a3-a131-4515-a7b6-9fa2cba1d97d</t>
+  </si>
+  <si>
+    <t>IP / MPLS Backbone</t>
+  </si>
+  <si>
+    <t>7f745a44-8306-46e2-91c1-897b0c85f614</t>
+  </si>
+  <si>
+    <t>SHALIMAR CHEMICAL A1</t>
+  </si>
+  <si>
+    <t>SHALIMAR CHEMICAL BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.214</t>
+  </si>
+  <si>
+    <t>22.4335</t>
+  </si>
+  <si>
+    <t>88.4054</t>
+  </si>
+  <si>
+    <t>b1ba7120-8b78-4897-b040-faa5e5620c96</t>
+  </si>
+  <si>
+    <t>eecca086-c25f-4671-afa5-131b7b9352e3</t>
+  </si>
+  <si>
+    <t>SHERWOOD A1</t>
+  </si>
+  <si>
+    <t>SHERWOOD</t>
+  </si>
+  <si>
+    <t>10.123.138.231</t>
+  </si>
+  <si>
+    <t>22.44014856</t>
+  </si>
+  <si>
+    <t>88.39723324</t>
+  </si>
+  <si>
+    <t>859ee42c-40de-4e16-ac9b-084075953311</t>
+  </si>
+  <si>
+    <t>d936b53e-7ccb-4319-9e56-8bd072b9b257</t>
+  </si>
+  <si>
+    <t>SHERWOOD NODE 2 A1</t>
+  </si>
+  <si>
+    <t>10.123.138.254</t>
+  </si>
+  <si>
+    <t>9eb634ec-30bb-4ef0-b58d-e73b9ab3dd26</t>
+  </si>
+  <si>
+    <t>SITAKUNDU B1</t>
+  </si>
+  <si>
+    <t>SITAKUNDU</t>
+  </si>
+  <si>
+    <t>10.123.138.197</t>
+  </si>
+  <si>
+    <t>22.3607</t>
+  </si>
+  <si>
+    <t>88.4697</t>
+  </si>
+  <si>
+    <t>69b3cd60-ce89-43b4-ac1f-4671fc02d081</t>
+  </si>
+  <si>
+    <t>09b56b00-e0ba-4291-a4b8-ab8dc12dc71d</t>
+  </si>
+  <si>
+    <t>SONARPUR A1</t>
+  </si>
+  <si>
+    <t>10.123.138.221</t>
+  </si>
+  <si>
+    <t>63da7fb8-607d-4c05-9ab1-3590cd15f790</t>
+  </si>
+  <si>
+    <t>10.123.138.227</t>
+  </si>
+  <si>
+    <t>b98e3bec-f1a3-4702-a11d-519b1e480f8f</t>
+  </si>
+  <si>
+    <t>SONARPUR B1</t>
+  </si>
+  <si>
+    <t>10.123.138.199</t>
+  </si>
+  <si>
+    <t>ce047b30-33c8-425b-b500-5b33e043bf9c</t>
+  </si>
+  <si>
+    <t>SONARPUR GHASIARA A1</t>
+  </si>
+  <si>
+    <t>SONARPUR GHASIARA BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.218</t>
+  </si>
+  <si>
+    <t>22.4323</t>
+  </si>
+  <si>
+    <t>88.4429</t>
+  </si>
+  <si>
+    <t>f7a8effa-cc27-4cc9-9afd-d587f225f8e2</t>
+  </si>
+  <si>
+    <t>40385d41-78de-4122-b661-28092515ac86</t>
+  </si>
+  <si>
+    <t>SPICE BOARD A1</t>
+  </si>
+  <si>
+    <t>SPICE BOARD BARUIPUR</t>
+  </si>
+  <si>
+    <t>10.123.136.34</t>
+  </si>
+  <si>
+    <t>22.3569053</t>
+  </si>
+  <si>
+    <t>88.3883286</t>
+  </si>
+  <si>
+    <t>68a785c4-b190-40d7-8a7e-dbbddc77834f</t>
+  </si>
+  <si>
+    <t>389150a9-94ce-4ae4-b52c-d4d23945ea66</t>
+  </si>
+  <si>
+    <t>SUBHASGRAM BANK PLOT A1</t>
+  </si>
+  <si>
+    <t>SUBHAS GRAM BANK PLOT BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.219</t>
+  </si>
+  <si>
+    <t>22.4193</t>
+  </si>
+  <si>
+    <t>88.4303</t>
+  </si>
+  <si>
+    <t>b1f6f204-2a68-4fba-af6e-a86fca1cd627</t>
+  </si>
+  <si>
+    <t>80004a69-35d9-46c7-a3f0-abbf15342767</t>
+  </si>
+  <si>
+    <t>SUNNY SEASON A1</t>
+  </si>
+  <si>
+    <t>SUNNY SEASON</t>
+  </si>
+  <si>
+    <t>10.123.29.224</t>
+  </si>
+  <si>
+    <t>22.444821</t>
+  </si>
+  <si>
+    <t>88.388835</t>
+  </si>
+  <si>
+    <t>0f0b317e-1ab7-4e5c-8997-7024be4f5d70</t>
+  </si>
+  <si>
+    <t>1b05cc83-2fb9-4da8-8d4b-1dd775574f12</t>
+  </si>
+  <si>
+    <t>BARUIPUR JAIL A1</t>
+  </si>
+  <si>
+    <t>BARUIPUR CORRECTIONAL HOME</t>
+  </si>
+  <si>
+    <t>10.123.136.22</t>
+  </si>
+  <si>
+    <t>22.3611142</t>
+  </si>
+  <si>
+    <t>88.3920703</t>
+  </si>
+  <si>
+    <t>23759160-69e6-4377-9460-f634b644d723</t>
+  </si>
+  <si>
+    <t>7e2a3e99-66b6-486d-8456-9be1242d0fc4</t>
+  </si>
+  <si>
+    <t>BARUIPUR NODE 3 A1</t>
+  </si>
+  <si>
+    <t>10.123.138.240</t>
+  </si>
+  <si>
+    <t>63c27efd-4ee5-4503-8865-96f9568c4175</t>
+  </si>
+  <si>
+    <t>HARINAVI ADM16/R-128</t>
+  </si>
+  <si>
+    <t>NGSDH</t>
+  </si>
+  <si>
+    <t>192.170.1.128</t>
+  </si>
+  <si>
+    <t>TEJAS</t>
+  </si>
+  <si>
+    <t>73ec01ed-474a-44d1-8614-d2deaff6375a</t>
+  </si>
+  <si>
+    <t>fc077b05-1bfc-414c-9549-13b0f6d3e230</t>
+  </si>
+  <si>
+    <t>Next Generation SDH</t>
+  </si>
+  <si>
+    <t>8418cc68-8607-4fc5-ac10-989af9de67f8</t>
+  </si>
+  <si>
+    <t>HARINAVI A1</t>
+  </si>
+  <si>
+    <t>10.123.138.225</t>
+  </si>
+  <si>
+    <t>c239fcfe-3e7f-4f7d-804e-069820b4bc00</t>
+  </si>
+  <si>
+    <t>10.123.138.238</t>
+  </si>
+  <si>
+    <t>a2c86b2a-34b8-408f-bfe9-10d7278bee18</t>
+  </si>
+  <si>
+    <t>10.123.138.217</t>
+  </si>
+  <si>
+    <t>fa97a97e-ffe1-4921-b13a-0b90e324e2b5</t>
+  </si>
+  <si>
+    <t>10.123.138.229</t>
+  </si>
+  <si>
+    <t>846a1687-e38d-4cf1-8999-5c4b7ecf1ed8</t>
+  </si>
+  <si>
+    <t>10.123.138.233</t>
+  </si>
+  <si>
+    <t>09e5014e-8687-43a7-8feb-841dc4f73227</t>
+  </si>
+  <si>
+    <t>BARUIPUR NODE 4 A1</t>
+  </si>
+  <si>
+    <t>10.123.138.241</t>
+  </si>
+  <si>
+    <t>883e61fd-1d85-4975-887b-ac0c25985d32</t>
+  </si>
+  <si>
+    <t>BARUIPUR RAIL CROSSING A1</t>
+  </si>
+  <si>
+    <t>BARUIPUR RAIL CROSSING BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.216</t>
+  </si>
+  <si>
+    <t>22.3642</t>
+  </si>
+  <si>
+    <t>88.4306</t>
+  </si>
+  <si>
+    <t>25fefca1-ae6f-4e01-8051-087a94373b9d</t>
+  </si>
+  <si>
+    <t>1160d8b7-c01d-4eaa-b130-75ac245bbd4e</t>
+  </si>
+  <si>
+    <t>BARUIPUR STATION BAZAR NODE 1</t>
+  </si>
+  <si>
+    <t>Baruipur station Bazar BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.242</t>
+  </si>
+  <si>
+    <t>22.36699718</t>
+  </si>
+  <si>
+    <t>88.42761048</t>
+  </si>
+  <si>
+    <t>286ec15e-6eee-488e-9fd8-16b7fb859853</t>
+  </si>
+  <si>
+    <t>21a97b3d-6959-46a5-942e-12a791770da0</t>
+  </si>
+  <si>
+    <t>BARUIPUR STATION BAZAR NODE 2 A1</t>
+  </si>
+  <si>
+    <t>10.123.138.243</t>
+  </si>
+  <si>
+    <t>f551aa93-c82b-4883-b498-c39e8c2bf327</t>
+  </si>
+  <si>
+    <t>BORAL A1</t>
+  </si>
+  <si>
+    <t>10.123.29.225</t>
+  </si>
+  <si>
+    <t>a3f1bd20-41d7-489a-ab31-dc8c3412e0f6</t>
+  </si>
+  <si>
+    <t>BRAHMAPUR B1</t>
+  </si>
+  <si>
+    <t>BRAHMAPUR</t>
+  </si>
+  <si>
+    <t>10.123.138.203</t>
+  </si>
+  <si>
+    <t>22.45959189</t>
+  </si>
+  <si>
+    <t>88.36461627</t>
+  </si>
+  <si>
+    <t>6c3d8bf8-006a-4230-8efe-c5343b7ac9c1</t>
+  </si>
+  <si>
+    <t>b6f14e2b-11a4-46c9-96eb-c41d9564bcb3</t>
+  </si>
+  <si>
+    <t>DAKSHIN CHOWHATI A1</t>
+  </si>
+  <si>
+    <t>DAKSHIN CHOWHATI BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.209</t>
+  </si>
+  <si>
+    <t>22.416432</t>
+  </si>
+  <si>
+    <t>88.407262</t>
+  </si>
+  <si>
+    <t>f62efeda-0828-4bf3-b9c6-076aee551b93</t>
+  </si>
+  <si>
+    <t>88c2ecdb-5f12-4139-8cd3-88b1b032b010</t>
+  </si>
+  <si>
+    <t>FARTABAD A1</t>
+  </si>
+  <si>
+    <t>FARTABAD</t>
+  </si>
+  <si>
+    <t>10.123.138.47</t>
+  </si>
+  <si>
+    <t>22.461002</t>
+  </si>
+  <si>
+    <t>88.390052</t>
+  </si>
+  <si>
+    <t>10b4b8cd-7f82-4162-a0d5-a37bff9d9049</t>
+  </si>
+  <si>
+    <t>3ddd7dca-b7e7-437f-98d9-bdda0bd1b09d</t>
+  </si>
+  <si>
+    <t>FIEM A1</t>
+  </si>
+  <si>
+    <t>FUTURE INSTITUTE OF ENGG AND MANAGEMENT</t>
+  </si>
+  <si>
+    <t>10.123.138.228</t>
+  </si>
+  <si>
+    <t>22.44325019</t>
+  </si>
+  <si>
+    <t>88.41609867</t>
+  </si>
+  <si>
+    <t>8ad723eb-6da3-4475-8ffb-3afde808fe07</t>
+  </si>
+  <si>
+    <t>adf8c208-c8a2-4ca6-9d62-e315d6ebabc1</t>
+  </si>
+  <si>
+    <t>GANGAJOARA BTS A1</t>
+  </si>
+  <si>
+    <t>GANGAJOARA BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.248</t>
+  </si>
+  <si>
+    <t>22.4671</t>
+  </si>
+  <si>
+    <t>88.4425</t>
+  </si>
+  <si>
+    <t>16db720d-f8b8-43c9-9f07-60a1fed515db</t>
+  </si>
+  <si>
+    <t>1d220c1a-36f3-40f4-b8b6-05eed82d5694</t>
+  </si>
+  <si>
+    <t>GOBINDAPUR B2</t>
+  </si>
+  <si>
+    <t>GOBINDAPUR</t>
+  </si>
+  <si>
+    <t>10.123.138.195</t>
+  </si>
+  <si>
+    <t>22.390332</t>
+  </si>
+  <si>
+    <t>88.419742</t>
+  </si>
+  <si>
+    <t>badf80cb-ccc2-47f9-8dc4-82e32733b251</t>
+  </si>
+  <si>
+    <t>dd6b2686-0d45-4bc7-97ff-8da1cf1ae118</t>
+  </si>
+  <si>
+    <t>GOBINDAPUR BTS A1</t>
+  </si>
+  <si>
+    <t>GOBINDAPUR BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.206</t>
+  </si>
+  <si>
+    <t>22.3894</t>
+  </si>
+  <si>
+    <t>88.411</t>
+  </si>
+  <si>
+    <t>3d9eeaab-d37e-404f-aa62-c8c7a75467b5</t>
+  </si>
+  <si>
+    <t>57ad4ddf-6492-4990-a0f9-5f615172498a</t>
+  </si>
+  <si>
+    <t>KODALIA A1</t>
   </si>
   <si>
     <t>KODALIA BTS</t>
   </si>
   <si>
-    <t>1</t>
+    <t>10.123.138.204</t>
   </si>
   <si>
     <t>22.4096</t>
@@ -166,61 +1141,19 @@
     <t>88.4201</t>
   </si>
   <si>
-    <t>d95f0c5e-10b5-4657-a6b2-2b894c6c5b08</t>
-  </si>
-  <si>
-    <t>944f170d-da50-41e6-9040-dea5f7bf9dfa</t>
-  </si>
-  <si>
     <t>e56848ea-3c3a-4925-b20c-bc5ca60bec5b</t>
   </si>
   <si>
-    <t>Baseband Unit</t>
-  </si>
-  <si>
-    <t>7007f1e0-20b2-4f90-87e4-e835fb6dbdd6</t>
-  </si>
-  <si>
-    <t>Harinavi -B3(CAT2) /1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAAN </t>
-  </si>
-  <si>
-    <t>HNV PCM 1ST FLOOR</t>
-  </si>
-  <si>
-    <t>10.127.0.67</t>
-  </si>
-  <si>
-    <t>Transmission Nodes</t>
-  </si>
-  <si>
-    <t>22.4157</t>
-  </si>
-  <si>
-    <t>88.416</t>
-  </si>
-  <si>
-    <t>a33ec7ee-b51c-4921-b0ec-bcf0caab3834</t>
-  </si>
-  <si>
-    <t>45f1a024-b36f-465a-8896-125399380cb6</t>
-  </si>
-  <si>
-    <t>Multi-Access Aggregation Node</t>
-  </si>
-  <si>
-    <t>877d8e52-72d7-4e9c-9b76-ae634f5baa3c</t>
-  </si>
-  <si>
-    <t>MAHINAGAR</t>
+    <t>3e5f8e29-0b30-46e5-95c8-4c70318c4b3f</t>
+  </si>
+  <si>
+    <t>MAHINAGAR A1</t>
   </si>
   <si>
     <t>MAHINAGAR BTS</t>
   </si>
   <si>
-    <t>2</t>
+    <t>10.123.138.205</t>
   </si>
   <si>
     <t>22.3912</t>
@@ -232,1333 +1165,352 @@
     <t>bea08e9f-79b4-43dd-8515-c57d82c2e1ee</t>
   </si>
   <si>
-    <t>5ba2a514-c85a-40e1-a78c-8e2bea204638</t>
-  </si>
-  <si>
-    <t>BARUIPUR A1</t>
-  </si>
-  <si>
-    <t>BARUIPUR</t>
-  </si>
-  <si>
-    <t>10.123.138.220</t>
-  </si>
-  <si>
-    <t>Telephone Exchange (Exch.)</t>
-  </si>
-  <si>
-    <t>22.3568</t>
-  </si>
-  <si>
-    <t>88.4345</t>
-  </si>
-  <si>
-    <t>b5bfbef5-356c-499b-ad2b-351b7ed6a845</t>
-  </si>
-  <si>
-    <t>f9fafe4e-cd78-4d47-ba73-80764c430a7e</t>
-  </si>
-  <si>
-    <t>BARUIPUR B1</t>
-  </si>
-  <si>
-    <t>10.123.138.196</t>
-  </si>
-  <si>
-    <t>f3c35045-7ae4-4f84-92fa-4e3adad52686</t>
-  </si>
-  <si>
-    <t>AP NAGAR A1</t>
-  </si>
-  <si>
-    <t>AP NAGAR</t>
-  </si>
-  <si>
-    <t>10.123.138.222</t>
-  </si>
-  <si>
-    <t>22.440491</t>
-  </si>
-  <si>
-    <t>88.439556</t>
-  </si>
-  <si>
-    <t>54bc2231-880b-4ba6-ba6e-4d3cb594052b</t>
-  </si>
-  <si>
-    <t>6ac435ff-0a3f-473a-8c24-51eb7a4dbbbf</t>
-  </si>
-  <si>
-    <t>AP NAGAR B1</t>
-  </si>
-  <si>
-    <t>10.123.138.198</t>
-  </si>
-  <si>
-    <t>d9e00379-f20b-470d-a83f-be40c8f77d2c</t>
-  </si>
-  <si>
-    <t>BARUIPUR DRDO A1</t>
-  </si>
-  <si>
-    <t>BARUIPUR DRDO DATA CENTRE</t>
-  </si>
-  <si>
-    <t>10.123.138.212</t>
-  </si>
-  <si>
-    <t>Customer Premises</t>
-  </si>
-  <si>
-    <t>22.35968</t>
-  </si>
-  <si>
-    <t>88.392867</t>
-  </si>
-  <si>
-    <t>51b21244-07e3-4464-ad7b-4ce70805d559</t>
-  </si>
-  <si>
-    <t>3787ddde-544f-4658-97b4-01dcc10217d8</t>
-  </si>
-  <si>
-    <t>BARUIPUR FROM BDO OFFICE A1</t>
-  </si>
-  <si>
-    <t>10.123.138.224</t>
-  </si>
-  <si>
-    <t>6185bba0-3672-48c2-a8ab-db3b3a81a5a3</t>
-  </si>
-  <si>
-    <t>BARUIPUR FROM BDO OFFICE NODE 2 A1</t>
-  </si>
-  <si>
-    <t>10.123.136.35</t>
-  </si>
-  <si>
-    <t>e901151a-6be4-4c60-83ad-f235d5e661a0</t>
-  </si>
-  <si>
-    <t>BARUIPUR II A1</t>
-  </si>
-  <si>
-    <t>BARUIPUR II BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.207</t>
-  </si>
-  <si>
-    <t>22.3862</t>
-  </si>
-  <si>
-    <t>88.4307</t>
-  </si>
-  <si>
-    <t>3101bd5e-0fac-4546-8e79-2b18ff0fd35e</t>
-  </si>
-  <si>
-    <t>645687d9-733f-473d-8b43-9a15b23888b5</t>
-  </si>
-  <si>
-    <t>JADAVPUR</t>
-  </si>
-  <si>
-    <t>10.127.0.14</t>
-  </si>
-  <si>
-    <t>KO-KTD-B42-JD-8007</t>
-  </si>
-  <si>
-    <t>22.497056</t>
-  </si>
-  <si>
-    <t>88.366333</t>
-  </si>
-  <si>
-    <t>0e8bf0bb-64d7-42f5-87cd-d754e6bdab27</t>
-  </si>
-  <si>
-    <t>41355205-b6db-4d38-bebf-9f0cf2998f64</t>
-  </si>
-  <si>
-    <t>0334365e-3c7e-4e0f-8547-33a673be10f6</t>
-  </si>
-  <si>
-    <t>Jadavpur Transmission Terminal</t>
-  </si>
-  <si>
-    <t>a27f575b-7267-4355-9b6b-6a4e3ee0bed4</t>
-  </si>
-  <si>
-    <t>GARIA</t>
-  </si>
-  <si>
-    <t>10.127.0.79</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>KO-KTD-A41-GA-3002</t>
-  </si>
-  <si>
-    <t>22.467477</t>
-  </si>
-  <si>
-    <t>88.378222</t>
-  </si>
-  <si>
-    <t>09fa1396-5351-4c2b-a049-61e771f054c1</t>
-  </si>
-  <si>
-    <t>da09b4f7-7396-495a-9d6e-a03abe0605eb</t>
-  </si>
-  <si>
-    <t>KAMALGAZI</t>
-  </si>
-  <si>
-    <t>KAMALGAZI BTS</t>
-  </si>
-  <si>
-    <t>10.127.0.75</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>KO-KTD-A32-KM-2020</t>
-  </si>
-  <si>
-    <t>22.4502</t>
-  </si>
-  <si>
-    <t>88.3905</t>
-  </si>
-  <si>
-    <t>abfa36d3-d0ed-486e-8f97-62651f7a9b9e</t>
-  </si>
-  <si>
-    <t>d9fee8ce-68af-4ed2-b5f5-8fea028b1853</t>
-  </si>
-  <si>
-    <t>SONARPUR</t>
-  </si>
-  <si>
-    <t>10.127.0.76</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>KO-KTD-A42-SO-4009</t>
-  </si>
-  <si>
-    <t>22.4385</t>
-  </si>
-  <si>
-    <t>88.4268</t>
-  </si>
-  <si>
-    <t>4dd05c04-dddb-44df-ab90-0b95b3ee5f11</t>
-  </si>
-  <si>
-    <t>11ff6872-bdac-432f-becf-541a42fdd16a</t>
-  </si>
-  <si>
-    <t>Amtala Rou</t>
-  </si>
-  <si>
-    <t>Amtala</t>
-  </si>
-  <si>
-    <t>10.127.0.71</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>KO-KTD-A32-AM-2023</t>
-  </si>
-  <si>
-    <t>22.369256</t>
-  </si>
-  <si>
-    <t>88.273992</t>
-  </si>
-  <si>
-    <t>084a1289-b640-4900-9783-d05e55306fb5</t>
-  </si>
-  <si>
-    <t>45fa1779-4232-476e-beb3-74becf4cbc95</t>
-  </si>
-  <si>
-    <t>e6222b47-7f08-4ff1-8c75-86b6b5b0a648</t>
-  </si>
-  <si>
-    <t>Behala Transmission Maintenance</t>
-  </si>
-  <si>
-    <t>e5619dc9-a59c-4046-86d5-9d34c5de70c7</t>
-  </si>
-  <si>
-    <t>JOKA</t>
-  </si>
-  <si>
-    <t>JOKA RLU</t>
-  </si>
-  <si>
-    <t>10.127.0.68</t>
-  </si>
-  <si>
-    <t>KO-KTD-B32-JO-6008</t>
-  </si>
-  <si>
-    <t>22.4467779</t>
-  </si>
-  <si>
-    <t>88.2958551</t>
-  </si>
-  <si>
-    <t>c09b53e5-ef78-4846-b87b-a4bea12924f4</t>
-  </si>
-  <si>
-    <t>6792d039-3f75-499f-af49-a831119d0204</t>
-  </si>
-  <si>
-    <t>10.127.0.81</t>
-  </si>
-  <si>
-    <t>KO-KTD-B32-BR-6005</t>
-  </si>
-  <si>
-    <t>b057a5ce-0436-402f-90c6-b30d2f4ef00a</t>
-  </si>
-  <si>
-    <t>BORAL</t>
-  </si>
-  <si>
-    <t>10.127.0.74</t>
-  </si>
-  <si>
-    <t>KO-KTD-A32-BO-2026</t>
-  </si>
-  <si>
-    <t>22.4497068</t>
-  </si>
-  <si>
-    <t>88.37348573</t>
-  </si>
-  <si>
-    <t>4655a834-c64f-48c8-90a0-6e4f9654acf1</t>
-  </si>
-  <si>
-    <t>fb960b2f-9c6a-4c19-b419-b013aa07b908</t>
-  </si>
-  <si>
-    <t>RANIKUTI</t>
-  </si>
-  <si>
-    <t>10.127.0.80</t>
-  </si>
-  <si>
-    <t>KO-KTD-A42-RK-4001</t>
-  </si>
-  <si>
-    <t>22.48300348</t>
-  </si>
-  <si>
-    <t>88.35414639</t>
-  </si>
-  <si>
-    <t>ee2ea175-88c4-4021-bca9-f7814388d574</t>
-  </si>
-  <si>
-    <t>ec64ac2b-f434-42f8-88f4-251dba27e0e9</t>
-  </si>
-  <si>
-    <t>JULPIA</t>
-  </si>
-  <si>
-    <t>10.127.0.73</t>
-  </si>
-  <si>
-    <t>KO-KTD-A32-JU-2025</t>
-  </si>
-  <si>
-    <t>22.36603205</t>
-  </si>
-  <si>
-    <t>88.36153672</t>
-  </si>
-  <si>
-    <t>f9ff6e66-4926-4fda-a275-9671f294e925</t>
-  </si>
-  <si>
-    <t>f3e42d50-7a25-45db-bb84-d92ca037eba6</t>
-  </si>
-  <si>
-    <t>BEHALA</t>
-  </si>
-  <si>
-    <t>Behala Telephone Exchange</t>
-  </si>
-  <si>
-    <t>10.127.0.13</t>
-  </si>
-  <si>
-    <t>KO-KTD-B41-BE-7004</t>
-  </si>
-  <si>
-    <t>22.4926667</t>
-  </si>
-  <si>
-    <t>88.3126029</t>
-  </si>
-  <si>
-    <t>8e78e99f-5b42-40a3-b542-d6682b30392d</t>
-  </si>
-  <si>
-    <t>81809297-b9fa-4baa-93e8-e6327464c94e</t>
-  </si>
-  <si>
-    <t>BADE HOOGHLY</t>
-  </si>
-  <si>
-    <t>MWL</t>
-  </si>
-  <si>
-    <t>BADE HOOGHLY BTS</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>22.3966</t>
-  </si>
-  <si>
-    <t>88.4119</t>
-  </si>
-  <si>
-    <t>3a78206e-3909-4008-99f5-7d8a3103dc7e</t>
-  </si>
-  <si>
-    <t>42cd6bb1-697d-4093-82d6-88a7d6e3c87f</t>
-  </si>
-  <si>
-    <t>BTS Microwave Link</t>
-  </si>
-  <si>
-    <t>8e99ff4e-b304-42a9-b7cb-877b4ff5327f</t>
-  </si>
-  <si>
-    <t>GOBINDAPUR</t>
-  </si>
-  <si>
-    <t>GOBINDAPUR BTS</t>
-  </si>
-  <si>
-    <t>22.3894</t>
-  </si>
-  <si>
-    <t>88.411</t>
-  </si>
-  <si>
-    <t>3d9eeaab-d37e-404f-aa62-c8c7a75467b5</t>
-  </si>
-  <si>
-    <t>15761849-ead6-48d0-baa8-2ae93a7cdce3</t>
-  </si>
-  <si>
-    <t>BARUIPUR III A1</t>
-  </si>
-  <si>
-    <t>BARUIPUR III BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.211</t>
-  </si>
-  <si>
-    <t>22.352</t>
-  </si>
-  <si>
-    <t>88.421576</t>
-  </si>
-  <si>
-    <t>876847d1-9e49-4c81-9716-c3b188826ce1</t>
-  </si>
-  <si>
-    <t>457e890f-197f-4182-934a-5daac05a2b8c</t>
-  </si>
-  <si>
-    <t>HARINAVI MNGPAN</t>
-  </si>
-  <si>
-    <t>IPMPLS</t>
-  </si>
-  <si>
-    <t>10.220.7.77</t>
-  </si>
-  <si>
-    <t>4965a3d2-d4f7-4ae5-85e6-3211fe024ebf</t>
-  </si>
-  <si>
-    <t>ac3a94a3-a131-4515-a7b6-9fa2cba1d97d</t>
-  </si>
-  <si>
-    <t>IP / MPLS Backbone</t>
-  </si>
-  <si>
-    <t>7f745a44-8306-46e2-91c1-897b0c85f614</t>
-  </si>
-  <si>
-    <t>SHALIMAR CHEMICAL A1</t>
-  </si>
-  <si>
-    <t>SHALIMAR CHEMICAL BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.214</t>
-  </si>
-  <si>
-    <t>22.4335</t>
-  </si>
-  <si>
-    <t>88.4054</t>
-  </si>
-  <si>
-    <t>b1ba7120-8b78-4897-b040-faa5e5620c96</t>
-  </si>
-  <si>
-    <t>eecca086-c25f-4671-afa5-131b7b9352e3</t>
-  </si>
-  <si>
-    <t>SHERWOOD A1</t>
-  </si>
-  <si>
-    <t>SHERWOOD</t>
-  </si>
-  <si>
-    <t>10.123.138.231</t>
-  </si>
-  <si>
-    <t>22.44014856</t>
-  </si>
-  <si>
-    <t>88.39723324</t>
-  </si>
-  <si>
-    <t>859ee42c-40de-4e16-ac9b-084075953311</t>
-  </si>
-  <si>
-    <t>d936b53e-7ccb-4319-9e56-8bd072b9b257</t>
-  </si>
-  <si>
-    <t>SHERWOOD NODE 2 A1</t>
-  </si>
-  <si>
-    <t>10.123.138.254</t>
-  </si>
-  <si>
-    <t>9eb634ec-30bb-4ef0-b58d-e73b9ab3dd26</t>
-  </si>
-  <si>
-    <t>SITAKUNDU B1</t>
-  </si>
-  <si>
-    <t>SITAKUNDU</t>
-  </si>
-  <si>
-    <t>10.123.138.197</t>
-  </si>
-  <si>
-    <t>22.3607</t>
-  </si>
-  <si>
-    <t>88.4697</t>
-  </si>
-  <si>
-    <t>69b3cd60-ce89-43b4-ac1f-4671fc02d081</t>
-  </si>
-  <si>
-    <t>09b56b00-e0ba-4291-a4b8-ab8dc12dc71d</t>
-  </si>
-  <si>
-    <t>SONARPUR A1</t>
-  </si>
-  <si>
-    <t>10.123.138.221</t>
-  </si>
-  <si>
-    <t>63da7fb8-607d-4c05-9ab1-3590cd15f790</t>
-  </si>
-  <si>
-    <t>10.123.138.227</t>
-  </si>
-  <si>
-    <t>b98e3bec-f1a3-4702-a11d-519b1e480f8f</t>
-  </si>
-  <si>
-    <t>SONARPUR B1</t>
-  </si>
-  <si>
-    <t>10.123.138.199</t>
-  </si>
-  <si>
-    <t>ce047b30-33c8-425b-b500-5b33e043bf9c</t>
-  </si>
-  <si>
-    <t>SONARPUR GHASIARA A1</t>
-  </si>
-  <si>
-    <t>SONARPUR GHASIARA BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.218</t>
-  </si>
-  <si>
-    <t>22.4323</t>
-  </si>
-  <si>
-    <t>88.4429</t>
-  </si>
-  <si>
-    <t>f7a8effa-cc27-4cc9-9afd-d587f225f8e2</t>
-  </si>
-  <si>
-    <t>40385d41-78de-4122-b661-28092515ac86</t>
-  </si>
-  <si>
-    <t>SPICE BOARD A1</t>
-  </si>
-  <si>
-    <t>SPICE BOARD BARUIPUR</t>
-  </si>
-  <si>
-    <t>10.123.136.34</t>
-  </si>
-  <si>
-    <t>22.3569053</t>
-  </si>
-  <si>
-    <t>88.3883286</t>
-  </si>
-  <si>
-    <t>68a785c4-b190-40d7-8a7e-dbbddc77834f</t>
-  </si>
-  <si>
-    <t>389150a9-94ce-4ae4-b52c-d4d23945ea66</t>
-  </si>
-  <si>
-    <t>SUBHASGRAM BANK PLOT A1</t>
-  </si>
-  <si>
-    <t>SUBHAS GRAM BANK PLOT BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.219</t>
-  </si>
-  <si>
-    <t>22.4193</t>
-  </si>
-  <si>
-    <t>88.4303</t>
-  </si>
-  <si>
-    <t>b1f6f204-2a68-4fba-af6e-a86fca1cd627</t>
-  </si>
-  <si>
-    <t>80004a69-35d9-46c7-a3f0-abbf15342767</t>
-  </si>
-  <si>
-    <t>SUNNY SEASON A1</t>
-  </si>
-  <si>
-    <t>SUNNY SEASON</t>
-  </si>
-  <si>
-    <t>10.123.29.224</t>
-  </si>
-  <si>
-    <t>22.444821</t>
-  </si>
-  <si>
-    <t>88.388835</t>
-  </si>
-  <si>
-    <t>0f0b317e-1ab7-4e5c-8997-7024be4f5d70</t>
-  </si>
-  <si>
-    <t>1b05cc83-2fb9-4da8-8d4b-1dd775574f12</t>
-  </si>
-  <si>
-    <t>BARUIPUR JAIL A1</t>
-  </si>
-  <si>
-    <t>BARUIPUR CORRECTIONAL HOME</t>
-  </si>
-  <si>
-    <t>10.123.136.22</t>
-  </si>
-  <si>
-    <t>22.3611142</t>
-  </si>
-  <si>
-    <t>88.3920703</t>
-  </si>
-  <si>
-    <t>23759160-69e6-4377-9460-f634b644d723</t>
-  </si>
-  <si>
-    <t>7e2a3e99-66b6-486d-8456-9be1242d0fc4</t>
-  </si>
-  <si>
-    <t>BARUIPUR NODE 3 A1</t>
-  </si>
-  <si>
-    <t>10.123.138.240</t>
-  </si>
-  <si>
-    <t>63c27efd-4ee5-4503-8865-96f9568c4175</t>
-  </si>
-  <si>
-    <t>HARINAVI ADM16/R-128</t>
-  </si>
-  <si>
-    <t>NGSDH</t>
-  </si>
-  <si>
-    <t>192.170.1.128</t>
-  </si>
-  <si>
-    <t>TEJAS</t>
-  </si>
-  <si>
-    <t>73ec01ed-474a-44d1-8614-d2deaff6375a</t>
-  </si>
-  <si>
-    <t>fc077b05-1bfc-414c-9549-13b0f6d3e230</t>
-  </si>
-  <si>
-    <t>Next Generation SDH</t>
-  </si>
-  <si>
-    <t>8418cc68-8607-4fc5-ac10-989af9de67f8</t>
-  </si>
-  <si>
-    <t>HARINAVI A1</t>
-  </si>
-  <si>
-    <t>10.123.138.225</t>
-  </si>
-  <si>
-    <t>c239fcfe-3e7f-4f7d-804e-069820b4bc00</t>
-  </si>
-  <si>
-    <t>10.123.138.238</t>
-  </si>
-  <si>
-    <t>a2c86b2a-34b8-408f-bfe9-10d7278bee18</t>
-  </si>
-  <si>
-    <t>10.123.138.217</t>
-  </si>
-  <si>
-    <t>fa97a97e-ffe1-4921-b13a-0b90e324e2b5</t>
-  </si>
-  <si>
-    <t>10.123.138.229</t>
-  </si>
-  <si>
-    <t>846a1687-e38d-4cf1-8999-5c4b7ecf1ed8</t>
-  </si>
-  <si>
-    <t>10.123.138.233</t>
-  </si>
-  <si>
-    <t>09e5014e-8687-43a7-8feb-841dc4f73227</t>
-  </si>
-  <si>
-    <t>BARUIPUR NODE 4 A1</t>
-  </si>
-  <si>
-    <t>10.123.138.241</t>
-  </si>
-  <si>
-    <t>883e61fd-1d85-4975-887b-ac0c25985d32</t>
-  </si>
-  <si>
-    <t>BARUIPUR RAIL CROSSING A1</t>
-  </si>
-  <si>
-    <t>BARUIPUR RAIL CROSSING BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.216</t>
-  </si>
-  <si>
-    <t>22.3642</t>
-  </si>
-  <si>
-    <t>88.4306</t>
-  </si>
-  <si>
-    <t>25fefca1-ae6f-4e01-8051-087a94373b9d</t>
-  </si>
-  <si>
-    <t>1160d8b7-c01d-4eaa-b130-75ac245bbd4e</t>
-  </si>
-  <si>
-    <t>BARUIPUR STATION BAZAR NODE 1</t>
-  </si>
-  <si>
-    <t>Baruipur station Bazar BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.242</t>
-  </si>
-  <si>
-    <t>22.36699718</t>
-  </si>
-  <si>
-    <t>88.42761048</t>
-  </si>
-  <si>
-    <t>286ec15e-6eee-488e-9fd8-16b7fb859853</t>
-  </si>
-  <si>
-    <t>21a97b3d-6959-46a5-942e-12a791770da0</t>
-  </si>
-  <si>
-    <t>BARUIPUR STATION BAZAR NODE 2 A1</t>
-  </si>
-  <si>
-    <t>10.123.138.243</t>
-  </si>
-  <si>
-    <t>f551aa93-c82b-4883-b498-c39e8c2bf327</t>
-  </si>
-  <si>
-    <t>BORAL A1</t>
-  </si>
-  <si>
-    <t>10.123.29.225</t>
-  </si>
-  <si>
-    <t>a3f1bd20-41d7-489a-ab31-dc8c3412e0f6</t>
-  </si>
-  <si>
-    <t>BRAHMAPUR B1</t>
-  </si>
-  <si>
-    <t>BRAHMAPUR</t>
-  </si>
-  <si>
-    <t>10.123.138.203</t>
-  </si>
-  <si>
-    <t>22.45959189</t>
-  </si>
-  <si>
-    <t>88.36461627</t>
-  </si>
-  <si>
-    <t>6c3d8bf8-006a-4230-8efe-c5343b7ac9c1</t>
-  </si>
-  <si>
-    <t>b6f14e2b-11a4-46c9-96eb-c41d9564bcb3</t>
-  </si>
-  <si>
-    <t>DAKSHIN CHOWHATI A1</t>
-  </si>
-  <si>
-    <t>DAKSHIN CHOWHATI BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.209</t>
-  </si>
-  <si>
-    <t>22.416432</t>
-  </si>
-  <si>
-    <t>88.407262</t>
-  </si>
-  <si>
-    <t>f62efeda-0828-4bf3-b9c6-076aee551b93</t>
-  </si>
-  <si>
-    <t>88c2ecdb-5f12-4139-8cd3-88b1b032b010</t>
-  </si>
-  <si>
-    <t>FARTABAD A1</t>
-  </si>
-  <si>
-    <t>FARTABAD</t>
-  </si>
-  <si>
-    <t>10.123.138.47</t>
-  </si>
-  <si>
-    <t>22.461002</t>
-  </si>
-  <si>
-    <t>88.390052</t>
-  </si>
-  <si>
-    <t>10b4b8cd-7f82-4162-a0d5-a37bff9d9049</t>
-  </si>
-  <si>
-    <t>3ddd7dca-b7e7-437f-98d9-bdda0bd1b09d</t>
-  </si>
-  <si>
-    <t>FIEM A1</t>
-  </si>
-  <si>
-    <t>FUTURE INSTITUTE OF ENGG AND MANAGEMENT</t>
-  </si>
-  <si>
-    <t>10.123.138.228</t>
-  </si>
-  <si>
-    <t>22.44325019</t>
-  </si>
-  <si>
-    <t>88.41609867</t>
-  </si>
-  <si>
-    <t>8ad723eb-6da3-4475-8ffb-3afde808fe07</t>
-  </si>
-  <si>
-    <t>adf8c208-c8a2-4ca6-9d62-e315d6ebabc1</t>
-  </si>
-  <si>
-    <t>GANGAJOARA BTS A1</t>
-  </si>
-  <si>
-    <t>GANGAJOARA BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.248</t>
-  </si>
-  <si>
-    <t>22.4671</t>
-  </si>
-  <si>
-    <t>88.4425</t>
-  </si>
-  <si>
-    <t>16db720d-f8b8-43c9-9f07-60a1fed515db</t>
-  </si>
-  <si>
-    <t>1d220c1a-36f3-40f4-b8b6-05eed82d5694</t>
-  </si>
-  <si>
-    <t>GOBINDAPUR B2</t>
-  </si>
-  <si>
-    <t>10.123.138.195</t>
-  </si>
-  <si>
-    <t>22.390332</t>
-  </si>
-  <si>
-    <t>88.419742</t>
-  </si>
-  <si>
-    <t>badf80cb-ccc2-47f9-8dc4-82e32733b251</t>
-  </si>
-  <si>
-    <t>dd6b2686-0d45-4bc7-97ff-8da1cf1ae118</t>
-  </si>
-  <si>
-    <t>GOBINDAPUR BTS A1</t>
-  </si>
-  <si>
-    <t>10.123.138.206</t>
-  </si>
-  <si>
-    <t>57ad4ddf-6492-4990-a0f9-5f615172498a</t>
+    <t>4a7e333b-0290-49c7-afd0-347e00239d49</t>
+  </si>
+  <si>
+    <t>NARENDRAPUR II A1</t>
+  </si>
+  <si>
+    <t>NARENDRAPUR II BTS</t>
+  </si>
+  <si>
+    <t>10.123.29.229</t>
+  </si>
+  <si>
+    <t>22.4422</t>
+  </si>
+  <si>
+    <t>88.3951</t>
+  </si>
+  <si>
+    <t>e84ef8c2-4788-497a-90cb-7201d08ee88e</t>
+  </si>
+  <si>
+    <t>5507541c-a6c9-4fae-86df-4bca393e4f79</t>
+  </si>
+  <si>
+    <t>NARENDRAPUR KRISHNA A1</t>
+  </si>
+  <si>
+    <t>NARENDRAPUR 1 (KRISHNA APPT) BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.213</t>
+  </si>
+  <si>
+    <t>41e45185-102e-408f-86b0-285c8b2a411f</t>
+  </si>
+  <si>
+    <t>a5c0276a-d7d9-4bcd-aff6-f216b5f38fec</t>
+  </si>
+  <si>
+    <t>NATUNPALLY A1</t>
+  </si>
+  <si>
+    <t>NATUN PALLY BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.237</t>
+  </si>
+  <si>
+    <t>22.428</t>
+  </si>
+  <si>
+    <t>88.4358</t>
+  </si>
+  <si>
+    <t>15f65398-ee89-47bc-92e0-5c2fd4eaeb1a</t>
+  </si>
+  <si>
+    <t>e32f26aa-e927-4850-bf96-ea92299965b5</t>
+  </si>
+  <si>
+    <t>PIYALITOWN II A1</t>
+  </si>
+  <si>
+    <t>PIYALI TOWN II BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.247</t>
+  </si>
+  <si>
+    <t>22.3466</t>
+  </si>
+  <si>
+    <t>88.4595</t>
+  </si>
+  <si>
+    <t>5ff68e3d-96c7-41b7-a27e-53823346640a</t>
+  </si>
+  <si>
+    <t>a8611582-e981-4137-95a1-32e6b455e489</t>
+  </si>
+  <si>
+    <t>POLEGHAT A1</t>
+  </si>
+  <si>
+    <t>Poleghat</t>
+  </si>
+  <si>
+    <t>10.123.138.250</t>
+  </si>
+  <si>
+    <t>Gram Panchayat</t>
+  </si>
+  <si>
+    <t>22.41065</t>
+  </si>
+  <si>
+    <t>88.39467</t>
+  </si>
+  <si>
+    <t>77ffbe51-7aee-49e2-9ada-2ed98055ceb3</t>
+  </si>
+  <si>
+    <t>7cb3f1cc-8f91-4d74-8ad4-101c4302a580</t>
+  </si>
+  <si>
+    <t>PRAN BORAL A1</t>
+  </si>
+  <si>
+    <t>PRANA BORAL BTS</t>
+  </si>
+  <si>
+    <t>10.123.29.209</t>
+  </si>
+  <si>
+    <t>22.43794</t>
+  </si>
+  <si>
+    <t>88.375121</t>
+  </si>
+  <si>
+    <t>9316bc95-e5b0-4e58-b16f-424662b14ac8</t>
+  </si>
+  <si>
+    <t>7e20a74e-951b-4c6b-a2c1-20b97e320d8f</t>
+  </si>
+  <si>
+    <t>R K MISSION A1</t>
+  </si>
+  <si>
+    <t>MISSION</t>
+  </si>
+  <si>
+    <t>10.123.138.230</t>
+  </si>
+  <si>
+    <t>22.433145</t>
+  </si>
+  <si>
+    <t>88.401453</t>
+  </si>
+  <si>
+    <t>376e5b44-4294-4b61-a411-2df818899fd0</t>
+  </si>
+  <si>
+    <t>9cd28e45-f7dc-4935-8028-c69104d76d17</t>
+  </si>
+  <si>
+    <t>RAJPUR SARKARPARA A1</t>
+  </si>
+  <si>
+    <t>RAJPUR SARKAR PARA BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.215</t>
+  </si>
+  <si>
+    <t>22.429</t>
+  </si>
+  <si>
+    <t>88.4172</t>
+  </si>
+  <si>
+    <t>b4237dad-b581-4bf2-ac29-ae502a2bf43d</t>
+  </si>
+  <si>
+    <t>874f3fbc-a293-48e4-ad87-b26f8871f5a3</t>
+  </si>
+  <si>
+    <t>RAMCHANDRAPUR A1</t>
+  </si>
+  <si>
+    <t>RAMCHANDRAPUR BTS</t>
+  </si>
+  <si>
+    <t>10.123.29.234</t>
+  </si>
+  <si>
+    <t>22.4319</t>
+  </si>
+  <si>
+    <t>88.3827</t>
+  </si>
+  <si>
+    <t>528017c7-b844-4b84-81e4-c9fa425ca540</t>
+  </si>
+  <si>
+    <t>0b8f17fe-a02b-4d69-b184-d9a40efa4981</t>
+  </si>
+  <si>
+    <t>SARMASTAPUR A1</t>
+  </si>
+  <si>
+    <t>SARMASTAPUR BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.210</t>
+  </si>
+  <si>
+    <t>22.407</t>
+  </si>
+  <si>
+    <t>88.3997</t>
+  </si>
+  <si>
+    <t>7a797a60-568c-455a-954d-4099c32a438d</t>
+  </si>
+  <si>
+    <t>3547d309-bb4e-4686-a04e-5d5844c7b879</t>
+  </si>
+  <si>
+    <t>HARINAVI NODE 2 A1</t>
+  </si>
+  <si>
+    <t>10.123.138.245</t>
+  </si>
+  <si>
+    <t>c15780e5-6039-494d-993d-dced5d450390</t>
+  </si>
+  <si>
+    <t>HARINAVI NODE 6 A1</t>
+  </si>
+  <si>
+    <t>10.123.138.244</t>
+  </si>
+  <si>
+    <t>8b870d28-76e7-4332-9a85-a72ec514b4a5</t>
+  </si>
+  <si>
+    <t>HHC A1</t>
+  </si>
+  <si>
+    <t>HHC</t>
+  </si>
+  <si>
+    <t>10.123.138.46</t>
+  </si>
+  <si>
+    <t>22.4587</t>
+  </si>
+  <si>
+    <t>88.3834</t>
+  </si>
+  <si>
+    <t>781a30c9-f5db-4af4-ac1d-f279ad2eff80</t>
+  </si>
+  <si>
+    <t>d7a4479f-4dd9-4b95-a9f6-00876b3e67ad</t>
+  </si>
+  <si>
+    <t>JAGADDAL II A1</t>
+  </si>
+  <si>
+    <t>JAGADAL 2 BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.252</t>
+  </si>
+  <si>
+    <t>22.4222</t>
+  </si>
+  <si>
+    <t>88.4034</t>
+  </si>
+  <si>
+    <t>44d18876-f86b-4ecb-bdc7-a3905dab4690</t>
+  </si>
+  <si>
+    <t>7a87a58e-2ab1-4195-8cea-46efd3da796a</t>
+  </si>
+  <si>
+    <t>JOGIBARTALA A1</t>
+  </si>
+  <si>
+    <t>JOGIBARTALA BTS</t>
+  </si>
+  <si>
+    <t>10.123.138.208</t>
+  </si>
+  <si>
+    <t>22.3768</t>
+  </si>
+  <si>
+    <t>88.4232</t>
+  </si>
+  <si>
+    <t>dea33be8-45f3-4823-9366-654f63ba67f2</t>
+  </si>
+  <si>
+    <t>0300401d-2969-4703-9bc8-0a1b41f7add3</t>
+  </si>
+  <si>
+    <t>KALYANPUR A1</t>
+  </si>
+  <si>
+    <t>KALYANPUR</t>
+  </si>
+  <si>
+    <t>10.123.138.232</t>
+  </si>
+  <si>
+    <t>22.342046</t>
+  </si>
+  <si>
+    <t>88.412244</t>
+  </si>
+  <si>
+    <t>aafe2bfb-6e18-4053-97b5-bf7fb9992fcb</t>
+  </si>
+  <si>
+    <t>45e45063-8612-454d-8469-f002870a22d5</t>
+  </si>
+  <si>
+    <t>HARINAVI B2</t>
+  </si>
+  <si>
+    <t>10.123.138.193</t>
+  </si>
+  <si>
+    <t>6e5cca5f-9516-4264-811b-309d17a29b6a</t>
   </si>
   <si>
     <t>HARINAVI  NODE 7 A1</t>
   </si>
   <si>
-    <t>10.123.138.193</t>
+    <t>10.123.138.253</t>
   </si>
   <si>
     <t>c5db764c-f5d3-4c8f-aaa3-05a095ea008f</t>
   </si>
   <si>
-    <t>KODALIA A1</t>
-  </si>
-  <si>
-    <t>10.123.138.204</t>
-  </si>
-  <si>
-    <t>3e5f8e29-0b30-46e5-95c8-4c70318c4b3f</t>
-  </si>
-  <si>
-    <t>MAHINAGAR A1</t>
-  </si>
-  <si>
-    <t>10.123.138.205</t>
-  </si>
-  <si>
-    <t>4a7e333b-0290-49c7-afd0-347e00239d49</t>
-  </si>
-  <si>
-    <t>NARENDRAPUR II A1</t>
-  </si>
-  <si>
-    <t>NARENDRAPUR II BTS</t>
-  </si>
-  <si>
-    <t>10.123.29.229</t>
-  </si>
-  <si>
-    <t>22.4422</t>
-  </si>
-  <si>
-    <t>88.3951</t>
-  </si>
-  <si>
-    <t>e84ef8c2-4788-497a-90cb-7201d08ee88e</t>
-  </si>
-  <si>
-    <t>5507541c-a6c9-4fae-86df-4bca393e4f79</t>
-  </si>
-  <si>
-    <t>NARENDRAPUR KRISHNA A1</t>
-  </si>
-  <si>
-    <t>NARENDRAPUR 1 (KRISHNA APPT) BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.213</t>
-  </si>
-  <si>
-    <t>41e45185-102e-408f-86b0-285c8b2a411f</t>
-  </si>
-  <si>
-    <t>a5c0276a-d7d9-4bcd-aff6-f216b5f38fec</t>
-  </si>
-  <si>
-    <t>NATUNPALLY A1</t>
-  </si>
-  <si>
-    <t>NATUN PALLY BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.237</t>
-  </si>
-  <si>
-    <t>22.428</t>
-  </si>
-  <si>
-    <t>88.4358</t>
-  </si>
-  <si>
-    <t>15f65398-ee89-47bc-92e0-5c2fd4eaeb1a</t>
-  </si>
-  <si>
-    <t>e32f26aa-e927-4850-bf96-ea92299965b5</t>
-  </si>
-  <si>
-    <t>PIYALITOWN II A1</t>
-  </si>
-  <si>
-    <t>PIYALI TOWN II BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.247</t>
-  </si>
-  <si>
-    <t>22.3466</t>
-  </si>
-  <si>
-    <t>88.4595</t>
-  </si>
-  <si>
-    <t>5ff68e3d-96c7-41b7-a27e-53823346640a</t>
-  </si>
-  <si>
-    <t>a8611582-e981-4137-95a1-32e6b455e489</t>
-  </si>
-  <si>
-    <t>POLEGHAT A1</t>
-  </si>
-  <si>
-    <t>Poleghat</t>
-  </si>
-  <si>
-    <t>10.123.138.250</t>
-  </si>
-  <si>
-    <t>Gram Panchayat</t>
-  </si>
-  <si>
-    <t>22.41065</t>
-  </si>
-  <si>
-    <t>88.39467</t>
-  </si>
-  <si>
-    <t>77ffbe51-7aee-49e2-9ada-2ed98055ceb3</t>
-  </si>
-  <si>
-    <t>7cb3f1cc-8f91-4d74-8ad4-101c4302a580</t>
-  </si>
-  <si>
-    <t>PRAN BORAL A1</t>
-  </si>
-  <si>
-    <t>PRANA BORAL BTS</t>
-  </si>
-  <si>
-    <t>10.123.29.209</t>
-  </si>
-  <si>
-    <t>22.43794</t>
-  </si>
-  <si>
-    <t>88.375121</t>
-  </si>
-  <si>
-    <t>9316bc95-e5b0-4e58-b16f-424662b14ac8</t>
-  </si>
-  <si>
-    <t>7e20a74e-951b-4c6b-a2c1-20b97e320d8f</t>
-  </si>
-  <si>
-    <t>R K MISSION A1</t>
-  </si>
-  <si>
-    <t>MISSION</t>
-  </si>
-  <si>
-    <t>10.123.138.230</t>
-  </si>
-  <si>
-    <t>22.433145</t>
-  </si>
-  <si>
-    <t>88.401453</t>
-  </si>
-  <si>
-    <t>376e5b44-4294-4b61-a411-2df818899fd0</t>
-  </si>
-  <si>
-    <t>9cd28e45-f7dc-4935-8028-c69104d76d17</t>
-  </si>
-  <si>
-    <t>RAJPUR SARKARPARA A1</t>
-  </si>
-  <si>
-    <t>RAJPUR SARKAR PARA BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.215</t>
-  </si>
-  <si>
-    <t>22.429</t>
-  </si>
-  <si>
-    <t>88.4172</t>
-  </si>
-  <si>
-    <t>b4237dad-b581-4bf2-ac29-ae502a2bf43d</t>
-  </si>
-  <si>
-    <t>874f3fbc-a293-48e4-ad87-b26f8871f5a3</t>
-  </si>
-  <si>
-    <t>RAMCHANDRAPUR A1</t>
-  </si>
-  <si>
-    <t>RAMCHANDRAPUR BTS</t>
-  </si>
-  <si>
-    <t>10.123.29.234</t>
-  </si>
-  <si>
-    <t>22.4319</t>
-  </si>
-  <si>
-    <t>88.3827</t>
-  </si>
-  <si>
-    <t>528017c7-b844-4b84-81e4-c9fa425ca540</t>
-  </si>
-  <si>
-    <t>0b8f17fe-a02b-4d69-b184-d9a40efa4981</t>
-  </si>
-  <si>
-    <t>SARMASTAPUR A1</t>
-  </si>
-  <si>
-    <t>SARMASTAPUR BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.210</t>
-  </si>
-  <si>
-    <t>22.407</t>
-  </si>
-  <si>
-    <t>88.3997</t>
-  </si>
-  <si>
-    <t>7a797a60-568c-455a-954d-4099c32a438d</t>
-  </si>
-  <si>
-    <t>3547d309-bb4e-4686-a04e-5d5844c7b879</t>
-  </si>
-  <si>
-    <t>HARINAVI B2</t>
-  </si>
-  <si>
-    <t>10.123.138.253</t>
-  </si>
-  <si>
-    <t>6e5cca5f-9516-4264-811b-309d17a29b6a</t>
-  </si>
-  <si>
-    <t>HARINAVI NODE 2 A1</t>
-  </si>
-  <si>
-    <t>10.123.138.245</t>
-  </si>
-  <si>
-    <t>c15780e5-6039-494d-993d-dced5d450390</t>
-  </si>
-  <si>
-    <t>HARINAVI NODE 6 A1</t>
-  </si>
-  <si>
-    <t>10.123.138.244</t>
-  </si>
-  <si>
-    <t>8b870d28-76e7-4332-9a85-a72ec514b4a5</t>
-  </si>
-  <si>
-    <t>HHC A1</t>
-  </si>
-  <si>
-    <t>HHC</t>
-  </si>
-  <si>
-    <t>10.123.138.46</t>
-  </si>
-  <si>
-    <t>22.4587</t>
-  </si>
-  <si>
-    <t>88.3834</t>
-  </si>
-  <si>
-    <t>781a30c9-f5db-4af4-ac1d-f279ad2eff80</t>
-  </si>
-  <si>
-    <t>d7a4479f-4dd9-4b95-a9f6-00876b3e67ad</t>
-  </si>
-  <si>
-    <t>JAGADDAL II A1</t>
-  </si>
-  <si>
-    <t>JAGADAL 2 BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.252</t>
-  </si>
-  <si>
-    <t>22.4222</t>
-  </si>
-  <si>
-    <t>88.4034</t>
-  </si>
-  <si>
-    <t>44d18876-f86b-4ecb-bdc7-a3905dab4690</t>
-  </si>
-  <si>
-    <t>7a87a58e-2ab1-4195-8cea-46efd3da796a</t>
-  </si>
-  <si>
-    <t>JOGIBARTALA A1</t>
-  </si>
-  <si>
-    <t>JOGIBARTALA BTS</t>
-  </si>
-  <si>
-    <t>10.123.138.208</t>
-  </si>
-  <si>
-    <t>22.3768</t>
-  </si>
-  <si>
-    <t>88.4232</t>
-  </si>
-  <si>
-    <t>dea33be8-45f3-4823-9366-654f63ba67f2</t>
-  </si>
-  <si>
-    <t>0300401d-2969-4703-9bc8-0a1b41f7add3</t>
-  </si>
-  <si>
-    <t>KALYANPUR A1</t>
-  </si>
-  <si>
-    <t>KALYANPUR</t>
-  </si>
-  <si>
-    <t>10.123.138.232</t>
-  </si>
-  <si>
-    <t>22.342046</t>
-  </si>
-  <si>
-    <t>88.412244</t>
-  </si>
-  <si>
-    <t>aafe2bfb-6e18-4053-97b5-bf7fb9992fcb</t>
-  </si>
-  <si>
-    <t>45e45063-8612-454d-8469-f002870a22d5</t>
-  </si>
-  <si>
     <t>KAMALGAZI A1</t>
   </si>
   <si>
+    <t>10.123.29.230</t>
+  </si>
+  <si>
+    <t>38dd3807-d63d-4a53-a295-0649edba88fd</t>
+  </si>
+  <si>
+    <t>KAMALGAZI B2</t>
+  </si>
+  <si>
     <t>10.123.29.196</t>
   </si>
   <si>
-    <t>38dd3807-d63d-4a53-a295-0649edba88fd</t>
-  </si>
-  <si>
-    <t>KAMALGAZI B2</t>
-  </si>
-  <si>
-    <t>10.123.29.230</t>
-  </si>
-  <si>
     <t>4b66d440-d94d-4f6e-964c-787d1abd464e</t>
-  </si>
-  <si>
-    <t>SOUTH GOBINDAPUR</t>
-  </si>
-  <si>
-    <t>SOUTH GOBINDAPUR BTS</t>
-  </si>
-  <si>
-    <t>22.382</t>
-  </si>
-  <si>
-    <t>88.40193</t>
-  </si>
-  <si>
-    <t>7cfda4ed-503a-4400-97bc-89740b0b020d</t>
-  </si>
-  <si>
-    <t>892de7e3-e09f-4c57-aed7-3913be86d86e</t>
   </si>
 </sst>
 </file>
@@ -1681,19 +1633,19 @@
     <xf numFmtId="164" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2035,7 +1987,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA82"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2241,19 +2193,19 @@
         <v>32</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>30</v>
@@ -2265,10 +2217,10 @@
         <v>0</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="O3" s="9" t="s">
         <v>37</v>
@@ -2276,55 +2228,55 @@
       <c r="P3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="12" t="s">
-        <v>30</v>
+      <c r="Q3" s="12">
+        <v>45413</v>
       </c>
       <c r="R3" s="9" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T3" s="9" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="U3" s="9" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="V3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="W3" s="9" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="X3" s="9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Y3" s="12">
-        <v>45961.69217416667</v>
+        <v>45962.679399733795</v>
       </c>
       <c r="Z3" s="12">
-        <v>45961.63479239584</v>
+        <v>45960.39759155092</v>
       </c>
       <c r="AA3" s="9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>32</v>
@@ -2336,7 +2288,7 @@
         <v>30</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>30</v>
@@ -2348,10 +2300,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>37</v>
@@ -2363,13 +2315,13 @@
         <v>30</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U4" s="4" t="s">
         <v>30</v>
@@ -2381,7 +2333,7 @@
         <v>30</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Y4" s="7">
         <v>45961.64074383102</v>
@@ -2398,28 +2350,28 @@
         <v>67</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>68</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="H5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>30</v>
@@ -2427,14 +2379,14 @@
       <c r="K5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="11">
-        <v>0</v>
+      <c r="L5" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="O5" s="9" t="s">
         <v>37</v>
@@ -2446,51 +2398,51 @@
         <v>30</v>
       </c>
       <c r="R5" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="T5" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U5" s="9" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="V5" s="9" t="s">
         <v>30</v>
       </c>
       <c r="W5" s="9" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="X5" s="9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="Y5" s="12">
-        <v>45961.70687113426</v>
+        <v>45962.66076423611</v>
       </c>
       <c r="Z5" s="12">
-        <v>45961.63521721065</v>
+        <v>45959.6893146875</v>
       </c>
       <c r="AA5" s="9" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>32</v>
@@ -2502,7 +2454,7 @@
         <v>30</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>30</v>
@@ -2514,10 +2466,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>37</v>
@@ -2535,7 +2487,7 @@
         <v>39</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>41</v>
@@ -2556,24 +2508,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA6" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>32</v>
@@ -2585,7 +2537,7 @@
         <v>30</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>30</v>
@@ -2597,10 +2549,10 @@
         <v>30</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="O7" s="9" t="s">
         <v>37</v>
@@ -2618,7 +2570,7 @@
         <v>39</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="U7" s="9" t="s">
         <v>41</v>
@@ -2633,30 +2585,30 @@
         <v>43</v>
       </c>
       <c r="Y7" s="12">
-        <v>45960.46675283565</v>
+        <v>45962.66159292824</v>
       </c>
       <c r="Z7" s="12">
         <v>45959.6893146875</v>
       </c>
       <c r="AA7" s="9" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>32</v>
@@ -2668,7 +2620,7 @@
         <v>30</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>30</v>
@@ -2680,10 +2632,10 @@
         <v>30</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>37</v>
@@ -2701,7 +2653,7 @@
         <v>39</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>41</v>
@@ -2716,30 +2668,30 @@
         <v>43</v>
       </c>
       <c r="Y8" s="7">
-        <v>45960.46675283565</v>
+        <v>45962.661973634255</v>
       </c>
       <c r="Z8" s="7">
         <v>45959.6893146875</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>32</v>
@@ -2751,7 +2703,7 @@
         <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>30</v>
@@ -2763,10 +2715,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="O9" s="9" t="s">
         <v>37</v>
@@ -2784,7 +2736,7 @@
         <v>39</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="U9" s="9" t="s">
         <v>41</v>
@@ -2805,24 +2757,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA9" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>32</v>
@@ -2834,7 +2786,7 @@
         <v>30</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>30</v>
@@ -2846,10 +2798,10 @@
         <v>30</v>
       </c>
       <c r="M10" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>37</v>
@@ -2867,7 +2819,7 @@
         <v>39</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>41</v>
@@ -2888,24 +2840,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA10" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>32</v>
@@ -2917,7 +2869,7 @@
         <v>30</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>30</v>
@@ -2929,10 +2881,10 @@
         <v>30</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="N11" s="9" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="O11" s="9" t="s">
         <v>37</v>
@@ -2950,7 +2902,7 @@
         <v>39</v>
       </c>
       <c r="T11" s="9" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="U11" s="9" t="s">
         <v>41</v>
@@ -2971,24 +2923,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA11" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>32</v>
@@ -3000,7 +2952,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>30</v>
@@ -3012,10 +2964,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="4" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>37</v>
@@ -3033,7 +2985,7 @@
         <v>39</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="U12" s="4" t="s">
         <v>41</v>
@@ -3054,36 +3006,36 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA12" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>33</v>
+        <v>113</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>30</v>
@@ -3095,10 +3047,10 @@
         <v>30</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O13" s="9" t="s">
         <v>37</v>
@@ -3110,63 +3062,63 @@
         <v>30</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="T13" s="9" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="V13" s="9" t="s">
         <v>30</v>
       </c>
       <c r="W13" s="9" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="X13" s="9" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="Y13" s="12">
-        <v>45960.46675283565</v>
+        <v>45962.67711618055</v>
       </c>
       <c r="Z13" s="12">
-        <v>45959.6893146875</v>
+        <v>45960.437671168984</v>
       </c>
       <c r="AA13" s="9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>48</v>
+        <v>124</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>30</v>
@@ -3178,10 +3130,10 @@
         <v>30</v>
       </c>
       <c r="M14" s="4" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>37</v>
@@ -3193,63 +3145,63 @@
         <v>30</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="V14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Y14" s="7">
-        <v>45960.46675283565</v>
+        <v>45962.67723274305</v>
       </c>
       <c r="Z14" s="7">
-        <v>45959.71888550926</v>
+        <v>45960.44146032407</v>
       </c>
       <c r="AA14" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>30</v>
@@ -3261,10 +3213,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O15" s="9" t="s">
         <v>37</v>
@@ -3272,67 +3224,67 @@
       <c r="P15" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q15" s="12">
-        <v>45413</v>
+      <c r="Q15" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="S15" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="T15" s="9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="U15" s="9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="V15" s="9" t="s">
         <v>30</v>
       </c>
       <c r="W15" s="9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="X15" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Y15" s="12">
-        <v>45960.46675283565</v>
+        <v>45962.67745662037</v>
       </c>
       <c r="Z15" s="12">
-        <v>45960.39591673611</v>
+        <v>45960.44395743056</v>
       </c>
       <c r="AA15" s="9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>30</v>
@@ -3344,10 +3296,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>37</v>
@@ -3355,17 +3307,17 @@
       <c r="P16" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q16" s="7">
-        <v>45413</v>
+      <c r="Q16" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="S16" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="U16" s="4" t="s">
         <v>41</v>
@@ -3377,45 +3329,45 @@
         <v>42</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Y16" s="7">
-        <v>45960.46675283565</v>
+        <v>45962.677596932874</v>
       </c>
       <c r="Z16" s="7">
-        <v>45960.39676234954</v>
+        <v>45960.44216910879</v>
       </c>
       <c r="AA16" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>30</v>
@@ -3423,14 +3375,14 @@
       <c r="K17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L17" s="11">
-        <v>0</v>
+      <c r="L17" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N17" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O17" s="9" t="s">
         <v>37</v>
@@ -3442,63 +3394,63 @@
         <v>45413</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>121</v>
+        <v>54</v>
       </c>
       <c r="S17" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="T17" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="U17" s="9" t="s">
-        <v>41</v>
+        <v>151</v>
       </c>
       <c r="V17" s="9" t="s">
         <v>30</v>
       </c>
       <c r="W17" s="9" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="X17" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Y17" s="12">
-        <v>45960.46675283565</v>
+        <v>45962.67781069444</v>
       </c>
       <c r="Z17" s="12">
-        <v>45960.39759155092</v>
+        <v>45960.39591673611</v>
       </c>
       <c r="AA17" s="9" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>30</v>
@@ -3510,10 +3462,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O18" s="4" t="s">
         <v>37</v>
@@ -3525,31 +3477,31 @@
         <v>30</v>
       </c>
       <c r="R18" s="4" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="S18" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="V18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="W18" s="4" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Y18" s="7">
-        <v>45960.46675283565</v>
+        <v>45962.67820875</v>
       </c>
       <c r="Z18" s="7">
-        <v>45960.437671168984</v>
+        <v>45959.71888550926</v>
       </c>
       <c r="AA18" s="4" t="s">
         <v>162</v>
@@ -3560,7 +3512,7 @@
         <v>163</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>164</v>
@@ -3575,13 +3527,13 @@
         <v>32</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>145</v>
+        <v>49</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>166</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>30</v>
@@ -3608,28 +3560,28 @@
         <v>30</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="T19" s="9" t="s">
         <v>169</v>
       </c>
       <c r="U19" s="9" t="s">
-        <v>160</v>
+        <v>119</v>
       </c>
       <c r="V19" s="9" t="s">
         <v>30</v>
       </c>
       <c r="W19" s="9" t="s">
-        <v>161</v>
+        <v>120</v>
       </c>
       <c r="X19" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Y19" s="12">
-        <v>45960.46675283565</v>
+        <v>45962.67836340278</v>
       </c>
       <c r="Z19" s="12">
         <v>45960.4385016088</v>
@@ -3640,31 +3592,31 @@
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>75</v>
+        <v>171</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>30</v>
@@ -3676,10 +3628,10 @@
         <v>30</v>
       </c>
       <c r="M20" s="4" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="O20" s="4" t="s">
         <v>37</v>
@@ -3691,63 +3643,63 @@
         <v>30</v>
       </c>
       <c r="R20" s="4" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="S20" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="U20" s="4" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
       <c r="V20" s="4" t="s">
         <v>30</v>
       </c>
       <c r="W20" s="4" t="s">
-        <v>42</v>
+        <v>120</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Y20" s="7">
-        <v>45960.46675283565</v>
+        <v>45962.67861729166</v>
       </c>
       <c r="Z20" s="7">
-        <v>45960.44146032407</v>
+        <v>45960.44336229167</v>
       </c>
       <c r="AA20" s="4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="I21" s="9" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>30</v>
@@ -3759,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N21" s="9" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="O21" s="9" t="s">
         <v>37</v>
@@ -3770,17 +3722,17 @@
       <c r="P21" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="Q21" s="12" t="s">
-        <v>30</v>
+      <c r="Q21" s="12">
+        <v>45413</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>158</v>
+        <v>54</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="T21" s="9" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="U21" s="9" t="s">
         <v>41</v>
@@ -3792,45 +3744,45 @@
         <v>42</v>
       </c>
       <c r="X21" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Y21" s="12">
-        <v>45960.46675283565</v>
+        <v>45962.67890275463</v>
       </c>
       <c r="Z21" s="12">
-        <v>45960.44216910879</v>
+        <v>45960.39676234954</v>
       </c>
       <c r="AA21" s="9" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="F22" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>30</v>
@@ -3842,10 +3794,10 @@
         <v>30</v>
       </c>
       <c r="M22" s="4" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="O22" s="4" t="s">
         <v>37</v>
@@ -3857,63 +3809,63 @@
         <v>30</v>
       </c>
       <c r="R22" s="4" t="s">
-        <v>158</v>
+        <v>117</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="U22" s="4" t="s">
-        <v>123</v>
+        <v>151</v>
       </c>
       <c r="V22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="W22" s="4" t="s">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="Y22" s="7">
-        <v>45960.46675283565</v>
+        <v>45962.679195613426</v>
       </c>
       <c r="Z22" s="7">
         <v>45960.44282672454</v>
       </c>
       <c r="AA22" s="4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="I23" s="9" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>30</v>
@@ -3925,10 +3877,10 @@
         <v>30</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="N23" s="9" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="O23" s="9" t="s">
         <v>37</v>
@@ -3940,51 +3892,51 @@
         <v>30</v>
       </c>
       <c r="R23" s="9" t="s">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="S23" s="9" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="T23" s="9" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="U23" s="9" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="V23" s="9" t="s">
         <v>30</v>
       </c>
       <c r="W23" s="9" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="X23" s="9" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="Y23" s="12">
         <v>45960.46675283565</v>
       </c>
       <c r="Z23" s="12">
-        <v>45960.44336229167</v>
+        <v>45959.6893146875</v>
       </c>
       <c r="AA23" s="9" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F24" s="4" t="s">
         <v>32</v>
@@ -3993,10 +3945,10 @@
         <v>33</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>198</v>
+        <v>30</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>30</v>
@@ -4008,10 +3960,10 @@
         <v>30</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>199</v>
+        <v>62</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>200</v>
+        <v>63</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>37</v>
@@ -4023,57 +3975,57 @@
         <v>30</v>
       </c>
       <c r="R24" s="4" t="s">
-        <v>158</v>
+        <v>206</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>201</v>
+        <v>65</v>
       </c>
       <c r="U24" s="4" t="s">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="V24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="W24" s="4" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>65</v>
+        <v>208</v>
       </c>
       <c r="Y24" s="7">
         <v>45960.46675283565</v>
       </c>
       <c r="Z24" s="7">
-        <v>45960.44395743056</v>
+        <v>45959.6893146875</v>
       </c>
       <c r="AA24" s="4" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>204</v>
+        <v>28</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>206</v>
+        <v>30</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>30</v>
+        <v>212</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>32</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>30</v>
@@ -4087,14 +4039,14 @@
       <c r="K25" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="11">
-        <v>0</v>
+      <c r="L25" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="N25" s="9" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="O25" s="9" t="s">
         <v>37</v>
@@ -4106,63 +4058,63 @@
         <v>30</v>
       </c>
       <c r="R25" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="S25" s="9" t="s">
-        <v>209</v>
+        <v>39</v>
       </c>
       <c r="T25" s="9" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="U25" s="9" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="V25" s="9" t="s">
         <v>30</v>
       </c>
       <c r="W25" s="9" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="X25" s="9" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="Y25" s="12">
-        <v>45961.707831990745</v>
+        <v>45960.46675283565</v>
       </c>
       <c r="Z25" s="12">
-        <v>45961.6371672338</v>
+        <v>45959.6893146875</v>
       </c>
       <c r="AA25" s="9" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="F26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>30</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>30</v>
@@ -4170,14 +4122,14 @@
       <c r="K26" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L26" s="6">
-        <v>0</v>
+      <c r="L26" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="O26" s="4" t="s">
         <v>37</v>
@@ -4189,51 +4141,51 @@
         <v>30</v>
       </c>
       <c r="R26" s="4" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="S26" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="U26" s="4" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="V26" s="4" t="s">
         <v>30</v>
       </c>
       <c r="W26" s="4" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="Y26" s="7">
-        <v>45961.70783226852</v>
+        <v>45960.46675283565</v>
       </c>
       <c r="Z26" s="7">
-        <v>45961.63317707176</v>
+        <v>45959.6893146875</v>
       </c>
       <c r="AA26" s="4" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>32</v>
@@ -4245,7 +4197,7 @@
         <v>30</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>30</v>
@@ -4257,10 +4209,10 @@
         <v>30</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="N27" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O27" s="9" t="s">
         <v>37</v>
@@ -4278,7 +4230,7 @@
         <v>39</v>
       </c>
       <c r="T27" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="U27" s="9" t="s">
         <v>41</v>
@@ -4299,24 +4251,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA27" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>58</v>
+        <v>228</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>32</v>
@@ -4328,7 +4280,7 @@
         <v>30</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>30</v>
@@ -4340,10 +4292,10 @@
         <v>30</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>61</v>
+        <v>230</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>62</v>
+        <v>231</v>
       </c>
       <c r="O28" s="4" t="s">
         <v>37</v>
@@ -4355,13 +4307,13 @@
         <v>30</v>
       </c>
       <c r="R28" s="4" t="s">
-        <v>229</v>
+        <v>38</v>
       </c>
       <c r="S28" s="4" t="s">
-        <v>230</v>
+        <v>39</v>
       </c>
       <c r="T28" s="4" t="s">
-        <v>64</v>
+        <v>232</v>
       </c>
       <c r="U28" s="4" t="s">
         <v>41</v>
@@ -4373,7 +4325,7 @@
         <v>42</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>231</v>
+        <v>43</v>
       </c>
       <c r="Y28" s="7">
         <v>45960.46675283565</v>
@@ -4382,18 +4334,18 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA28" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>234</v>
+        <v>47</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>30</v>
@@ -4411,7 +4363,7 @@
         <v>30</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>30</v>
@@ -4423,10 +4375,10 @@
         <v>30</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>236</v>
+        <v>52</v>
       </c>
       <c r="N29" s="9" t="s">
-        <v>237</v>
+        <v>53</v>
       </c>
       <c r="O29" s="9" t="s">
         <v>37</v>
@@ -4444,7 +4396,7 @@
         <v>39</v>
       </c>
       <c r="T29" s="9" t="s">
-        <v>238</v>
+        <v>56</v>
       </c>
       <c r="U29" s="9" t="s">
         <v>41</v>
@@ -4465,24 +4417,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA29" s="9" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>241</v>
+        <v>47</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>32</v>
@@ -4494,7 +4446,7 @@
         <v>30</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>30</v>
@@ -4506,10 +4458,10 @@
         <v>30</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>244</v>
+        <v>53</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>37</v>
@@ -4527,7 +4479,7 @@
         <v>39</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>245</v>
+        <v>56</v>
       </c>
       <c r="U30" s="4" t="s">
         <v>41</v>
@@ -4548,24 +4500,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA30" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>241</v>
+        <v>47</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>32</v>
@@ -4577,7 +4529,7 @@
         <v>30</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>30</v>
@@ -4589,10 +4541,10 @@
         <v>30</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="N31" s="9" t="s">
-        <v>244</v>
+        <v>53</v>
       </c>
       <c r="O31" s="9" t="s">
         <v>37</v>
@@ -4610,7 +4562,7 @@
         <v>39</v>
       </c>
       <c r="T31" s="9" t="s">
-        <v>245</v>
+        <v>56</v>
       </c>
       <c r="U31" s="9" t="s">
         <v>41</v>
@@ -4631,24 +4583,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA31" s="9" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>32</v>
@@ -4660,7 +4612,7 @@
         <v>30</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>30</v>
@@ -4672,10 +4624,10 @@
         <v>30</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>37</v>
@@ -4693,7 +4645,7 @@
         <v>39</v>
       </c>
       <c r="T32" s="4" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="U32" s="4" t="s">
         <v>41</v>
@@ -4714,24 +4666,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA32" s="4" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>143</v>
+        <v>250</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>32</v>
@@ -4743,7 +4695,7 @@
         <v>30</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="J33" s="9" t="s">
         <v>30</v>
@@ -4755,10 +4707,10 @@
         <v>30</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="N33" s="9" t="s">
-        <v>148</v>
+        <v>253</v>
       </c>
       <c r="O33" s="9" t="s">
         <v>37</v>
@@ -4776,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="T33" s="9" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="U33" s="9" t="s">
         <v>41</v>
@@ -4797,24 +4749,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA33" s="9" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>143</v>
+        <v>257</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>32</v>
@@ -4826,7 +4778,7 @@
         <v>30</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>30</v>
@@ -4838,10 +4790,10 @@
         <v>30</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>148</v>
+        <v>260</v>
       </c>
       <c r="O34" s="4" t="s">
         <v>37</v>
@@ -4859,7 +4811,7 @@
         <v>39</v>
       </c>
       <c r="T34" s="4" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="U34" s="4" t="s">
         <v>41</v>
@@ -4880,24 +4832,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA34" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>143</v>
+        <v>264</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>32</v>
@@ -4909,7 +4861,7 @@
         <v>30</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J35" s="9" t="s">
         <v>30</v>
@@ -4921,10 +4873,10 @@
         <v>30</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>147</v>
+        <v>266</v>
       </c>
       <c r="N35" s="9" t="s">
-        <v>148</v>
+        <v>267</v>
       </c>
       <c r="O35" s="9" t="s">
         <v>37</v>
@@ -4942,7 +4894,7 @@
         <v>39</v>
       </c>
       <c r="T35" s="9" t="s">
-        <v>149</v>
+        <v>268</v>
       </c>
       <c r="U35" s="9" t="s">
         <v>41</v>
@@ -4963,24 +4915,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA35" s="9" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>32</v>
@@ -4992,7 +4944,7 @@
         <v>30</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>30</v>
@@ -5004,10 +4956,10 @@
         <v>30</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="O36" s="4" t="s">
         <v>37</v>
@@ -5025,7 +4977,7 @@
         <v>39</v>
       </c>
       <c r="T36" s="4" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="U36" s="4" t="s">
         <v>41</v>
@@ -5046,24 +4998,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA36" s="4" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>32</v>
@@ -5075,7 +5027,7 @@
         <v>30</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>30</v>
@@ -5087,10 +5039,10 @@
         <v>30</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>275</v>
+        <v>72</v>
       </c>
       <c r="N37" s="9" t="s">
-        <v>276</v>
+        <v>73</v>
       </c>
       <c r="O37" s="9" t="s">
         <v>37</v>
@@ -5108,7 +5060,7 @@
         <v>39</v>
       </c>
       <c r="T37" s="9" t="s">
-        <v>277</v>
+        <v>74</v>
       </c>
       <c r="U37" s="9" t="s">
         <v>41</v>
@@ -5129,24 +5081,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA37" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>28</v>
+        <v>281</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>280</v>
+        <v>60</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>32</v>
@@ -5158,10 +5110,10 @@
         <v>30</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>30</v>
+        <v>283</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>30</v>
@@ -5170,10 +5122,10 @@
         <v>30</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>283</v>
+        <v>63</v>
       </c>
       <c r="O38" s="4" t="s">
         <v>37</v>
@@ -5185,13 +5137,13 @@
         <v>30</v>
       </c>
       <c r="R38" s="4" t="s">
-        <v>38</v>
+        <v>284</v>
       </c>
       <c r="S38" s="4" t="s">
-        <v>39</v>
+        <v>285</v>
       </c>
       <c r="T38" s="4" t="s">
-        <v>284</v>
+        <v>65</v>
       </c>
       <c r="U38" s="4" t="s">
         <v>41</v>
@@ -5203,7 +5155,7 @@
         <v>42</v>
       </c>
       <c r="X38" s="4" t="s">
-        <v>43</v>
+        <v>286</v>
       </c>
       <c r="Y38" s="7">
         <v>45960.46675283565</v>
@@ -5212,24 +5164,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA38" s="4" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B39" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>287</v>
+        <v>60</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>32</v>
@@ -5241,7 +5193,7 @@
         <v>30</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>30</v>
@@ -5253,10 +5205,10 @@
         <v>30</v>
       </c>
       <c r="M39" s="9" t="s">
-        <v>289</v>
+        <v>62</v>
       </c>
       <c r="N39" s="9" t="s">
-        <v>290</v>
+        <v>63</v>
       </c>
       <c r="O39" s="9" t="s">
         <v>37</v>
@@ -5274,7 +5226,7 @@
         <v>39</v>
       </c>
       <c r="T39" s="9" t="s">
-        <v>291</v>
+        <v>65</v>
       </c>
       <c r="U39" s="9" t="s">
         <v>41</v>
@@ -5295,24 +5247,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA39" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>294</v>
+        <v>60</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>32</v>
@@ -5324,7 +5276,7 @@
         <v>30</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>30</v>
@@ -5336,10 +5288,10 @@
         <v>30</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>296</v>
+        <v>62</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>297</v>
+        <v>63</v>
       </c>
       <c r="O40" s="4" t="s">
         <v>37</v>
@@ -5357,7 +5309,7 @@
         <v>39</v>
       </c>
       <c r="T40" s="4" t="s">
-        <v>298</v>
+        <v>65</v>
       </c>
       <c r="U40" s="4" t="s">
         <v>41</v>
@@ -5378,24 +5330,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA40" s="4" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B41" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D41" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>32</v>
@@ -5407,7 +5359,7 @@
         <v>30</v>
       </c>
       <c r="I41" s="9" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>30</v>
@@ -5419,10 +5371,10 @@
         <v>30</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="N41" s="9" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="O41" s="9" t="s">
         <v>37</v>
@@ -5440,7 +5392,7 @@
         <v>39</v>
       </c>
       <c r="T41" s="9" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="U41" s="9" t="s">
         <v>41</v>
@@ -5461,24 +5413,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA41" s="9" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>304</v>
+        <v>28</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>32</v>
@@ -5490,10 +5442,10 @@
         <v>30</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>306</v>
+        <v>30</v>
       </c>
       <c r="K42" s="4" t="s">
         <v>30</v>
@@ -5502,10 +5454,10 @@
         <v>30</v>
       </c>
       <c r="M42" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N42" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O42" s="4" t="s">
         <v>37</v>
@@ -5517,13 +5469,13 @@
         <v>30</v>
       </c>
       <c r="R42" s="4" t="s">
-        <v>307</v>
+        <v>38</v>
       </c>
       <c r="S42" s="4" t="s">
-        <v>308</v>
+        <v>39</v>
       </c>
       <c r="T42" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U42" s="4" t="s">
         <v>41</v>
@@ -5535,7 +5487,7 @@
         <v>42</v>
       </c>
       <c r="X42" s="4" t="s">
-        <v>309</v>
+        <v>43</v>
       </c>
       <c r="Y42" s="7">
         <v>45960.46675283565</v>
@@ -5544,24 +5496,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA42" s="4" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="B43" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D43" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>32</v>
@@ -5573,7 +5525,7 @@
         <v>30</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>30</v>
@@ -5585,10 +5537,10 @@
         <v>30</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N43" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O43" s="9" t="s">
         <v>37</v>
@@ -5606,7 +5558,7 @@
         <v>39</v>
       </c>
       <c r="T43" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U43" s="9" t="s">
         <v>41</v>
@@ -5627,24 +5579,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA43" s="9" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>32</v>
@@ -5656,7 +5608,7 @@
         <v>30</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>30</v>
@@ -5668,10 +5620,10 @@
         <v>30</v>
       </c>
       <c r="M44" s="4" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="N44" s="4" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="O44" s="4" t="s">
         <v>37</v>
@@ -5689,7 +5641,7 @@
         <v>39</v>
       </c>
       <c r="T44" s="4" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="U44" s="4" t="s">
         <v>41</v>
@@ -5710,24 +5662,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA44" s="4" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B45" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>58</v>
+        <v>303</v>
       </c>
       <c r="D45" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>32</v>
@@ -5739,7 +5691,7 @@
         <v>30</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>30</v>
@@ -5751,10 +5703,10 @@
         <v>30</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>61</v>
+        <v>305</v>
       </c>
       <c r="N45" s="9" t="s">
-        <v>62</v>
+        <v>306</v>
       </c>
       <c r="O45" s="9" t="s">
         <v>37</v>
@@ -5772,7 +5724,7 @@
         <v>39</v>
       </c>
       <c r="T45" s="9" t="s">
-        <v>64</v>
+        <v>307</v>
       </c>
       <c r="U45" s="9" t="s">
         <v>41</v>
@@ -5793,24 +5745,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA45" s="9" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>58</v>
+        <v>310</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>32</v>
@@ -5822,7 +5774,7 @@
         <v>30</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>30</v>
@@ -5834,10 +5786,10 @@
         <v>30</v>
       </c>
       <c r="M46" s="4" t="s">
-        <v>61</v>
+        <v>312</v>
       </c>
       <c r="N46" s="4" t="s">
-        <v>62</v>
+        <v>313</v>
       </c>
       <c r="O46" s="4" t="s">
         <v>37</v>
@@ -5855,7 +5807,7 @@
         <v>39</v>
       </c>
       <c r="T46" s="4" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="U46" s="4" t="s">
         <v>41</v>
@@ -5876,24 +5828,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA46" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="B47" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>58</v>
+        <v>310</v>
       </c>
       <c r="D47" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>32</v>
@@ -5905,7 +5857,7 @@
         <v>30</v>
       </c>
       <c r="I47" s="9" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J47" s="9" t="s">
         <v>30</v>
@@ -5917,10 +5869,10 @@
         <v>30</v>
       </c>
       <c r="M47" s="9" t="s">
-        <v>61</v>
+        <v>312</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>62</v>
+        <v>313</v>
       </c>
       <c r="O47" s="9" t="s">
         <v>37</v>
@@ -5938,7 +5890,7 @@
         <v>39</v>
       </c>
       <c r="T47" s="9" t="s">
-        <v>64</v>
+        <v>314</v>
       </c>
       <c r="U47" s="9" t="s">
         <v>41</v>
@@ -5959,24 +5911,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA47" s="9" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F48" s="4" t="s">
         <v>32</v>
@@ -5988,7 +5940,7 @@
         <v>30</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>30</v>
@@ -6000,10 +5952,10 @@
         <v>30</v>
       </c>
       <c r="M48" s="4" t="s">
-        <v>78</v>
+        <v>140</v>
       </c>
       <c r="N48" s="4" t="s">
-        <v>79</v>
+        <v>141</v>
       </c>
       <c r="O48" s="4" t="s">
         <v>37</v>
@@ -6021,7 +5973,7 @@
         <v>39</v>
       </c>
       <c r="T48" s="4" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="U48" s="4" t="s">
         <v>41</v>
@@ -6042,24 +5994,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA48" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B49" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>32</v>
@@ -6071,7 +6023,7 @@
         <v>30</v>
       </c>
       <c r="I49" s="9" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>30</v>
@@ -6083,10 +6035,10 @@
         <v>30</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="N49" s="9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="O49" s="9" t="s">
         <v>37</v>
@@ -6104,7 +6056,7 @@
         <v>39</v>
       </c>
       <c r="T49" s="9" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="U49" s="9" t="s">
         <v>41</v>
@@ -6125,24 +6077,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA49" s="9" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>32</v>
@@ -6166,10 +6118,10 @@
         <v>30</v>
       </c>
       <c r="M50" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="N50" s="4" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="O50" s="4" t="s">
         <v>37</v>
@@ -6187,7 +6139,7 @@
         <v>39</v>
       </c>
       <c r="T50" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="U50" s="4" t="s">
         <v>41</v>
@@ -6208,24 +6160,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA50" s="4" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D51" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>32</v>
@@ -6237,7 +6189,7 @@
         <v>30</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J51" s="9" t="s">
         <v>30</v>
@@ -6249,10 +6201,10 @@
         <v>30</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="N51" s="9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="O51" s="9" t="s">
         <v>37</v>
@@ -6270,7 +6222,7 @@
         <v>39</v>
       </c>
       <c r="T51" s="9" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="U51" s="9" t="s">
         <v>41</v>
@@ -6291,24 +6243,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA51" s="9" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>174</v>
+        <v>344</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>32</v>
@@ -6320,7 +6272,7 @@
         <v>30</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J52" s="4" t="s">
         <v>30</v>
@@ -6332,10 +6284,10 @@
         <v>30</v>
       </c>
       <c r="M52" s="4" t="s">
-        <v>177</v>
+        <v>346</v>
       </c>
       <c r="N52" s="4" t="s">
-        <v>178</v>
+        <v>347</v>
       </c>
       <c r="O52" s="4" t="s">
         <v>37</v>
@@ -6353,7 +6305,7 @@
         <v>39</v>
       </c>
       <c r="T52" s="4" t="s">
-        <v>179</v>
+        <v>348</v>
       </c>
       <c r="U52" s="4" t="s">
         <v>41</v>
@@ -6374,24 +6326,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA52" s="4" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>32</v>
@@ -6403,7 +6355,7 @@
         <v>30</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J53" s="9" t="s">
         <v>30</v>
@@ -6415,10 +6367,10 @@
         <v>30</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="N53" s="9" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="O53" s="9" t="s">
         <v>37</v>
@@ -6436,7 +6388,7 @@
         <v>39</v>
       </c>
       <c r="T53" s="9" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="U53" s="9" t="s">
         <v>41</v>
@@ -6457,24 +6409,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA53" s="9" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>32</v>
@@ -6486,7 +6438,7 @@
         <v>30</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J54" s="4" t="s">
         <v>30</v>
@@ -6498,10 +6450,10 @@
         <v>30</v>
       </c>
       <c r="M54" s="4" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="O54" s="4" t="s">
         <v>37</v>
@@ -6519,7 +6471,7 @@
         <v>39</v>
       </c>
       <c r="T54" s="4" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="U54" s="4" t="s">
         <v>41</v>
@@ -6540,24 +6492,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA54" s="4" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>32</v>
@@ -6569,7 +6521,7 @@
         <v>30</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J55" s="9" t="s">
         <v>30</v>
@@ -6581,10 +6533,10 @@
         <v>30</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="O55" s="9" t="s">
         <v>37</v>
@@ -6602,7 +6554,7 @@
         <v>39</v>
       </c>
       <c r="T55" s="9" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="U55" s="9" t="s">
         <v>41</v>
@@ -6623,24 +6575,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA55" s="9" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>32</v>
@@ -6652,7 +6604,7 @@
         <v>30</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J56" s="4" t="s">
         <v>30</v>
@@ -6664,10 +6616,10 @@
         <v>30</v>
       </c>
       <c r="M56" s="4" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="N56" s="4" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="O56" s="4" t="s">
         <v>37</v>
@@ -6685,7 +6637,7 @@
         <v>39</v>
       </c>
       <c r="T56" s="4" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="U56" s="4" t="s">
         <v>41</v>
@@ -6706,24 +6658,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA56" s="4" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="B57" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>32</v>
@@ -6747,10 +6699,10 @@
         <v>30</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="N57" s="9" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
       <c r="O57" s="9" t="s">
         <v>37</v>
@@ -6768,7 +6720,7 @@
         <v>39</v>
       </c>
       <c r="T57" s="9" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="U57" s="9" t="s">
         <v>41</v>
@@ -6789,24 +6741,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA57" s="9" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>213</v>
+        <v>386</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>32</v>
@@ -6818,7 +6770,7 @@
         <v>30</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J58" s="4" t="s">
         <v>30</v>
@@ -6830,10 +6782,10 @@
         <v>30</v>
       </c>
       <c r="M58" s="4" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="N58" s="4" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="O58" s="4" t="s">
         <v>37</v>
@@ -6851,7 +6803,7 @@
         <v>39</v>
       </c>
       <c r="T58" s="4" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="U58" s="4" t="s">
         <v>41</v>
@@ -6872,24 +6824,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA58" s="4" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B59" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>214</v>
+        <v>393</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>32</v>
@@ -6913,10 +6865,10 @@
         <v>30</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>215</v>
+        <v>388</v>
       </c>
       <c r="N59" s="9" t="s">
-        <v>216</v>
+        <v>389</v>
       </c>
       <c r="O59" s="9" t="s">
         <v>37</v>
@@ -6934,7 +6886,7 @@
         <v>39</v>
       </c>
       <c r="T59" s="9" t="s">
-        <v>217</v>
+        <v>395</v>
       </c>
       <c r="U59" s="9" t="s">
         <v>41</v>
@@ -6955,24 +6907,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA59" s="9" t="s">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>58</v>
+        <v>398</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>32</v>
@@ -6984,7 +6936,7 @@
         <v>30</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J60" s="4" t="s">
         <v>30</v>
@@ -6996,10 +6948,10 @@
         <v>30</v>
       </c>
       <c r="M60" s="4" t="s">
-        <v>61</v>
+        <v>400</v>
       </c>
       <c r="N60" s="4" t="s">
-        <v>62</v>
+        <v>401</v>
       </c>
       <c r="O60" s="4" t="s">
         <v>37</v>
@@ -7017,7 +6969,7 @@
         <v>39</v>
       </c>
       <c r="T60" s="4" t="s">
-        <v>64</v>
+        <v>402</v>
       </c>
       <c r="U60" s="4" t="s">
         <v>41</v>
@@ -7038,24 +6990,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA60" s="4" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B61" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="9" t="s">
-        <v>47</v>
+        <v>405</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>32</v>
@@ -7079,10 +7031,10 @@
         <v>30</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>49</v>
+        <v>407</v>
       </c>
       <c r="N61" s="9" t="s">
-        <v>50</v>
+        <v>408</v>
       </c>
       <c r="O61" s="9" t="s">
         <v>37</v>
@@ -7100,7 +7052,7 @@
         <v>39</v>
       </c>
       <c r="T61" s="9" t="s">
-        <v>53</v>
+        <v>409</v>
       </c>
       <c r="U61" s="9" t="s">
         <v>41</v>
@@ -7121,24 +7073,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA61" s="9" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>68</v>
+        <v>412</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="F62" s="4" t="s">
         <v>32</v>
@@ -7150,7 +7102,7 @@
         <v>30</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>34</v>
+        <v>414</v>
       </c>
       <c r="J62" s="4" t="s">
         <v>30</v>
@@ -7162,10 +7114,10 @@
         <v>30</v>
       </c>
       <c r="M62" s="4" t="s">
-        <v>70</v>
+        <v>415</v>
       </c>
       <c r="N62" s="4" t="s">
-        <v>71</v>
+        <v>416</v>
       </c>
       <c r="O62" s="4" t="s">
         <v>37</v>
@@ -7183,7 +7135,7 @@
         <v>39</v>
       </c>
       <c r="T62" s="4" t="s">
-        <v>72</v>
+        <v>417</v>
       </c>
       <c r="U62" s="4" t="s">
         <v>41</v>
@@ -7204,24 +7156,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA62" s="4" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>398</v>
+        <v>419</v>
       </c>
       <c r="B63" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>400</v>
+        <v>421</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>32</v>
@@ -7245,10 +7197,10 @@
         <v>30</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>401</v>
+        <v>422</v>
       </c>
       <c r="N63" s="9" t="s">
-        <v>402</v>
+        <v>423</v>
       </c>
       <c r="O63" s="9" t="s">
         <v>37</v>
@@ -7266,7 +7218,7 @@
         <v>39</v>
       </c>
       <c r="T63" s="9" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="U63" s="9" t="s">
         <v>41</v>
@@ -7287,24 +7239,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA63" s="9" t="s">
-        <v>404</v>
+        <v>425</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>406</v>
+        <v>427</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>407</v>
+        <v>428</v>
       </c>
       <c r="F64" s="4" t="s">
         <v>32</v>
@@ -7316,7 +7268,7 @@
         <v>30</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J64" s="4" t="s">
         <v>30</v>
@@ -7328,10 +7280,10 @@
         <v>30</v>
       </c>
       <c r="M64" s="4" t="s">
-        <v>401</v>
+        <v>429</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>402</v>
+        <v>430</v>
       </c>
       <c r="O64" s="4" t="s">
         <v>37</v>
@@ -7349,7 +7301,7 @@
         <v>39</v>
       </c>
       <c r="T64" s="4" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="U64" s="4" t="s">
         <v>41</v>
@@ -7370,24 +7322,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA64" s="4" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="B65" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C65" s="9" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>412</v>
+        <v>435</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>32</v>
@@ -7411,10 +7363,10 @@
         <v>30</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>413</v>
+        <v>436</v>
       </c>
       <c r="N65" s="9" t="s">
-        <v>414</v>
+        <v>437</v>
       </c>
       <c r="O65" s="9" t="s">
         <v>37</v>
@@ -7432,7 +7384,7 @@
         <v>39</v>
       </c>
       <c r="T65" s="9" t="s">
-        <v>415</v>
+        <v>438</v>
       </c>
       <c r="U65" s="9" t="s">
         <v>41</v>
@@ -7453,24 +7405,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA65" s="9" t="s">
-        <v>416</v>
+        <v>439</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>417</v>
+        <v>440</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>418</v>
+        <v>441</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>419</v>
+        <v>442</v>
       </c>
       <c r="F66" s="4" t="s">
         <v>32</v>
@@ -7494,10 +7446,10 @@
         <v>30</v>
       </c>
       <c r="M66" s="4" t="s">
-        <v>420</v>
+        <v>443</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>421</v>
+        <v>444</v>
       </c>
       <c r="O66" s="4" t="s">
         <v>37</v>
@@ -7515,7 +7467,7 @@
         <v>39</v>
       </c>
       <c r="T66" s="4" t="s">
-        <v>422</v>
+        <v>445</v>
       </c>
       <c r="U66" s="4" t="s">
         <v>41</v>
@@ -7536,24 +7488,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA66" s="4" t="s">
-        <v>423</v>
+        <v>446</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>424</v>
+        <v>447</v>
       </c>
       <c r="B67" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>425</v>
+        <v>448</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>426</v>
+        <v>449</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>32</v>
@@ -7565,7 +7517,7 @@
         <v>30</v>
       </c>
       <c r="I67" s="9" t="s">
-        <v>427</v>
+        <v>34</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>30</v>
@@ -7577,10 +7529,10 @@
         <v>30</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="O67" s="9" t="s">
         <v>37</v>
@@ -7598,7 +7550,7 @@
         <v>39</v>
       </c>
       <c r="T67" s="9" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="U67" s="9" t="s">
         <v>41</v>
@@ -7619,24 +7571,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA67" s="9" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>433</v>
+        <v>60</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>32</v>
@@ -7648,7 +7600,7 @@
         <v>30</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J68" s="4" t="s">
         <v>30</v>
@@ -7660,10 +7612,10 @@
         <v>30</v>
       </c>
       <c r="M68" s="4" t="s">
-        <v>435</v>
+        <v>62</v>
       </c>
       <c r="N68" s="4" t="s">
-        <v>436</v>
+        <v>63</v>
       </c>
       <c r="O68" s="4" t="s">
         <v>37</v>
@@ -7681,7 +7633,7 @@
         <v>39</v>
       </c>
       <c r="T68" s="4" t="s">
-        <v>437</v>
+        <v>65</v>
       </c>
       <c r="U68" s="4" t="s">
         <v>41</v>
@@ -7702,24 +7654,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA68" s="4" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="B69" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>440</v>
+        <v>60</v>
       </c>
       <c r="D69" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>441</v>
+        <v>458</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>32</v>
@@ -7731,7 +7683,7 @@
         <v>30</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J69" s="9" t="s">
         <v>30</v>
@@ -7743,10 +7695,10 @@
         <v>30</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>442</v>
+        <v>62</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>443</v>
+        <v>63</v>
       </c>
       <c r="O69" s="9" t="s">
         <v>37</v>
@@ -7764,7 +7716,7 @@
         <v>39</v>
       </c>
       <c r="T69" s="9" t="s">
-        <v>444</v>
+        <v>65</v>
       </c>
       <c r="U69" s="9" t="s">
         <v>41</v>
@@ -7785,24 +7737,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA69" s="9" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>32</v>
@@ -7814,7 +7766,7 @@
         <v>30</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="J70" s="4" t="s">
         <v>30</v>
@@ -7826,10 +7778,10 @@
         <v>30</v>
       </c>
       <c r="M70" s="4" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
       <c r="O70" s="4" t="s">
         <v>37</v>
@@ -7847,7 +7799,7 @@
         <v>39</v>
       </c>
       <c r="T70" s="4" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="U70" s="4" t="s">
         <v>41</v>
@@ -7868,24 +7820,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA70" s="4" t="s">
-        <v>452</v>
+        <v>466</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="B71" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="F71" s="9" t="s">
         <v>32</v>
@@ -7909,10 +7861,10 @@
         <v>30</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="O71" s="9" t="s">
         <v>37</v>
@@ -7930,7 +7882,7 @@
         <v>39</v>
       </c>
       <c r="T71" s="9" t="s">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="U71" s="9" t="s">
         <v>41</v>
@@ -7951,24 +7903,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA71" s="9" t="s">
-        <v>459</v>
+        <v>473</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>32</v>
@@ -7992,10 +7944,10 @@
         <v>30</v>
       </c>
       <c r="M72" s="4" t="s">
-        <v>463</v>
+        <v>477</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="O72" s="4" t="s">
         <v>37</v>
@@ -8013,7 +7965,7 @@
         <v>39</v>
       </c>
       <c r="T72" s="4" t="s">
-        <v>465</v>
+        <v>479</v>
       </c>
       <c r="U72" s="4" t="s">
         <v>41</v>
@@ -8034,24 +7986,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA72" s="4" t="s">
-        <v>466</v>
+        <v>480</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>467</v>
+        <v>481</v>
       </c>
       <c r="B73" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>58</v>
+        <v>482</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>468</v>
+        <v>483</v>
       </c>
       <c r="F73" s="9" t="s">
         <v>32</v>
@@ -8063,7 +8015,7 @@
         <v>30</v>
       </c>
       <c r="I73" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>30</v>
@@ -8075,10 +8027,10 @@
         <v>30</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>61</v>
+        <v>484</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>62</v>
+        <v>485</v>
       </c>
       <c r="O73" s="9" t="s">
         <v>37</v>
@@ -8096,7 +8048,7 @@
         <v>39</v>
       </c>
       <c r="T73" s="9" t="s">
-        <v>64</v>
+        <v>486</v>
       </c>
       <c r="U73" s="9" t="s">
         <v>41</v>
@@ -8117,24 +8069,24 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA73" s="9" t="s">
-        <v>469</v>
+        <v>487</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>471</v>
+        <v>489</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>32</v>
@@ -8146,7 +8098,7 @@
         <v>30</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J74" s="4" t="s">
         <v>30</v>
@@ -8158,10 +8110,10 @@
         <v>30</v>
       </c>
       <c r="M74" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N74" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O74" s="4" t="s">
         <v>37</v>
@@ -8179,7 +8131,7 @@
         <v>39</v>
       </c>
       <c r="T74" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U74" s="4" t="s">
         <v>41</v>
@@ -8194,30 +8146,30 @@
         <v>43</v>
       </c>
       <c r="Y74" s="7">
-        <v>45960.46675283565</v>
+        <v>45962.66437342593</v>
       </c>
       <c r="Z74" s="7">
         <v>45959.6893146875</v>
       </c>
       <c r="AA74" s="4" t="s">
-        <v>472</v>
+        <v>490</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="B75" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="F75" s="9" t="s">
         <v>32</v>
@@ -8229,7 +8181,7 @@
         <v>30</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="J75" s="9" t="s">
         <v>30</v>
@@ -8241,10 +8193,10 @@
         <v>30</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O75" s="9" t="s">
         <v>37</v>
@@ -8262,7 +8214,7 @@
         <v>39</v>
       </c>
       <c r="T75" s="9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U75" s="9" t="s">
         <v>41</v>
@@ -8277,30 +8229,30 @@
         <v>43</v>
       </c>
       <c r="Y75" s="12">
-        <v>45960.46675283565</v>
+        <v>45962.664823530096</v>
       </c>
       <c r="Z75" s="12">
         <v>45959.6893146875</v>
       </c>
       <c r="AA75" s="9" t="s">
-        <v>475</v>
+        <v>493</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>476</v>
+        <v>494</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>477</v>
+        <v>180</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>32</v>
@@ -8312,7 +8264,7 @@
         <v>30</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="J76" s="4" t="s">
         <v>30</v>
@@ -8324,10 +8276,10 @@
         <v>30</v>
       </c>
       <c r="M76" s="4" t="s">
-        <v>479</v>
+        <v>183</v>
       </c>
       <c r="N76" s="4" t="s">
-        <v>480</v>
+        <v>184</v>
       </c>
       <c r="O76" s="4" t="s">
         <v>37</v>
@@ -8345,7 +8297,7 @@
         <v>39</v>
       </c>
       <c r="T76" s="4" t="s">
-        <v>481</v>
+        <v>185</v>
       </c>
       <c r="U76" s="4" t="s">
         <v>41</v>
@@ -8360,511 +8312,96 @@
         <v>43</v>
       </c>
       <c r="Y76" s="7">
-        <v>45960.46675283565</v>
+        <v>45962.665817789355</v>
       </c>
       <c r="Z76" s="7">
         <v>45959.6893146875</v>
       </c>
       <c r="AA76" s="4" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>483</v>
-      </c>
-      <c r="B77" s="9" t="s">
+      <c r="A77" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="B77" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="9" t="s">
-        <v>484</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="F77" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G77" s="9" t="s">
+      <c r="C77" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G77" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H77" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I77" s="9" t="s">
+      <c r="H77" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I77" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J77" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K77" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L77" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M77" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="N77" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="O77" s="9" t="s">
+      <c r="J77" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L77" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M77" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="N77" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="O77" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="P77" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q77" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="R77" s="9" t="s">
+      <c r="P77" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q77" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R77" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="S77" s="9" t="s">
+      <c r="S77" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="T77" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="U77" s="9" t="s">
+      <c r="T77" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="U77" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="V77" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W77" s="9" t="s">
+      <c r="V77" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="W77" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="X77" s="9" t="s">
+      <c r="X77" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="Y77" s="12">
-        <v>45960.46675283565</v>
-      </c>
-      <c r="Z77" s="12">
+      <c r="Y77" s="17">
+        <v>45962.66599195602</v>
+      </c>
+      <c r="Z77" s="17">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA77" s="9" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="78" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A78" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>491</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I78" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K78" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L78" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M78" s="4" t="s">
-        <v>493</v>
-      </c>
-      <c r="N78" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="O78" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P78" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q78" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R78" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S78" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T78" s="4" t="s">
-        <v>495</v>
-      </c>
-      <c r="U78" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V78" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W78" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="X78" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y78" s="7">
-        <v>45960.46675283565</v>
-      </c>
-      <c r="Z78" s="7">
-        <v>45959.6893146875</v>
-      </c>
-      <c r="AA78" s="4" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="79" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>497</v>
-      </c>
-      <c r="B79" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C79" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E79" s="10" t="s">
+      <c r="AA77" s="14" t="s">
         <v>499</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G79" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H79" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I79" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K79" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L79" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M79" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="N79" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="O79" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P79" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q79" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="R79" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="S79" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T79" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="U79" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="V79" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W79" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="X79" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y79" s="12">
-        <v>45960.46675283565</v>
-      </c>
-      <c r="Z79" s="12">
-        <v>45959.6893146875</v>
-      </c>
-      <c r="AA79" s="9" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="80" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A80" s="3" t="s">
-        <v>504</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>505</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H80" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I80" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="K80" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="L80" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="M80" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="N80" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="O80" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="P80" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q80" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R80" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="S80" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="T80" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="U80" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="V80" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="W80" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="X80" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y80" s="7">
-        <v>45960.46675283565</v>
-      </c>
-      <c r="Z80" s="7">
-        <v>45959.6893146875</v>
-      </c>
-      <c r="AA80" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="81" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>507</v>
-      </c>
-      <c r="B81" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C81" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J81" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="K81" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="L81" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M81" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="N81" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="O81" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="P81" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q81" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="R81" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="S81" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T81" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="U81" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="V81" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="W81" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="X81" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y81" s="12">
-        <v>45960.46675283565</v>
-      </c>
-      <c r="Z81" s="12">
-        <v>45959.6893146875</v>
-      </c>
-      <c r="AA81" s="9" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="82" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A82" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="B82" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>511</v>
-      </c>
-      <c r="D82" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="I82" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="J82" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="K82" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="L82" s="16">
-        <v>0</v>
-      </c>
-      <c r="M82" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="N82" s="14" t="s">
-        <v>513</v>
-      </c>
-      <c r="O82" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="P82" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q82" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="R82" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="S82" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="T82" s="14" t="s">
-        <v>514</v>
-      </c>
-      <c r="U82" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="V82" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="W82" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="X82" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="Y82" s="17">
-        <v>45961.712751377316</v>
-      </c>
-      <c r="Z82" s="17">
-        <v>45961.633914618054</v>
-      </c>
-      <c r="AA82" s="14" t="s">
-        <v>515</v>
       </c>
     </row>
   </sheetData>

--- a/data/01-11-2025-systems.xlsx
+++ b/data/01-11-2025-systems.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="502">
   <si>
     <t>System Name</t>
   </si>
@@ -166,6 +166,10 @@
     <t>Transmission Nodes</t>
   </si>
   <si>
+    <t xml:space="preserve">Part #-140-SKU000111-P
+Card S/N-AA-1024-29-5870</t>
+  </si>
+  <si>
     <t>22.4385</t>
   </si>
   <si>
@@ -430,6 +434,10 @@
     <t>KO-KTD-A32-BO-2026</t>
   </si>
   <si>
+    <t xml:space="preserve">Part #-140-SKU000111-P
+Card S/N- AA-0924-29-5112</t>
+  </si>
+  <si>
     <t>22.4497068</t>
   </si>
   <si>
@@ -557,6 +565,10 @@
   </si>
   <si>
     <t>KO-KTD-A32-KM-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part #-140-SKU000111-P
+Card S/N- AA-0924-29-5108</t>
   </si>
   <si>
     <t>22.4502</t>
@@ -1582,7 +1594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1591,9 +1603,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1608,9 +1617,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1621,9 +1627,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1985,7 +1988,8 @@
     <col min="6" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
-    <col min="10" max="12" width="10" customWidth="1"/>
+    <col min="10" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
     <col min="13" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
@@ -2103,7 +2107,7 @@
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="4"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2116,7 +2120,7 @@
       <c r="P2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="5"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="2" t="s">
         <v>37</v>
       </c>
@@ -2136,10 +2140,10 @@
       <c r="X2" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="5">
+      <c r="Y2" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z2" s="5">
+      <c r="Z2" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA2" s="2" t="s">
@@ -2147,95 +2151,97 @@
       </c>
     </row>
     <row r="3" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="F3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="7" t="s">
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="M3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="10">
+      <c r="N3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="8">
         <v>45413</v>
       </c>
-      <c r="R3" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="S3" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="T3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7" t="s">
+      <c r="V3" s="6"/>
+      <c r="W3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y3" s="10">
+      <c r="X3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="8">
         <v>45962.679399733795</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="Z3" s="8">
         <v>45960.39759155092</v>
       </c>
-      <c r="AA3" s="7" t="s">
-        <v>57</v>
+      <c r="AA3" s="6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>31</v>
@@ -2249,14 +2255,14 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="4">
-        <v>0</v>
+      <c r="L4" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>36</v>
@@ -2264,116 +2270,116 @@
       <c r="P4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="5"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
       <c r="X4" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y4" s="5">
+        <v>57</v>
+      </c>
+      <c r="Y4" s="4">
         <v>45961.64074383102</v>
       </c>
-      <c r="Z4" s="5">
+      <c r="Z4" s="4">
         <v>45959.704948576386</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="7" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N5" s="7" t="s">
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="7" t="s">
+      <c r="N5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="U5" s="7" t="s">
+      <c r="T5" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7" t="s">
+      <c r="V5" s="6"/>
+      <c r="W5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X5" s="7" t="s">
+      <c r="X5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="Y5" s="8">
         <v>45962.66076423611</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA5" s="7" t="s">
-        <v>74</v>
+      <c r="AA5" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>31</v>
@@ -2383,16 +2389,16 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="4"/>
+      <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>36</v>
@@ -2400,7 +2406,7 @@
       <c r="P6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q6" s="5"/>
+      <c r="Q6" s="4"/>
       <c r="R6" s="2" t="s">
         <v>37</v>
       </c>
@@ -2408,7 +2414,7 @@
         <v>38</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>40</v>
@@ -2420,102 +2426,102 @@
       <c r="X6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y6" s="5">
+      <c r="Y6" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z6" s="5">
+      <c r="Z6" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="A7" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="D7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="7" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="O7" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="7" t="s">
+      <c r="N7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q7" s="8"/>
+      <c r="R7" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S7" s="7" t="s">
+      <c r="S7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="U7" s="7" t="s">
+      <c r="T7" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="U7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7" t="s">
+      <c r="V7" s="6"/>
+      <c r="W7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X7" s="7" t="s">
+      <c r="X7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="Y7" s="8">
         <v>45962.66159292824</v>
       </c>
-      <c r="Z7" s="10">
+      <c r="Z7" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA7" s="7" t="s">
-        <v>80</v>
+      <c r="AA7" s="6" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>31</v>
@@ -2525,16 +2531,16 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>36</v>
@@ -2542,7 +2548,7 @@
       <c r="P8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q8" s="5"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="2" t="s">
         <v>37</v>
       </c>
@@ -2550,7 +2556,7 @@
         <v>38</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>40</v>
@@ -2562,98 +2568,98 @@
       <c r="X8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y8" s="5">
+      <c r="Y8" s="4">
         <v>45962.661973634255</v>
       </c>
-      <c r="Z8" s="5">
+      <c r="Z8" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="C9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="7" t="s">
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N9" s="7" t="s">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="7" t="s">
+      <c r="N9" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S9" s="7" t="s">
+      <c r="S9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="U9" s="7" t="s">
+      <c r="T9" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="U9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7" t="s">
+      <c r="V9" s="6"/>
+      <c r="W9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X9" s="7" t="s">
+      <c r="X9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="Y9" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z9" s="10">
+      <c r="Z9" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA9" s="7" t="s">
-        <v>91</v>
+      <c r="AA9" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>31</v>
@@ -2667,12 +2673,12 @@
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="4"/>
+      <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>36</v>
@@ -2680,7 +2686,7 @@
       <c r="P10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q10" s="5"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="2" t="s">
         <v>37</v>
       </c>
@@ -2688,7 +2694,7 @@
         <v>38</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>40</v>
@@ -2700,98 +2706,98 @@
       <c r="X10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y10" s="5">
+      <c r="Y10" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z10" s="5">
+      <c r="Z10" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA10" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T11" s="6" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="11" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="N11" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="U11" s="7" t="s">
+      <c r="U11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7" t="s">
+      <c r="V11" s="6"/>
+      <c r="W11" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X11" s="7" t="s">
+      <c r="X11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="Y11" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z11" s="10">
+      <c r="Z11" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA11" s="7" t="s">
-        <v>101</v>
+      <c r="AA11" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>31</v>
@@ -2805,12 +2811,12 @@
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="4"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>36</v>
@@ -2818,7 +2824,7 @@
       <c r="P12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q12" s="5"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="2" t="s">
         <v>37</v>
       </c>
@@ -2826,7 +2832,7 @@
         <v>38</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>40</v>
@@ -2838,125 +2844,125 @@
       <c r="X12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y12" s="5">
+      <c r="Y12" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z12" s="5">
+      <c r="Z12" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="C13" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="F13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="H13" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N13" s="7" t="s">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="O13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="7" t="s">
+      <c r="N13" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="S13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="T13" s="7" t="s">
+      <c r="O13" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="U13" s="7" t="s">
+      <c r="S13" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T13" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7" t="s">
+      <c r="U13" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="X13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y13" s="10">
+      <c r="V13" s="6"/>
+      <c r="W13" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="X13" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y13" s="8">
         <v>45962.67711618055</v>
       </c>
-      <c r="Z13" s="10">
+      <c r="Z13" s="8">
         <v>45960.437671168984</v>
       </c>
-      <c r="AA13" s="7" t="s">
-        <v>120</v>
+      <c r="AA13" s="6" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="4"/>
+      <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>36</v>
@@ -2964,15 +2970,15 @@
       <c r="P14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q14" s="5"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>40</v>
@@ -2982,127 +2988,129 @@
         <v>41</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y14" s="5">
+        <v>57</v>
+      </c>
+      <c r="Y14" s="4">
         <v>45962.67723274305</v>
       </c>
-      <c r="Z14" s="5">
+      <c r="Z14" s="4">
         <v>45960.44146032407</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="7" t="s">
+      <c r="A15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="8" t="s">
+      <c r="C15" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="D15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I15" s="7" t="s">
+      <c r="H15" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N15" s="7" t="s">
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="S15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="T15" s="7" t="s">
+      <c r="N15" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="U15" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7" t="s">
+      <c r="O15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T15" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="U15" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="X15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y15" s="10">
+      <c r="V15" s="6"/>
+      <c r="W15" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="X15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y15" s="8">
         <v>45962.67745662037</v>
       </c>
-      <c r="Z15" s="10">
+      <c r="Z15" s="8">
         <v>45960.44395743056</v>
       </c>
-      <c r="AA15" s="7" t="s">
-        <v>133</v>
+      <c r="AA15" s="6" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="M16" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>36</v>
@@ -3110,15 +3118,15 @@
       <c r="P16" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q16" s="5"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>40</v>
@@ -3128,129 +3136,129 @@
         <v>41</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y16" s="5">
+        <v>57</v>
+      </c>
+      <c r="Y16" s="4">
         <v>45962.677596932874</v>
       </c>
-      <c r="Z16" s="5">
+      <c r="Z16" s="4">
         <v>45960.44216910879</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="H17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="D17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="N17" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="10">
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="8">
         <v>45413</v>
       </c>
-      <c r="R17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="S17" s="7" t="s">
+      <c r="R17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="T17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="U17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7" t="s">
+      <c r="S17" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T17" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="X17" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y17" s="10">
+      <c r="U17" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="X17" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y17" s="8">
         <v>45962.67781069444</v>
       </c>
-      <c r="Z17" s="10">
+      <c r="Z17" s="8">
         <v>45960.39591673611</v>
       </c>
-      <c r="AA17" s="7" t="s">
-        <v>152</v>
+      <c r="AA17" s="6" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="4"/>
+      <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>36</v>
@@ -3258,145 +3266,145 @@
       <c r="P18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q18" s="5"/>
+      <c r="Q18" s="4"/>
       <c r="R18" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y18" s="5">
+        <v>57</v>
+      </c>
+      <c r="Y18" s="4">
         <v>45962.67820875</v>
       </c>
-      <c r="Z18" s="5">
+      <c r="Z18" s="4">
         <v>45959.71888550926</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B19" s="7" t="s">
+      <c r="A19" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="C19" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="N19" s="7" t="s">
+      <c r="H19" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="O19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="10"/>
-      <c r="R19" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="S19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="T19" s="7" t="s">
+      <c r="I19" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="U19" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7" t="s">
+      <c r="N19" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T19" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="U19" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="X19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y19" s="10">
+      <c r="V19" s="6"/>
+      <c r="W19" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="X19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y19" s="8">
         <v>45962.67836340278</v>
       </c>
-      <c r="Z19" s="10">
+      <c r="Z19" s="8">
         <v>45960.4385016088</v>
       </c>
-      <c r="AA19" s="7" t="s">
-        <v>169</v>
+      <c r="AA19" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="4"/>
+      <c r="L20" s="2"/>
       <c r="M20" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>36</v>
@@ -3404,147 +3412,149 @@
       <c r="P20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q20" s="5"/>
+      <c r="Q20" s="4"/>
       <c r="R20" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y20" s="5">
+        <v>57</v>
+      </c>
+      <c r="Y20" s="4">
         <v>45962.67861729166</v>
       </c>
-      <c r="Z20" s="5">
+      <c r="Z20" s="4">
         <v>45960.44336229167</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="D21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="N21" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="10">
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="M21" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P21" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q21" s="8">
         <v>45413</v>
       </c>
-      <c r="R21" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="S21" s="7" t="s">
+      <c r="R21" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="T21" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="U21" s="7" t="s">
+      <c r="S21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T21" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="U21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7" t="s">
+      <c r="V21" s="6"/>
+      <c r="W21" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X21" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y21" s="10">
+      <c r="X21" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y21" s="8">
         <v>45962.67890275463</v>
       </c>
-      <c r="Z21" s="10">
+      <c r="Z21" s="8">
         <v>45960.39676234954</v>
       </c>
-      <c r="AA21" s="7" t="s">
-        <v>185</v>
+      <c r="AA21" s="6" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>50</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="4"/>
+      <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>36</v>
@@ -3552,118 +3562,118 @@
       <c r="P22" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q22" s="5"/>
+      <c r="Q22" s="4"/>
       <c r="R22" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="Y22" s="5">
+        <v>57</v>
+      </c>
+      <c r="Y22" s="4">
         <v>45962.679195613426</v>
       </c>
-      <c r="Z22" s="5">
+      <c r="Z22" s="4">
         <v>45960.44282672454</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="B23" s="7" t="s">
+      <c r="A23" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="C23" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7" t="s">
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q23" s="10"/>
-      <c r="R23" s="7" t="s">
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S23" s="7" t="s">
+      <c r="S23" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T23" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="U23" s="7" t="s">
+      <c r="T23" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="U23" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7" t="s">
+      <c r="V23" s="6"/>
+      <c r="W23" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X23" s="7" t="s">
+      <c r="X23" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y23" s="10">
+      <c r="Y23" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z23" s="10">
+      <c r="Z23" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA23" s="7" t="s">
-        <v>201</v>
+      <c r="AA23" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>31</v>
@@ -3677,12 +3687,12 @@
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="4"/>
+      <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>36</v>
@@ -3690,15 +3700,15 @@
       <c r="P24" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q24" s="5"/>
+      <c r="Q24" s="4"/>
       <c r="R24" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>40</v>
@@ -3708,100 +3718,100 @@
         <v>41</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y24" s="5">
+        <v>210</v>
+      </c>
+      <c r="Y24" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z24" s="5">
+      <c r="Z24" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="B25" s="7" t="s">
+      <c r="A25" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="C25" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="7" t="s">
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="N25" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="O25" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P25" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S25" s="7" t="s">
+      <c r="S25" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T25" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="U25" s="7" t="s">
+      <c r="T25" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="U25" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7" t="s">
+      <c r="V25" s="6"/>
+      <c r="W25" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X25" s="7" t="s">
+      <c r="X25" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y25" s="10">
+      <c r="Y25" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z25" s="10">
+      <c r="Z25" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA25" s="7" t="s">
-        <v>215</v>
+      <c r="AA25" s="6" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>31</v>
@@ -3815,12 +3825,12 @@
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="4"/>
+      <c r="L26" s="2"/>
       <c r="M26" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>36</v>
@@ -3828,7 +3838,7 @@
       <c r="P26" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q26" s="5"/>
+      <c r="Q26" s="4"/>
       <c r="R26" s="2" t="s">
         <v>37</v>
       </c>
@@ -3836,7 +3846,7 @@
         <v>38</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>40</v>
@@ -3848,98 +3858,98 @@
       <c r="X26" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y26" s="5">
+      <c r="Y26" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z26" s="5">
+      <c r="Z26" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA26" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="27" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="N27" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8" t="s">
+      <c r="O27" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T27" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="N27" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S27" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T27" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="U27" s="7" t="s">
+      <c r="U27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7" t="s">
+      <c r="V27" s="6"/>
+      <c r="W27" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X27" s="7" t="s">
+      <c r="X27" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y27" s="10">
+      <c r="Y27" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z27" s="10">
+      <c r="Z27" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA27" s="7" t="s">
-        <v>225</v>
+      <c r="AA27" s="6" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>31</v>
@@ -3953,12 +3963,12 @@
       </c>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="4"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>36</v>
@@ -3966,7 +3976,7 @@
       <c r="P28" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q28" s="5"/>
+      <c r="Q28" s="4"/>
       <c r="R28" s="2" t="s">
         <v>37</v>
       </c>
@@ -3974,7 +3984,7 @@
         <v>38</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>40</v>
@@ -3986,88 +3996,88 @@
       <c r="X28" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y28" s="5">
+      <c r="Y28" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z28" s="5">
+      <c r="Z28" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="B29" s="7" t="s">
+      <c r="A29" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7" t="s">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="9"/>
-      <c r="M29" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N29" s="7" t="s">
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="7" t="s">
+      <c r="N29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P29" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S29" s="7" t="s">
+      <c r="S29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T29" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="U29" s="7" t="s">
+      <c r="T29" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7" t="s">
+      <c r="V29" s="6"/>
+      <c r="W29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X29" s="7" t="s">
+      <c r="X29" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y29" s="10">
+      <c r="Y29" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z29" s="10">
+      <c r="Z29" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA29" s="7" t="s">
-        <v>235</v>
+      <c r="AA29" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>28</v>
@@ -4077,7 +4087,7 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>31</v>
@@ -4091,12 +4101,12 @@
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="4"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>36</v>
@@ -4104,7 +4114,7 @@
       <c r="P30" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q30" s="5"/>
+      <c r="Q30" s="4"/>
       <c r="R30" s="2" t="s">
         <v>37</v>
       </c>
@@ -4112,7 +4122,7 @@
         <v>38</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>40</v>
@@ -4124,98 +4134,98 @@
       <c r="X30" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y30" s="5">
+      <c r="Y30" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z30" s="5">
+      <c r="Z30" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B31" s="7" t="s">
+      <c r="A31" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G31" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7" t="s">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="9"/>
-      <c r="M31" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="N31" s="7" t="s">
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="7" t="s">
+      <c r="N31" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="O31" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S31" s="7" t="s">
+      <c r="S31" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="U31" s="7" t="s">
+      <c r="T31" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U31" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7" t="s">
+      <c r="V31" s="6"/>
+      <c r="W31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X31" s="7" t="s">
+      <c r="X31" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y31" s="10">
+      <c r="Y31" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z31" s="10">
+      <c r="Z31" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA31" s="7" t="s">
-        <v>240</v>
+      <c r="AA31" s="6" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>31</v>
@@ -4229,12 +4239,12 @@
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="4"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>36</v>
@@ -4242,7 +4252,7 @@
       <c r="P32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q32" s="5"/>
+      <c r="Q32" s="4"/>
       <c r="R32" s="2" t="s">
         <v>37</v>
       </c>
@@ -4250,7 +4260,7 @@
         <v>38</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="U32" s="2" t="s">
         <v>40</v>
@@ -4262,98 +4272,98 @@
       <c r="X32" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y32" s="5">
+      <c r="Y32" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z32" s="5">
+      <c r="Z32" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="B33" s="7" t="s">
+      <c r="A33" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="C33" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G33" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="J33" s="7"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="9"/>
-      <c r="M33" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="N33" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="O33" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q33" s="10"/>
-      <c r="R33" s="7" t="s">
+      <c r="H33" s="6"/>
+      <c r="I33" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="N33" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="O33" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P33" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S33" s="7" t="s">
+      <c r="S33" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T33" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="U33" s="7" t="s">
+      <c r="T33" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="U33" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7" t="s">
+      <c r="V33" s="6"/>
+      <c r="W33" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X33" s="7" t="s">
+      <c r="X33" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y33" s="10">
+      <c r="Y33" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z33" s="10">
+      <c r="Z33" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA33" s="7" t="s">
-        <v>254</v>
+      <c r="AA33" s="6" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>31</v>
@@ -4367,12 +4377,12 @@
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="4"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>36</v>
@@ -4380,7 +4390,7 @@
       <c r="P34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q34" s="5"/>
+      <c r="Q34" s="4"/>
       <c r="R34" s="2" t="s">
         <v>37</v>
       </c>
@@ -4388,7 +4398,7 @@
         <v>38</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>40</v>
@@ -4400,98 +4410,98 @@
       <c r="X34" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y34" s="5">
+      <c r="Y34" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z34" s="5">
+      <c r="Z34" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A35" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="B35" s="7" t="s">
+      <c r="A35" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="C35" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7" t="s">
+      <c r="H35" s="6"/>
+      <c r="I35" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="9"/>
-      <c r="M35" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="N35" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q35" s="10"/>
-      <c r="R35" s="7" t="s">
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="N35" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="O35" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P35" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S35" s="7" t="s">
+      <c r="S35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T35" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="U35" s="7" t="s">
+      <c r="T35" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="U35" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7" t="s">
+      <c r="V35" s="6"/>
+      <c r="W35" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X35" s="7" t="s">
+      <c r="X35" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y35" s="10">
+      <c r="Y35" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z35" s="10">
+      <c r="Z35" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA35" s="7" t="s">
-        <v>268</v>
+      <c r="AA35" s="6" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>31</v>
@@ -4501,16 +4511,16 @@
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="4"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="2" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>36</v>
@@ -4518,7 +4528,7 @@
       <c r="P36" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q36" s="5"/>
+      <c r="Q36" s="4"/>
       <c r="R36" s="2" t="s">
         <v>37</v>
       </c>
@@ -4526,7 +4536,7 @@
         <v>38</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>40</v>
@@ -4538,98 +4548,98 @@
       <c r="X36" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y36" s="5">
+      <c r="Y36" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z36" s="5">
+      <c r="Z36" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="B37" s="7" t="s">
+      <c r="A37" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="C37" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" s="6"/>
+      <c r="E37" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G37" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="J37" s="7"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="9"/>
-      <c r="M37" s="7" t="s">
+      <c r="H37" s="6"/>
+      <c r="I37" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="N37" s="7" t="s">
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="O37" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q37" s="10"/>
-      <c r="R37" s="7" t="s">
+      <c r="N37" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O37" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P37" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S37" s="7" t="s">
+      <c r="S37" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T37" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="U37" s="7" t="s">
+      <c r="T37" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="U37" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7" t="s">
+      <c r="V37" s="6"/>
+      <c r="W37" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X37" s="7" t="s">
+      <c r="X37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y37" s="10">
+      <c r="Y37" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z37" s="10">
+      <c r="Z37" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA37" s="7" t="s">
-        <v>278</v>
+      <c r="AA37" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="3" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>31</v>
@@ -4642,15 +4652,15 @@
         <v>50</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K38" s="2"/>
-      <c r="L38" s="4"/>
+      <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>36</v>
@@ -4658,15 +4668,15 @@
       <c r="P38" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q38" s="5"/>
+      <c r="Q38" s="4"/>
       <c r="R38" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>40</v>
@@ -4676,100 +4686,100 @@
         <v>41</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y38" s="5">
+        <v>288</v>
+      </c>
+      <c r="Y38" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z38" s="5">
+      <c r="Z38" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A39" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B39" s="7" t="s">
+      <c r="A39" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="7"/>
-      <c r="E39" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="7" t="s">
+      <c r="C39" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G39" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7" t="s">
+      <c r="H39" s="6"/>
+      <c r="I39" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N39" s="7" t="s">
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O39" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q39" s="10"/>
-      <c r="R39" s="7" t="s">
+      <c r="N39" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S39" s="7" t="s">
+      <c r="S39" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T39" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="U39" s="7" t="s">
+      <c r="T39" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U39" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7" t="s">
+      <c r="V39" s="6"/>
+      <c r="W39" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X39" s="7" t="s">
+      <c r="X39" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y39" s="10">
+      <c r="Y39" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z39" s="10">
+      <c r="Z39" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA39" s="7" t="s">
-        <v>289</v>
+      <c r="AA39" s="6" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="3" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>31</v>
@@ -4783,12 +4793,12 @@
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="4"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>36</v>
@@ -4796,7 +4806,7 @@
       <c r="P40" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q40" s="5"/>
+      <c r="Q40" s="4"/>
       <c r="R40" s="2" t="s">
         <v>37</v>
       </c>
@@ -4804,7 +4814,7 @@
         <v>38</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U40" s="2" t="s">
         <v>40</v>
@@ -4816,98 +4826,98 @@
       <c r="X40" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y40" s="5">
+      <c r="Y40" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z40" s="5">
+      <c r="Z40" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B41" s="7" t="s">
+      <c r="A41" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="7"/>
-      <c r="E41" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="C41" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G41" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7" t="s">
+      <c r="H41" s="6"/>
+      <c r="I41" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J41" s="7"/>
-      <c r="K41" s="7"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N41" s="7" t="s">
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O41" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="7" t="s">
+      <c r="N41" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S41" s="7" t="s">
+      <c r="S41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T41" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="U41" s="7" t="s">
+      <c r="T41" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U41" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7" t="s">
+      <c r="V41" s="6"/>
+      <c r="W41" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X41" s="7" t="s">
+      <c r="X41" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y41" s="10">
+      <c r="Y41" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z41" s="10">
+      <c r="Z41" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA41" s="7" t="s">
-        <v>293</v>
+      <c r="AA41" s="6" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="3" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>31</v>
@@ -4921,12 +4931,12 @@
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="4"/>
+      <c r="L42" s="2"/>
       <c r="M42" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>36</v>
@@ -4934,7 +4944,7 @@
       <c r="P42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q42" s="5"/>
+      <c r="Q42" s="4"/>
       <c r="R42" s="2" t="s">
         <v>37</v>
       </c>
@@ -4942,7 +4952,7 @@
         <v>38</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>40</v>
@@ -4954,98 +4964,98 @@
       <c r="X42" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y42" s="5">
+      <c r="Y42" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z42" s="5">
+      <c r="Z42" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="B43" s="7" t="s">
+      <c r="A43" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B43" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="7"/>
-      <c r="E43" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="C43" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" s="6"/>
+      <c r="E43" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G43" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7" t="s">
+      <c r="H43" s="6"/>
+      <c r="I43" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N43" s="7" t="s">
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O43" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="7" t="s">
+      <c r="N43" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O43" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P43" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S43" s="7" t="s">
+      <c r="S43" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T43" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="U43" s="7" t="s">
+      <c r="T43" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U43" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7" t="s">
+      <c r="V43" s="6"/>
+      <c r="W43" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X43" s="7" t="s">
+      <c r="X43" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y43" s="10">
+      <c r="Y43" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z43" s="10">
+      <c r="Z43" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA43" s="7" t="s">
-        <v>297</v>
+      <c r="AA43" s="6" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="3" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>31</v>
@@ -5055,16 +5065,16 @@
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="4"/>
+      <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>36</v>
@@ -5072,7 +5082,7 @@
       <c r="P44" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q44" s="5"/>
+      <c r="Q44" s="4"/>
       <c r="R44" s="2" t="s">
         <v>37</v>
       </c>
@@ -5080,7 +5090,7 @@
         <v>38</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U44" s="2" t="s">
         <v>40</v>
@@ -5092,98 +5102,98 @@
       <c r="X44" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y44" s="5">
+      <c r="Y44" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z44" s="5">
+      <c r="Z44" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A45" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B45" s="7" t="s">
+      <c r="A45" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="D45" s="7"/>
-      <c r="E45" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G45" s="7" t="s">
+      <c r="C45" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7" t="s">
+      <c r="H45" s="6"/>
+      <c r="I45" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="N45" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="O45" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q45" s="10"/>
-      <c r="R45" s="7" t="s">
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="N45" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="O45" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S45" s="7" t="s">
+      <c r="S45" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T45" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="U45" s="7" t="s">
+      <c r="T45" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="U45" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7" t="s">
+      <c r="V45" s="6"/>
+      <c r="W45" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X45" s="7" t="s">
+      <c r="X45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y45" s="10">
+      <c r="Y45" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z45" s="10">
+      <c r="Z45" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA45" s="7" t="s">
-        <v>307</v>
+      <c r="AA45" s="6" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="3" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>31</v>
@@ -5197,12 +5207,12 @@
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="4"/>
+      <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>36</v>
@@ -5210,7 +5220,7 @@
       <c r="P46" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q46" s="5"/>
+      <c r="Q46" s="4"/>
       <c r="R46" s="2" t="s">
         <v>37</v>
       </c>
@@ -5218,7 +5228,7 @@
         <v>38</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="U46" s="2" t="s">
         <v>40</v>
@@ -5230,98 +5240,98 @@
       <c r="X46" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y46" s="5">
+      <c r="Y46" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z46" s="5">
+      <c r="Z46" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA46" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="47" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="47" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="N47" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B47" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="8" t="s">
+      <c r="O47" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S47" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T47" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="N47" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="O47" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q47" s="10"/>
-      <c r="R47" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="S47" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="T47" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="U47" s="7" t="s">
+      <c r="U47" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7" t="s">
+      <c r="V47" s="6"/>
+      <c r="W47" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X47" s="7" t="s">
+      <c r="X47" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y47" s="10">
+      <c r="Y47" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z47" s="10">
+      <c r="Z47" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA47" s="7" t="s">
-        <v>317</v>
+      <c r="AA47" s="6" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="48" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="3" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>31</v>
@@ -5335,12 +5345,12 @@
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="4"/>
+      <c r="L48" s="2"/>
       <c r="M48" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>36</v>
@@ -5348,7 +5358,7 @@
       <c r="P48" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q48" s="5"/>
+      <c r="Q48" s="4"/>
       <c r="R48" s="2" t="s">
         <v>37</v>
       </c>
@@ -5356,7 +5366,7 @@
         <v>38</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="U48" s="2" t="s">
         <v>40</v>
@@ -5368,98 +5378,98 @@
       <c r="X48" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y48" s="5">
+      <c r="Y48" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z48" s="5">
+      <c r="Z48" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA48" s="2" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A49" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B49" s="7" t="s">
+      <c r="A49" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="B49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="D49" s="7"/>
-      <c r="E49" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="7" t="s">
+      <c r="C49" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H49" s="7"/>
-      <c r="I49" s="7" t="s">
+      <c r="H49" s="6"/>
+      <c r="I49" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
-      <c r="L49" s="9"/>
-      <c r="M49" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="N49" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="O49" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q49" s="10"/>
-      <c r="R49" s="7" t="s">
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="O49" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P49" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S49" s="7" t="s">
+      <c r="S49" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T49" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="U49" s="7" t="s">
+      <c r="T49" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="U49" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7" t="s">
+      <c r="V49" s="6"/>
+      <c r="W49" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X49" s="7" t="s">
+      <c r="X49" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y49" s="10">
+      <c r="Y49" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z49" s="10">
+      <c r="Z49" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA49" s="7" t="s">
-        <v>327</v>
+      <c r="AA49" s="6" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>31</v>
@@ -5473,12 +5483,12 @@
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="4"/>
+      <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>36</v>
@@ -5486,7 +5496,7 @@
       <c r="P50" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q50" s="5"/>
+      <c r="Q50" s="4"/>
       <c r="R50" s="2" t="s">
         <v>37</v>
       </c>
@@ -5494,7 +5504,7 @@
         <v>38</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="U50" s="2" t="s">
         <v>40</v>
@@ -5506,98 +5516,98 @@
       <c r="X50" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y50" s="5">
+      <c r="Y50" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z50" s="5">
+      <c r="Z50" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A51" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="B51" s="7" t="s">
+      <c r="A51" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B51" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C51" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="D51" s="7"/>
-      <c r="E51" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="F51" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="7" t="s">
+      <c r="C51" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D51" s="6"/>
+      <c r="E51" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H51" s="7"/>
-      <c r="I51" s="7" t="s">
+      <c r="H51" s="6"/>
+      <c r="I51" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="N51" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="O51" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q51" s="10"/>
-      <c r="R51" s="7" t="s">
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="N51" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="O51" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P51" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S51" s="7" t="s">
+      <c r="S51" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T51" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="U51" s="7" t="s">
+      <c r="T51" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="U51" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7" t="s">
+      <c r="V51" s="6"/>
+      <c r="W51" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X51" s="7" t="s">
+      <c r="X51" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y51" s="10">
+      <c r="Y51" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z51" s="10">
+      <c r="Z51" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA51" s="7" t="s">
-        <v>341</v>
+      <c r="AA51" s="6" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>31</v>
@@ -5611,12 +5621,12 @@
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="4"/>
+      <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>36</v>
@@ -5624,7 +5634,7 @@
       <c r="P52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q52" s="5"/>
+      <c r="Q52" s="4"/>
       <c r="R52" s="2" t="s">
         <v>37</v>
       </c>
@@ -5632,7 +5642,7 @@
         <v>38</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="U52" s="2" t="s">
         <v>40</v>
@@ -5644,98 +5654,98 @@
       <c r="X52" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y52" s="5">
+      <c r="Y52" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z52" s="5">
+      <c r="Z52" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="B53" s="7" t="s">
+      <c r="A53" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="B53" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="D53" s="7"/>
-      <c r="E53" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="C53" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G53" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7" t="s">
+      <c r="H53" s="6"/>
+      <c r="I53" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J53" s="7"/>
-      <c r="K53" s="7"/>
-      <c r="L53" s="9"/>
-      <c r="M53" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="N53" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="7" t="s">
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="N53" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="O53" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S53" s="7" t="s">
+      <c r="S53" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T53" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="U53" s="7" t="s">
+      <c r="T53" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="U53" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7" t="s">
+      <c r="V53" s="6"/>
+      <c r="W53" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X53" s="7" t="s">
+      <c r="X53" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y53" s="10">
+      <c r="Y53" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z53" s="10">
+      <c r="Z53" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA53" s="7" t="s">
-        <v>355</v>
+      <c r="AA53" s="6" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>31</v>
@@ -5749,12 +5759,12 @@
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="4"/>
+      <c r="L54" s="2"/>
       <c r="M54" s="2" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>36</v>
@@ -5762,7 +5772,7 @@
       <c r="P54" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q54" s="5"/>
+      <c r="Q54" s="4"/>
       <c r="R54" s="2" t="s">
         <v>37</v>
       </c>
@@ -5770,7 +5780,7 @@
         <v>38</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="U54" s="2" t="s">
         <v>40</v>
@@ -5782,98 +5792,98 @@
       <c r="X54" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y54" s="5">
+      <c r="Y54" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z54" s="5">
+      <c r="Z54" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="B55" s="7" t="s">
+      <c r="A55" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B55" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G55" s="7" t="s">
+      <c r="C55" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G55" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7" t="s">
+      <c r="H55" s="6"/>
+      <c r="I55" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="9"/>
-      <c r="M55" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="O55" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="7" t="s">
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="O55" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P55" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S55" s="7" t="s">
+      <c r="S55" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T55" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="U55" s="7" t="s">
+      <c r="T55" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="U55" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7" t="s">
+      <c r="V55" s="6"/>
+      <c r="W55" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X55" s="7" t="s">
+      <c r="X55" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y55" s="10">
+      <c r="Y55" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z55" s="10">
+      <c r="Z55" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA55" s="7" t="s">
-        <v>369</v>
+      <c r="AA55" s="6" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="3" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>31</v>
@@ -5887,12 +5897,12 @@
       </c>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="4"/>
+      <c r="L56" s="2"/>
       <c r="M56" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>36</v>
@@ -5900,7 +5910,7 @@
       <c r="P56" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q56" s="5"/>
+      <c r="Q56" s="4"/>
       <c r="R56" s="2" t="s">
         <v>37</v>
       </c>
@@ -5908,7 +5918,7 @@
         <v>38</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="U56" s="2" t="s">
         <v>40</v>
@@ -5920,98 +5930,98 @@
       <c r="X56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y56" s="5">
+      <c r="Y56" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z56" s="5">
+      <c r="Z56" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B57" s="7" t="s">
+      <c r="A57" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C57" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="D57" s="7"/>
-      <c r="E57" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G57" s="7" t="s">
+      <c r="C57" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G57" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7" t="s">
+      <c r="H57" s="6"/>
+      <c r="I57" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-      <c r="L57" s="9"/>
-      <c r="M57" s="7" t="s">
-        <v>380</v>
-      </c>
-      <c r="N57" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="O57" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P57" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="7" t="s">
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="N57" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="O57" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P57" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S57" s="7" t="s">
+      <c r="S57" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T57" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="U57" s="7" t="s">
+      <c r="T57" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="U57" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7" t="s">
+      <c r="V57" s="6"/>
+      <c r="W57" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X57" s="7" t="s">
+      <c r="X57" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y57" s="10">
+      <c r="Y57" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z57" s="10">
+      <c r="Z57" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA57" s="7" t="s">
-        <v>383</v>
+      <c r="AA57" s="6" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>31</v>
@@ -6025,12 +6035,12 @@
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="4"/>
+      <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>36</v>
@@ -6038,7 +6048,7 @@
       <c r="P58" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q58" s="5"/>
+      <c r="Q58" s="4"/>
       <c r="R58" s="2" t="s">
         <v>37</v>
       </c>
@@ -6046,7 +6056,7 @@
         <v>38</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="U58" s="2" t="s">
         <v>40</v>
@@ -6058,98 +6068,98 @@
       <c r="X58" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y58" s="5">
+      <c r="Y58" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z58" s="5">
+      <c r="Z58" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA58" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="59" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D59" s="6"/>
+      <c r="E59" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="59" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59" s="6" t="s">
+      <c r="N59" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B59" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="F59" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J59" s="7"/>
-      <c r="K59" s="7"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="N59" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="O59" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P59" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="7" t="s">
+      <c r="O59" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P59" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q59" s="8"/>
+      <c r="R59" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S59" s="7" t="s">
+      <c r="S59" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T59" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="U59" s="7" t="s">
+      <c r="T59" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="U59" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7" t="s">
+      <c r="V59" s="6"/>
+      <c r="W59" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X59" s="7" t="s">
+      <c r="X59" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y59" s="10">
+      <c r="Y59" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z59" s="10">
+      <c r="Z59" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA59" s="7" t="s">
-        <v>395</v>
+      <c r="AA59" s="6" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>31</v>
@@ -6163,12 +6173,12 @@
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="4"/>
+      <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>36</v>
@@ -6176,7 +6186,7 @@
       <c r="P60" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q60" s="5"/>
+      <c r="Q60" s="4"/>
       <c r="R60" s="2" t="s">
         <v>37</v>
       </c>
@@ -6184,7 +6194,7 @@
         <v>38</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="U60" s="2" t="s">
         <v>40</v>
@@ -6196,98 +6206,98 @@
       <c r="X60" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y60" s="5">
+      <c r="Y60" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z60" s="5">
+      <c r="Z60" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA60" s="2" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="B61" s="7" t="s">
+      <c r="A61" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="B61" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C61" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="D61" s="7"/>
-      <c r="E61" s="8" t="s">
-        <v>405</v>
-      </c>
-      <c r="F61" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" s="7" t="s">
+      <c r="C61" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G61" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H61" s="7"/>
-      <c r="I61" s="7" t="s">
+      <c r="H61" s="6"/>
+      <c r="I61" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J61" s="7"/>
-      <c r="K61" s="7"/>
-      <c r="L61" s="9"/>
-      <c r="M61" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="N61" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="O61" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="7" t="s">
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="N61" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="O61" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P61" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q61" s="8"/>
+      <c r="R61" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S61" s="7" t="s">
+      <c r="S61" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T61" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="U61" s="7" t="s">
+      <c r="T61" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="U61" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7" t="s">
+      <c r="V61" s="6"/>
+      <c r="W61" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X61" s="7" t="s">
+      <c r="X61" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y61" s="10">
+      <c r="Y61" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z61" s="10">
+      <c r="Z61" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA61" s="7" t="s">
-        <v>409</v>
+      <c r="AA61" s="6" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="3" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>31</v>
@@ -6297,16 +6307,16 @@
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="4"/>
+      <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>36</v>
@@ -6314,7 +6324,7 @@
       <c r="P62" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q62" s="5"/>
+      <c r="Q62" s="4"/>
       <c r="R62" s="2" t="s">
         <v>37</v>
       </c>
@@ -6322,7 +6332,7 @@
         <v>38</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="U62" s="2" t="s">
         <v>40</v>
@@ -6334,98 +6344,98 @@
       <c r="X62" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y62" s="5">
+      <c r="Y62" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z62" s="5">
+      <c r="Z62" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA62" s="2" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B63" s="7" t="s">
+      <c r="A63" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="B63" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="F63" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="C63" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G63" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H63" s="7"/>
-      <c r="I63" s="7" t="s">
+      <c r="H63" s="6"/>
+      <c r="I63" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J63" s="7"/>
-      <c r="K63" s="7"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="N63" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="O63" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P63" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="7" t="s">
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="N63" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="O63" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P63" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S63" s="7" t="s">
+      <c r="S63" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T63" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="U63" s="7" t="s">
+      <c r="T63" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="U63" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7" t="s">
+      <c r="V63" s="6"/>
+      <c r="W63" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X63" s="7" t="s">
+      <c r="X63" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y63" s="10">
+      <c r="Y63" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z63" s="10">
+      <c r="Z63" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA63" s="7" t="s">
-        <v>424</v>
+      <c r="AA63" s="6" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="3" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>31</v>
@@ -6439,12 +6449,12 @@
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="4"/>
+      <c r="L64" s="2"/>
       <c r="M64" s="2" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>36</v>
@@ -6452,7 +6462,7 @@
       <c r="P64" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q64" s="5"/>
+      <c r="Q64" s="4"/>
       <c r="R64" s="2" t="s">
         <v>37</v>
       </c>
@@ -6460,7 +6470,7 @@
         <v>38</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="U64" s="2" t="s">
         <v>40</v>
@@ -6472,98 +6482,98 @@
       <c r="X64" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y64" s="5">
+      <c r="Y64" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z64" s="5">
+      <c r="Z64" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="B65" s="7" t="s">
+      <c r="A65" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C65" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G65" s="7" t="s">
+      <c r="C65" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D65" s="6"/>
+      <c r="E65" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G65" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H65" s="7"/>
-      <c r="I65" s="7" t="s">
+      <c r="H65" s="6"/>
+      <c r="I65" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J65" s="7"/>
-      <c r="K65" s="7"/>
-      <c r="L65" s="9"/>
-      <c r="M65" s="7" t="s">
-        <v>435</v>
-      </c>
-      <c r="N65" s="7" t="s">
-        <v>436</v>
-      </c>
-      <c r="O65" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P65" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="7" t="s">
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="N65" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="O65" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P65" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S65" s="7" t="s">
+      <c r="S65" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T65" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="U65" s="7" t="s">
+      <c r="T65" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="U65" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7" t="s">
+      <c r="V65" s="6"/>
+      <c r="W65" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X65" s="7" t="s">
+      <c r="X65" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y65" s="10">
+      <c r="Y65" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z65" s="10">
+      <c r="Z65" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA65" s="7" t="s">
-        <v>438</v>
+      <c r="AA65" s="6" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="3" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>31</v>
@@ -6577,12 +6587,12 @@
       </c>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="4"/>
+      <c r="L66" s="2"/>
       <c r="M66" s="2" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>36</v>
@@ -6590,7 +6600,7 @@
       <c r="P66" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q66" s="5"/>
+      <c r="Q66" s="4"/>
       <c r="R66" s="2" t="s">
         <v>37</v>
       </c>
@@ -6598,7 +6608,7 @@
         <v>38</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="U66" s="2" t="s">
         <v>40</v>
@@ -6610,98 +6620,98 @@
       <c r="X66" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y66" s="5">
+      <c r="Y66" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z66" s="5">
+      <c r="Z66" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA66" s="2" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B67" s="7" t="s">
+      <c r="A67" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C67" s="7" t="s">
-        <v>447</v>
-      </c>
-      <c r="D67" s="7"/>
-      <c r="E67" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="F67" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G67" s="7" t="s">
+      <c r="C67" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G67" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H67" s="7"/>
-      <c r="I67" s="7" t="s">
+      <c r="H67" s="6"/>
+      <c r="I67" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J67" s="7"/>
-      <c r="K67" s="7"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="7" t="s">
-        <v>449</v>
-      </c>
-      <c r="N67" s="7" t="s">
-        <v>450</v>
-      </c>
-      <c r="O67" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P67" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="7" t="s">
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P67" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S67" s="7" t="s">
+      <c r="S67" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T67" s="7" t="s">
-        <v>451</v>
-      </c>
-      <c r="U67" s="7" t="s">
+      <c r="T67" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="U67" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7" t="s">
+      <c r="V67" s="6"/>
+      <c r="W67" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X67" s="7" t="s">
+      <c r="X67" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y67" s="10">
+      <c r="Y67" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z67" s="10">
+      <c r="Z67" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA67" s="7" t="s">
-        <v>452</v>
+      <c r="AA67" s="6" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>31</v>
@@ -6715,12 +6725,12 @@
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="4"/>
+      <c r="L68" s="2"/>
       <c r="M68" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>36</v>
@@ -6728,7 +6738,7 @@
       <c r="P68" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q68" s="5"/>
+      <c r="Q68" s="4"/>
       <c r="R68" s="2" t="s">
         <v>37</v>
       </c>
@@ -6736,7 +6746,7 @@
         <v>38</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U68" s="2" t="s">
         <v>40</v>
@@ -6748,98 +6758,98 @@
       <c r="X68" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y68" s="5">
+      <c r="Y68" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z68" s="5">
+      <c r="Z68" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA68" s="2" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A69" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="B69" s="7" t="s">
+      <c r="A69" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="B69" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C69" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D69" s="7"/>
-      <c r="E69" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="F69" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" s="7" t="s">
+      <c r="C69" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="6"/>
+      <c r="E69" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G69" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H69" s="7"/>
-      <c r="I69" s="7" t="s">
+      <c r="H69" s="6"/>
+      <c r="I69" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J69" s="7"/>
-      <c r="K69" s="7"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N69" s="7" t="s">
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O69" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P69" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="7" t="s">
+      <c r="N69" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O69" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P69" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S69" s="7" t="s">
+      <c r="S69" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T69" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="U69" s="7" t="s">
+      <c r="T69" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U69" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7" t="s">
+      <c r="V69" s="6"/>
+      <c r="W69" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X69" s="7" t="s">
+      <c r="X69" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y69" s="10">
+      <c r="Y69" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z69" s="10">
+      <c r="Z69" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA69" s="7" t="s">
-        <v>458</v>
+      <c r="AA69" s="6" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="3" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>31</v>
@@ -6853,12 +6863,12 @@
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="4"/>
+      <c r="L70" s="2"/>
       <c r="M70" s="2" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>36</v>
@@ -6866,7 +6876,7 @@
       <c r="P70" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q70" s="5"/>
+      <c r="Q70" s="4"/>
       <c r="R70" s="2" t="s">
         <v>37</v>
       </c>
@@ -6874,7 +6884,7 @@
         <v>38</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="U70" s="2" t="s">
         <v>40</v>
@@ -6886,98 +6896,98 @@
       <c r="X70" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y70" s="5">
+      <c r="Y70" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z70" s="5">
+      <c r="Z70" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA70" s="2" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A71" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="B71" s="7" t="s">
+      <c r="A71" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="B71" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>467</v>
-      </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="8" t="s">
-        <v>468</v>
-      </c>
-      <c r="F71" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G71" s="7" t="s">
+      <c r="C71" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G71" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7" t="s">
+      <c r="H71" s="6"/>
+      <c r="I71" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="J71" s="7"/>
-      <c r="K71" s="7"/>
-      <c r="L71" s="9"/>
-      <c r="M71" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="N71" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="O71" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P71" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="7" t="s">
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="N71" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="O71" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P71" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S71" s="7" t="s">
+      <c r="S71" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T71" s="7" t="s">
-        <v>471</v>
-      </c>
-      <c r="U71" s="7" t="s">
+      <c r="T71" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="U71" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V71" s="7"/>
-      <c r="W71" s="7" t="s">
+      <c r="V71" s="6"/>
+      <c r="W71" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X71" s="7" t="s">
+      <c r="X71" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y71" s="10">
+      <c r="Y71" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z71" s="10">
+      <c r="Z71" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA71" s="7" t="s">
-        <v>472</v>
+      <c r="AA71" s="6" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="3" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>31</v>
@@ -6991,12 +7001,12 @@
       </c>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-      <c r="L72" s="4"/>
+      <c r="L72" s="2"/>
       <c r="M72" s="2" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>36</v>
@@ -7004,7 +7014,7 @@
       <c r="P72" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q72" s="5"/>
+      <c r="Q72" s="4"/>
       <c r="R72" s="2" t="s">
         <v>37</v>
       </c>
@@ -7012,7 +7022,7 @@
         <v>38</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="U72" s="2" t="s">
         <v>40</v>
@@ -7024,100 +7034,100 @@
       <c r="X72" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y72" s="5">
+      <c r="Y72" s="4">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z72" s="5">
+      <c r="Z72" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA72" s="2" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A73" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B73" s="7" t="s">
+      <c r="A73" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="B73" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>481</v>
-      </c>
-      <c r="D73" s="7"/>
-      <c r="E73" s="8" t="s">
-        <v>482</v>
-      </c>
-      <c r="F73" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G73" s="7" t="s">
+      <c r="C73" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D73" s="6"/>
+      <c r="E73" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G73" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7" t="s">
+      <c r="H73" s="6"/>
+      <c r="I73" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="7" t="s">
-        <v>483</v>
-      </c>
-      <c r="N73" s="7" t="s">
-        <v>484</v>
-      </c>
-      <c r="O73" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="7" t="s">
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="O73" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P73" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S73" s="7" t="s">
+      <c r="S73" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T73" s="7" t="s">
-        <v>485</v>
-      </c>
-      <c r="U73" s="7" t="s">
+      <c r="T73" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="U73" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V73" s="7"/>
-      <c r="W73" s="7" t="s">
+      <c r="V73" s="6"/>
+      <c r="W73" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X73" s="7" t="s">
+      <c r="X73" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y73" s="10">
+      <c r="Y73" s="8">
         <v>45960.46675283565</v>
       </c>
-      <c r="Z73" s="10">
+      <c r="Z73" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA73" s="7" t="s">
-        <v>486</v>
+      <c r="AA73" s="6" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>31</v>
@@ -7131,12 +7141,12 @@
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="4"/>
+      <c r="L74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>36</v>
@@ -7144,7 +7154,7 @@
       <c r="P74" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q74" s="5"/>
+      <c r="Q74" s="4"/>
       <c r="R74" s="2" t="s">
         <v>37</v>
       </c>
@@ -7152,7 +7162,7 @@
         <v>38</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U74" s="2" t="s">
         <v>40</v>
@@ -7164,102 +7174,102 @@
       <c r="X74" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y74" s="5">
+      <c r="Y74" s="4">
         <v>45962.66437342593</v>
       </c>
-      <c r="Z74" s="5">
+      <c r="Z74" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA74" s="2" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A75" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="B75" s="7" t="s">
+      <c r="A75" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="B75" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="F75" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G75" s="7" t="s">
+      <c r="C75" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G75" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H75" s="7"/>
-      <c r="I75" s="7" t="s">
+      <c r="H75" s="6"/>
+      <c r="I75" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J75" s="7"/>
-      <c r="K75" s="7"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="N75" s="7" t="s">
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="O75" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="P75" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="7" t="s">
+      <c r="N75" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O75" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P75" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S75" s="7" t="s">
+      <c r="S75" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T75" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="U75" s="7" t="s">
+      <c r="T75" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U75" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="V75" s="7"/>
-      <c r="W75" s="7" t="s">
+      <c r="V75" s="6"/>
+      <c r="W75" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="X75" s="7" t="s">
+      <c r="X75" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="Y75" s="10">
+      <c r="Y75" s="8">
         <v>45962.664823530096</v>
       </c>
-      <c r="Z75" s="10">
+      <c r="Z75" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA75" s="7" t="s">
-        <v>492</v>
+      <c r="AA75" s="6" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>31</v>
@@ -7273,12 +7283,12 @@
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="4"/>
+      <c r="L76" s="2"/>
       <c r="M76" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>36</v>
@@ -7286,7 +7296,7 @@
       <c r="P76" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="Q76" s="5"/>
+      <c r="Q76" s="4"/>
       <c r="R76" s="2" t="s">
         <v>37</v>
       </c>
@@ -7294,7 +7304,7 @@
         <v>38</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="U76" s="2" t="s">
         <v>40</v>
@@ -7306,85 +7316,85 @@
       <c r="X76" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y76" s="5">
+      <c r="Y76" s="4">
         <v>45962.665817789355</v>
       </c>
-      <c r="Z76" s="5">
+      <c r="Z76" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA76" s="2" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="77" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A77" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="B77" s="12" t="s">
+      <c r="A77" s="9" t="s">
+        <v>499</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="E77" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G77" s="12" t="s">
+      <c r="C77" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12" t="s">
+      <c r="H77" s="10"/>
+      <c r="I77" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="14"/>
-      <c r="M77" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="N77" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="O77" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="P77" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q77" s="15"/>
-      <c r="R77" s="12" t="s">
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="N77" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="O77" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P77" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="S77" s="12" t="s">
+      <c r="S77" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="T77" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="U77" s="12" t="s">
+      <c r="T77" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="U77" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="V77" s="12"/>
-      <c r="W77" s="12" t="s">
+      <c r="V77" s="10"/>
+      <c r="W77" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="X77" s="12" t="s">
+      <c r="X77" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Y77" s="15">
+      <c r="Y77" s="12">
         <v>45962.66599195602</v>
       </c>
-      <c r="Z77" s="15">
+      <c r="Z77" s="12">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA77" s="12" t="s">
-        <v>498</v>
+      <c r="AA77" s="10" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/data/01-11-2025-systems.xlsx
+++ b/data/01-11-2025-systems.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="528">
   <si>
     <t>System Name</t>
   </si>
@@ -145,15 +145,72 @@
     <t>c53cb398-c968-4f8f-a6e5-8ea8c33b1c5a</t>
   </si>
   <si>
+    <t>SONARPUR ADM16/R-128</t>
+  </si>
+  <si>
+    <t>NGSDH</t>
+  </si>
+  <si>
+    <t>SONARPUR</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>10.119.23.67</t>
+  </si>
+  <si>
+    <t>Transmission Nodes</t>
+  </si>
+  <si>
+    <t>TEJAS</t>
+  </si>
+  <si>
+    <t>22.4385</t>
+  </si>
+  <si>
+    <t>88.4268</t>
+  </si>
+  <si>
+    <t>fc077b05-1bfc-414c-9549-13b0f6d3e230</t>
+  </si>
+  <si>
+    <t>4dd05c04-dddb-44df-ab90-0b95b3ee5f11</t>
+  </si>
+  <si>
+    <t>Next Generation SDH</t>
+  </si>
+  <si>
+    <t>3b5ceb14-455f-455f-a59c-b882666ac6b2</t>
+  </si>
+  <si>
+    <t>MISSION ADM16/R-131</t>
+  </si>
+  <si>
+    <t>MISSION</t>
+  </si>
+  <si>
+    <t>10.119.23.112</t>
+  </si>
+  <si>
+    <t>22.433145</t>
+  </si>
+  <si>
+    <t>88.401453</t>
+  </si>
+  <si>
+    <t>376e5b44-4294-4b61-a411-2df818899fd0</t>
+  </si>
+  <si>
+    <t>f41b9b38-2e8b-426c-b591-0c865830ac4d</t>
+  </si>
+  <si>
     <t>SONARPUR A4(CAT2) /1</t>
   </si>
   <si>
     <t xml:space="preserve">MAAN </t>
   </si>
   <si>
-    <t>SONARPUR</t>
-  </si>
-  <si>
     <t>10.127.0.76</t>
   </si>
   <si>
@@ -161,36 +218,159 @@
   </si>
   <si>
     <t>KO-KTD-A42-SO-4009</t>
-  </si>
-  <si>
-    <t>Transmission Nodes</t>
   </si>
   <si>
     <t xml:space="preserve">Part #-140-SKU000111-P
 Card S/N-AA-1024-29-5870</t>
   </si>
   <si>
-    <t>22.4385</t>
-  </si>
-  <si>
-    <t>88.4268</t>
-  </si>
-  <si>
     <t>0e8bf0bb-64d7-42f5-87cd-d754e6bdab27</t>
   </si>
   <si>
     <t>a33ec7ee-b51c-4921-b0ec-bcf0caab3834</t>
   </si>
   <si>
-    <t>4dd05c04-dddb-44df-ab90-0b95b3ee5f11</t>
-  </si>
-  <si>
     <t>Multi-Access Aggregation Node</t>
   </si>
   <si>
     <t>11ff6872-bdac-432f-becf-541a42fdd16a</t>
   </si>
   <si>
+    <t>BARUIPUR BDO OFFICE NODE 2 A1</t>
+  </si>
+  <si>
+    <t>BARUIPUR</t>
+  </si>
+  <si>
+    <t>10.123.138.224</t>
+  </si>
+  <si>
+    <t>Telephone Exchange (Exch.)</t>
+  </si>
+  <si>
+    <t>22.3568</t>
+  </si>
+  <si>
+    <t>88.4345</t>
+  </si>
+  <si>
+    <t>b5bfbef5-356c-499b-ad2b-351b7ed6a845</t>
+  </si>
+  <si>
+    <t>6185bba0-3672-48c2-a8ab-db3b3a81a5a3</t>
+  </si>
+  <si>
+    <t>BARUIPUR A1</t>
+  </si>
+  <si>
+    <t>10.123.138.220</t>
+  </si>
+  <si>
+    <t>f9fafe4e-cd78-4d47-ba73-80764c430a7e</t>
+  </si>
+  <si>
+    <t>AP NAGAR ADM16/R-128</t>
+  </si>
+  <si>
+    <t>AP NAGAR</t>
+  </si>
+  <si>
+    <t>10.119.23.68</t>
+  </si>
+  <si>
+    <t>22.440491</t>
+  </si>
+  <si>
+    <t>88.439556</t>
+  </si>
+  <si>
+    <t>54bc2231-880b-4ba6-ba6e-4d3cb594052b</t>
+  </si>
+  <si>
+    <t>2b3b8f7b-a84a-4ef3-b1c6-d6d8aa189785</t>
+  </si>
+  <si>
+    <t>BARUIPUR BDO OFFICE A1</t>
+  </si>
+  <si>
+    <t>10.123.138.212</t>
+  </si>
+  <si>
+    <t>e901151a-6be4-4c60-83ad-f235d5e661a0</t>
+  </si>
+  <si>
+    <t>BARUIPUR DRDO A1</t>
+  </si>
+  <si>
+    <t>BARUIPUR DRDO DATA CENTRE</t>
+  </si>
+  <si>
+    <t>10.123.136.35</t>
+  </si>
+  <si>
+    <t>Customer Premises</t>
+  </si>
+  <si>
+    <t>22.35968</t>
+  </si>
+  <si>
+    <t>88.392867</t>
+  </si>
+  <si>
+    <t>51b21244-07e3-4464-ad7b-4ce70805d559</t>
+  </si>
+  <si>
+    <t>3787ddde-544f-4658-97b4-01dcc10217d8</t>
+  </si>
+  <si>
+    <t>BARUIPUR B1</t>
+  </si>
+  <si>
+    <t>10.123.138.196</t>
+  </si>
+  <si>
+    <t>f3c35045-7ae4-4f84-92fa-4e3adad52686</t>
+  </si>
+  <si>
+    <t>AP NAGAR A1</t>
+  </si>
+  <si>
+    <t>10.123.138.222</t>
+  </si>
+  <si>
+    <t>6ac435ff-0a3f-473a-8c24-51eb7a4dbbbf</t>
+  </si>
+  <si>
+    <t>AP NAGAR B1</t>
+  </si>
+  <si>
+    <t>10.123.138.198</t>
+  </si>
+  <si>
+    <t>d9e00379-f20b-470d-a83f-be40c8f77d2c</t>
+  </si>
+  <si>
+    <t>KAMALGAZI ADM16/R-131</t>
+  </si>
+  <si>
+    <t>KAMALGAZI BTS</t>
+  </si>
+  <si>
+    <t>10.119.23.113</t>
+  </si>
+  <si>
+    <t>22.4502</t>
+  </si>
+  <si>
+    <t>88.3905</t>
+  </si>
+  <si>
+    <t>abfa36d3-d0ed-486e-8f97-62651f7a9b9e</t>
+  </si>
+  <si>
+    <t>8d1bd9ad-9b59-4ed3-a18b-ed0bb631821d</t>
+  </si>
+  <si>
     <t>Harinavi -B3(CAT2) /1</t>
   </si>
   <si>
@@ -200,6 +380,12 @@
     <t>10.127.0.67</t>
   </si>
   <si>
+    <t>KO-KTD-B32-HN-6007</t>
+  </si>
+  <si>
+    <t>Part #-140-SKU000118-P Card S/N- AA-0924-29-4546</t>
+  </si>
+  <si>
     <t>22.4157</t>
   </si>
   <si>
@@ -213,114 +399,6 @@
   </si>
   <si>
     <t>877d8e52-72d7-4e9c-9b76-ae634f5baa3c</t>
-  </si>
-  <si>
-    <t>BARUIPUR BDO OFFICE NODE 2 A1</t>
-  </si>
-  <si>
-    <t>BARUIPUR</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>10.123.138.224</t>
-  </si>
-  <si>
-    <t>Telephone Exchange (Exch.)</t>
-  </si>
-  <si>
-    <t>22.3568</t>
-  </si>
-  <si>
-    <t>88.4345</t>
-  </si>
-  <si>
-    <t>b5bfbef5-356c-499b-ad2b-351b7ed6a845</t>
-  </si>
-  <si>
-    <t>6185bba0-3672-48c2-a8ab-db3b3a81a5a3</t>
-  </si>
-  <si>
-    <t>BARUIPUR A1</t>
-  </si>
-  <si>
-    <t>10.123.138.220</t>
-  </si>
-  <si>
-    <t>f9fafe4e-cd78-4d47-ba73-80764c430a7e</t>
-  </si>
-  <si>
-    <t>BARUIPUR BDO OFFICE A1</t>
-  </si>
-  <si>
-    <t>10.123.138.212</t>
-  </si>
-  <si>
-    <t>e901151a-6be4-4c60-83ad-f235d5e661a0</t>
-  </si>
-  <si>
-    <t>BARUIPUR DRDO A1</t>
-  </si>
-  <si>
-    <t>BARUIPUR DRDO DATA CENTRE</t>
-  </si>
-  <si>
-    <t>10.123.136.35</t>
-  </si>
-  <si>
-    <t>Customer Premises</t>
-  </si>
-  <si>
-    <t>22.35968</t>
-  </si>
-  <si>
-    <t>88.392867</t>
-  </si>
-  <si>
-    <t>51b21244-07e3-4464-ad7b-4ce70805d559</t>
-  </si>
-  <si>
-    <t>3787ddde-544f-4658-97b4-01dcc10217d8</t>
-  </si>
-  <si>
-    <t>BARUIPUR B1</t>
-  </si>
-  <si>
-    <t>10.123.138.196</t>
-  </si>
-  <si>
-    <t>f3c35045-7ae4-4f84-92fa-4e3adad52686</t>
-  </si>
-  <si>
-    <t>AP NAGAR A1</t>
-  </si>
-  <si>
-    <t>AP NAGAR</t>
-  </si>
-  <si>
-    <t>10.123.138.222</t>
-  </si>
-  <si>
-    <t>22.440491</t>
-  </si>
-  <si>
-    <t>88.439556</t>
-  </si>
-  <si>
-    <t>54bc2231-880b-4ba6-ba6e-4d3cb594052b</t>
-  </si>
-  <si>
-    <t>6ac435ff-0a3f-473a-8c24-51eb7a4dbbbf</t>
-  </si>
-  <si>
-    <t>AP NAGAR B1</t>
-  </si>
-  <si>
-    <t>10.123.138.198</t>
-  </si>
-  <si>
-    <t>d9e00379-f20b-470d-a83f-be40c8f77d2c</t>
   </si>
   <si>
     <t>BARUIPUR II A1</t>
@@ -558,9 +636,6 @@
     <t>KAMALGAZI A3(CAT2) /1</t>
   </si>
   <si>
-    <t>KAMALGAZI BTS</t>
-  </si>
-  <si>
     <t>10.127.0.75</t>
   </si>
   <si>
@@ -571,15 +646,6 @@
 Card S/N- AA-0924-29-5108</t>
   </si>
   <si>
-    <t>22.4502</t>
-  </si>
-  <si>
-    <t>88.3905</t>
-  </si>
-  <si>
-    <t>abfa36d3-d0ed-486e-8f97-62651f7a9b9e</t>
-  </si>
-  <si>
     <t>d9fee8ce-68af-4ed2-b5f5-8fea028b1853</t>
   </si>
   <si>
@@ -610,6 +676,24 @@
     <t>ec64ac2b-f434-42f8-88f4-251dba27e0e9</t>
   </si>
   <si>
+    <t>BARUIPUR ADM16/R-128</t>
+  </si>
+  <si>
+    <t>10.119.23.65</t>
+  </si>
+  <si>
+    <t>95b6aef5-de3c-4d65-b7e8-c4db52849e59</t>
+  </si>
+  <si>
+    <t>BORAL ADM16/R-131</t>
+  </si>
+  <si>
+    <t>10.119.23.114</t>
+  </si>
+  <si>
+    <t>4ec6ae61-edb9-469d-b526-ed20af944ef5</t>
+  </si>
+  <si>
     <t>BARUIPUR III A1</t>
   </si>
   <si>
@@ -865,24 +949,12 @@
     <t>HARINAVI ADM16/R-128</t>
   </si>
   <si>
-    <t>NGSDH</t>
-  </si>
-  <si>
     <t>192.170.1.128</t>
   </si>
   <si>
-    <t>TEJAS</t>
-  </si>
-  <si>
     <t>73ec01ed-474a-44d1-8614-d2deaff6375a</t>
   </si>
   <si>
-    <t>fc077b05-1bfc-414c-9549-13b0f6d3e230</t>
-  </si>
-  <si>
-    <t>Next Generation SDH</t>
-  </si>
-  <si>
     <t>8418cc68-8607-4fc5-ac10-989af9de67f8</t>
   </si>
   <si>
@@ -1303,21 +1375,9 @@
     <t>R K MISSION A1</t>
   </si>
   <si>
-    <t>MISSION</t>
-  </si>
-  <si>
     <t>10.123.138.230</t>
   </si>
   <si>
-    <t>22.433145</t>
-  </si>
-  <si>
-    <t>88.401453</t>
-  </si>
-  <si>
-    <t>376e5b44-4294-4b61-a411-2df818899fd0</t>
-  </si>
-  <si>
     <t>9cd28e45-f7dc-4935-8028-c69104d76d17</t>
   </si>
   <si>
@@ -1520,6 +1580,24 @@
   </si>
   <si>
     <t>4b66d440-d94d-4f6e-964c-787d1abd464e</t>
+  </si>
+  <si>
+    <t>HARINAVI ADM16/R-131</t>
+  </si>
+  <si>
+    <t>192.170.1.131</t>
+  </si>
+  <si>
+    <t>ce4a9b80-061f-4a97-94b2-121feba276ef</t>
+  </si>
+  <si>
+    <t>SITAKUNDU ADM16/R-128</t>
+  </si>
+  <si>
+    <t>10.119.23.66</t>
+  </si>
+  <si>
+    <t>a7f6ad1a-3f28-4498-92fe-46d8d17aec4c</t>
   </si>
 </sst>
 </file>
@@ -1971,7 +2049,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA77"/>
+  <dimension ref="A1:AA85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1989,7 +2067,7 @@
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="28" customWidth="1"/>
     <col min="10" max="11" width="10" customWidth="1"/>
-    <col min="12" max="12" width="27" customWidth="1"/>
+    <col min="12" max="12" width="30" customWidth="1"/>
     <col min="13" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="17" customWidth="1"/>
     <col min="16" max="16" width="10" customWidth="1"/>
@@ -2161,51 +2239,45 @@
         <v>46</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="8">
-        <v>45413</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>56</v>
       </c>
       <c r="U3" s="6" t="s">
         <v>40</v>
@@ -2215,33 +2287,33 @@
         <v>41</v>
       </c>
       <c r="X3" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Y3" s="8">
-        <v>45962.679399733795</v>
+        <v>45962.75869956019</v>
       </c>
       <c r="Z3" s="8">
-        <v>45960.39759155092</v>
+        <v>45962.758238993054</v>
       </c>
       <c r="AA3" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>31</v>
@@ -2251,85 +2323,91 @@
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
-      <c r="L4" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="L4" s="2"/>
       <c r="M4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="U4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>45962.762510243054</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>45962.762510243054</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>45961.64074383102</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>45959.704948576386</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="5" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="M5" s="6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="O5" s="6" t="s">
         <v>36</v>
@@ -2337,15 +2415,17 @@
       <c r="P5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="8"/>
+      <c r="Q5" s="8">
+        <v>45413</v>
+      </c>
       <c r="R5" s="6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="S5" s="6" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="U5" s="6" t="s">
         <v>40</v>
@@ -2355,31 +2435,33 @@
         <v>41</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Y5" s="8">
-        <v>45962.66076423611</v>
+        <v>45962.679399733795</v>
       </c>
       <c r="Z5" s="8">
-        <v>45959.6893146875</v>
+        <v>45960.39759155092</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E6" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>31</v>
@@ -2389,16 +2471,16 @@
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>36</v>
@@ -2414,7 +2496,7 @@
         <v>38</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>40</v>
@@ -2427,30 +2509,28 @@
         <v>42</v>
       </c>
       <c r="Y6" s="4">
-        <v>45960.46675283565</v>
+        <v>45962.66076423611</v>
       </c>
       <c r="Z6" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="D7" s="6"/>
       <c r="E7" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>31</v>
@@ -2460,16 +2540,16 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N7" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O7" s="6" t="s">
         <v>36</v>
@@ -2485,7 +2565,7 @@
         <v>38</v>
       </c>
       <c r="T7" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="U7" s="6" t="s">
         <v>40</v>
@@ -2498,30 +2578,30 @@
         <v>42</v>
       </c>
       <c r="Y7" s="8">
-        <v>45962.66159292824</v>
+        <v>45960.46675283565</v>
       </c>
       <c r="Z7" s="8">
         <v>45959.6893146875</v>
       </c>
       <c r="AA7" s="6" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>31</v>
@@ -2531,16 +2611,18 @@
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J8" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>36</v>
@@ -2549,14 +2631,12 @@
         <v>31</v>
       </c>
       <c r="Q8" s="4"/>
-      <c r="R8" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="R8" s="2"/>
       <c r="S8" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>40</v>
@@ -2566,31 +2646,33 @@
         <v>41</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Y8" s="4">
-        <v>45962.661973634255</v>
+        <v>45962.75969328704</v>
       </c>
       <c r="Z8" s="4">
-        <v>45959.6893146875</v>
+        <v>45962.75969328704</v>
       </c>
       <c r="AA8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>31</v>
@@ -2600,16 +2682,16 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="N9" s="6" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="O9" s="6" t="s">
         <v>36</v>
@@ -2625,7 +2707,7 @@
         <v>38</v>
       </c>
       <c r="T9" s="6" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="U9" s="6" t="s">
         <v>40</v>
@@ -2638,28 +2720,30 @@
         <v>42</v>
       </c>
       <c r="Y9" s="8">
-        <v>45960.46675283565</v>
+        <v>45962.66159292824</v>
       </c>
       <c r="Z9" s="8">
         <v>45959.6893146875</v>
       </c>
       <c r="AA9" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E10" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>31</v>
@@ -2669,16 +2753,16 @@
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>36</v>
@@ -2694,7 +2778,7 @@
         <v>38</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>40</v>
@@ -2707,28 +2791,28 @@
         <v>42</v>
       </c>
       <c r="Y10" s="4">
-        <v>45960.46675283565</v>
+        <v>45962.661973634255</v>
       </c>
       <c r="Z10" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>31</v>
@@ -2738,16 +2822,16 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="N11" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="O11" s="6" t="s">
         <v>36</v>
@@ -2763,7 +2847,7 @@
         <v>38</v>
       </c>
       <c r="T11" s="6" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="U11" s="6" t="s">
         <v>40</v>
@@ -2782,22 +2866,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA11" s="6" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>31</v>
@@ -2807,16 +2891,16 @@
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>36</v>
@@ -2832,7 +2916,7 @@
         <v>38</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>40</v>
@@ -2851,45 +2935,41 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="F13" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>114</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="N13" s="6" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="O13" s="6" t="s">
         <v>36</v>
@@ -2899,70 +2979,70 @@
       </c>
       <c r="Q13" s="8"/>
       <c r="R13" s="6" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="S13" s="6" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="T13" s="6" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="U13" s="6" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="V13" s="6"/>
       <c r="W13" s="6" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="X13" s="6" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Y13" s="8">
-        <v>45962.67711618055</v>
+        <v>45960.46675283565</v>
       </c>
       <c r="Z13" s="8">
-        <v>45960.437671168984</v>
+        <v>45959.6893146875</v>
       </c>
       <c r="AA13" s="6" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>113</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>125</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>73</v>
+        <v>116</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>36</v>
@@ -2971,14 +3051,12 @@
         <v>31</v>
       </c>
       <c r="Q14" s="4"/>
-      <c r="R14" s="2" t="s">
+      <c r="R14" s="2"/>
+      <c r="S14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T14" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>40</v>
@@ -2988,33 +3066,33 @@
         <v>41</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Y14" s="4">
-        <v>45962.67723274305</v>
+        <v>45962.7631839699</v>
       </c>
       <c r="Z14" s="4">
-        <v>45960.44146032407</v>
+        <v>45962.7631839699</v>
       </c>
       <c r="AA14" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>31</v>
@@ -3023,19 +3101,21 @@
         <v>32</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="L15" s="6" t="s">
+        <v>123</v>
+      </c>
       <c r="M15" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="N15" s="6" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="O15" s="6" t="s">
         <v>36</v>
@@ -3045,72 +3125,66 @@
       </c>
       <c r="Q15" s="8"/>
       <c r="R15" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="T15" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="U15" s="6" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="V15" s="6"/>
       <c r="W15" s="6" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="X15" s="6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="Y15" s="8">
-        <v>45962.67745662037</v>
+        <v>45962.7659346875</v>
       </c>
       <c r="Z15" s="8">
-        <v>45960.44395743056</v>
+        <v>45959.704948576386</v>
       </c>
       <c r="AA15" s="6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>139</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
-      <c r="L16" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="L16" s="2"/>
       <c r="M16" s="2" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>36</v>
@@ -3120,13 +3194,13 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="2" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>40</v>
@@ -3136,54 +3210,54 @@
         <v>41</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="Y16" s="4">
-        <v>45962.677596932874</v>
+        <v>45960.46675283565</v>
       </c>
       <c r="Z16" s="4">
-        <v>45960.44216910879</v>
+        <v>45959.6893146875</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F17" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="N17" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="O17" s="6" t="s">
         <v>36</v>
@@ -3191,74 +3265,72 @@
       <c r="P17" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q17" s="8">
-        <v>45413</v>
-      </c>
+      <c r="Q17" s="8"/>
       <c r="R17" s="6" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="T17" s="6" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="U17" s="6" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="V17" s="6"/>
       <c r="W17" s="6" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="X17" s="6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="Y17" s="8">
-        <v>45962.67781069444</v>
+        <v>45962.67711618055</v>
       </c>
       <c r="Z17" s="8">
-        <v>45960.39591673611</v>
+        <v>45960.437671168984</v>
       </c>
       <c r="AA17" s="6" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>156</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>36</v>
@@ -3268,70 +3340,70 @@
       </c>
       <c r="Q18" s="4"/>
       <c r="R18" s="2" t="s">
-        <v>54</v>
+        <v>143</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>162</v>
+        <v>80</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="2" t="s">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="Y18" s="4">
-        <v>45962.67820875</v>
+        <v>45962.67723274305</v>
       </c>
       <c r="Z18" s="4">
-        <v>45959.71888550926</v>
+        <v>45960.44146032407</v>
       </c>
       <c r="AA18" s="2" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
       <c r="N19" s="6" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
       <c r="O19" s="6" t="s">
         <v>36</v>
@@ -3341,70 +3413,72 @@
       </c>
       <c r="Q19" s="8"/>
       <c r="R19" s="6" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="T19" s="6" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="U19" s="6" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
       <c r="V19" s="6"/>
       <c r="W19" s="6" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="X19" s="6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="Y19" s="8">
-        <v>45962.67836340278</v>
+        <v>45962.67745662037</v>
       </c>
       <c r="Z19" s="8">
-        <v>45960.4385016088</v>
+        <v>45960.44395743056</v>
       </c>
       <c r="AA19" s="6" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
+      <c r="L20" s="2" t="s">
+        <v>166</v>
+      </c>
       <c r="M20" s="2" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>36</v>
@@ -3414,72 +3488,70 @@
       </c>
       <c r="Q20" s="4"/>
       <c r="R20" s="2" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2" t="s">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="Y20" s="4">
-        <v>45962.67861729166</v>
+        <v>45962.677596932874</v>
       </c>
       <c r="Z20" s="4">
-        <v>45960.44336229167</v>
+        <v>45960.44216910879</v>
       </c>
       <c r="AA20" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="6" t="s">
-        <v>184</v>
-      </c>
+      <c r="L21" s="6"/>
       <c r="M21" s="6" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="N21" s="6" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="O21" s="6" t="s">
         <v>36</v>
@@ -3491,70 +3563,70 @@
         <v>45413</v>
       </c>
       <c r="R21" s="6" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="S21" s="6" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="T21" s="6" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="U21" s="6" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="V21" s="6"/>
       <c r="W21" s="6" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="X21" s="6" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="Y21" s="8">
-        <v>45962.67890275463</v>
+        <v>45962.67781069444</v>
       </c>
       <c r="Z21" s="8">
-        <v>45960.39676234954</v>
+        <v>45960.39591673611</v>
       </c>
       <c r="AA21" s="6" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>36</v>
@@ -3564,66 +3636,70 @@
       </c>
       <c r="Q22" s="4"/>
       <c r="R22" s="2" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="T22" s="2" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="Y22" s="4">
-        <v>45962.679195613426</v>
+        <v>45962.67820875</v>
       </c>
       <c r="Z22" s="4">
-        <v>45960.44282672454</v>
+        <v>45959.71888550926</v>
       </c>
       <c r="AA22" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>191</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="E23" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H23" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="I23" s="6" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N23" s="6" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="O23" s="6" t="s">
         <v>36</v>
@@ -3633,66 +3709,70 @@
       </c>
       <c r="Q23" s="8"/>
       <c r="R23" s="6" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="S23" s="6" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="T23" s="6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="U23" s="6" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="V23" s="6"/>
       <c r="W23" s="6" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="X23" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Y23" s="8">
-        <v>45960.46675283565</v>
+        <v>45962.67836340278</v>
       </c>
       <c r="Z23" s="8">
-        <v>45959.6893146875</v>
+        <v>45960.4385016088</v>
       </c>
       <c r="AA23" s="6" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>206</v>
+        <v>65</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>199</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E24" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H24" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>201</v>
+      </c>
       <c r="I24" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2" t="s">
-        <v>62</v>
+        <v>202</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>63</v>
+        <v>203</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>36</v>
@@ -3702,66 +3782,72 @@
       </c>
       <c r="Q24" s="4"/>
       <c r="R24" s="2" t="s">
-        <v>208</v>
+        <v>143</v>
       </c>
       <c r="S24" s="2" t="s">
-        <v>209</v>
+        <v>71</v>
       </c>
       <c r="T24" s="2" t="s">
-        <v>65</v>
+        <v>204</v>
       </c>
       <c r="U24" s="2" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="2" t="s">
-        <v>41</v>
+        <v>146</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>210</v>
+        <v>72</v>
       </c>
       <c r="Y24" s="4">
-        <v>45960.46675283565</v>
+        <v>45962.67861729166</v>
       </c>
       <c r="Z24" s="4">
-        <v>45959.6893146875</v>
+        <v>45960.44336229167</v>
       </c>
       <c r="AA24" s="2" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="E25" s="7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>31</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>208</v>
+      </c>
       <c r="I25" s="6" t="s">
         <v>33</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+      <c r="L25" s="6" t="s">
+        <v>209</v>
+      </c>
       <c r="M25" s="6" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="N25" s="6" t="s">
-        <v>216</v>
+        <v>116</v>
       </c>
       <c r="O25" s="6" t="s">
         <v>36</v>
@@ -3769,15 +3855,17 @@
       <c r="P25" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Q25" s="8"/>
+      <c r="Q25" s="8">
+        <v>45413</v>
+      </c>
       <c r="R25" s="6" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="S25" s="6" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="T25" s="6" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="U25" s="6" t="s">
         <v>40</v>
@@ -3787,50 +3875,54 @@
         <v>41</v>
       </c>
       <c r="X25" s="6" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Y25" s="8">
-        <v>45960.46675283565</v>
+        <v>45962.67890275463</v>
       </c>
       <c r="Z25" s="8">
-        <v>45959.6893146875</v>
+        <v>45960.39676234954</v>
       </c>
       <c r="AA25" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="E26" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>31</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="2"/>
+        <v>214</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="I26" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>36</v>
@@ -3840,47 +3932,49 @@
       </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="2" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="S26" s="2" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="T26" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="U26" s="2" t="s">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2" t="s">
-        <v>41</v>
+        <v>179</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="Y26" s="4">
-        <v>45960.46675283565</v>
+        <v>45962.679195613426</v>
       </c>
       <c r="Z26" s="4">
-        <v>45959.6893146875</v>
+        <v>45960.44282672454</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>220</v>
-      </c>
-      <c r="D27" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="E27" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>31</v>
@@ -3890,16 +3984,18 @@
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6" t="s">
-        <v>222</v>
+        <v>78</v>
       </c>
       <c r="N27" s="6" t="s">
-        <v>223</v>
+        <v>79</v>
       </c>
       <c r="O27" s="6" t="s">
         <v>36</v>
@@ -3908,14 +4004,12 @@
         <v>31</v>
       </c>
       <c r="Q27" s="8"/>
-      <c r="R27" s="6" t="s">
-        <v>37</v>
-      </c>
+      <c r="R27" s="6"/>
       <c r="S27" s="6" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>224</v>
+        <v>80</v>
       </c>
       <c r="U27" s="6" t="s">
         <v>40</v>
@@ -3925,31 +4019,33 @@
         <v>41</v>
       </c>
       <c r="X27" s="6" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Y27" s="8">
-        <v>45960.46675283565</v>
+        <v>45962.76051011574</v>
       </c>
       <c r="Z27" s="8">
-        <v>45959.6893146875</v>
+        <v>45962.76051011574</v>
       </c>
       <c r="AA27" s="6" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D28" s="2"/>
+        <v>162</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="E28" s="3" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>31</v>
@@ -3959,16 +4055,18 @@
       </c>
       <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="2"/>
       <c r="K28" s="2"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2" t="s">
-        <v>232</v>
+        <v>167</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>233</v>
+        <v>168</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>36</v>
@@ -3977,14 +4075,12 @@
         <v>31</v>
       </c>
       <c r="Q28" s="4"/>
-      <c r="R28" s="2" t="s">
-        <v>37</v>
-      </c>
+      <c r="R28" s="2"/>
       <c r="S28" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="T28" s="2" t="s">
-        <v>234</v>
+        <v>169</v>
       </c>
       <c r="U28" s="2" t="s">
         <v>40</v>
@@ -3994,31 +4090,31 @@
         <v>41</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Y28" s="4">
-        <v>45960.46675283565</v>
+        <v>45962.7638987963</v>
       </c>
       <c r="Z28" s="4">
-        <v>45959.6893146875</v>
+        <v>45962.7638987963</v>
       </c>
       <c r="AA28" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>46</v>
+        <v>227</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="7" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>31</v>
@@ -4028,16 +4124,16 @@
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="N29" s="6" t="s">
-        <v>53</v>
+        <v>230</v>
       </c>
       <c r="O29" s="6" t="s">
         <v>36</v>
@@ -4053,7 +4149,7 @@
         <v>38</v>
       </c>
       <c r="T29" s="6" t="s">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="U29" s="6" t="s">
         <v>40</v>
@@ -4072,22 +4168,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA29" s="6" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>46</v>
+        <v>120</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>31</v>
@@ -4097,16 +4193,16 @@
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>36</v>
@@ -4116,13 +4212,13 @@
       </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="2" t="s">
-        <v>37</v>
+        <v>236</v>
       </c>
       <c r="S30" s="2" t="s">
-        <v>38</v>
+        <v>237</v>
       </c>
       <c r="T30" s="2" t="s">
-        <v>56</v>
+        <v>127</v>
       </c>
       <c r="U30" s="2" t="s">
         <v>40</v>
@@ -4132,7 +4228,7 @@
         <v>41</v>
       </c>
       <c r="X30" s="2" t="s">
-        <v>42</v>
+        <v>238</v>
       </c>
       <c r="Y30" s="4">
         <v>45960.46675283565</v>
@@ -4141,18 +4237,18 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA30" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>46</v>
+        <v>241</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="7" t="s">
@@ -4166,16 +4262,16 @@
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6" t="s">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="N31" s="6" t="s">
-        <v>53</v>
+        <v>244</v>
       </c>
       <c r="O31" s="6" t="s">
         <v>36</v>
@@ -4191,7 +4287,7 @@
         <v>38</v>
       </c>
       <c r="T31" s="6" t="s">
-        <v>56</v>
+        <v>245</v>
       </c>
       <c r="U31" s="6" t="s">
         <v>40</v>
@@ -4210,22 +4306,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>31</v>
@@ -4235,16 +4331,16 @@
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>36</v>
@@ -4260,7 +4356,7 @@
         <v>38</v>
       </c>
       <c r="T32" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="U32" s="2" t="s">
         <v>40</v>
@@ -4279,22 +4375,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA32" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="33" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>31</v>
@@ -4304,16 +4400,16 @@
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="N33" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="O33" s="6" t="s">
         <v>36</v>
@@ -4329,7 +4425,7 @@
         <v>38</v>
       </c>
       <c r="T33" s="6" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="U33" s="6" t="s">
         <v>40</v>
@@ -4348,22 +4444,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA33" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>31</v>
@@ -4373,16 +4469,16 @@
       </c>
       <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="N34" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="N34" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>36</v>
@@ -4398,7 +4494,7 @@
         <v>38</v>
       </c>
       <c r="T34" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="U34" s="2" t="s">
         <v>40</v>
@@ -4417,22 +4513,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA34" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>266</v>
+        <v>46</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>31</v>
@@ -4442,16 +4538,16 @@
       </c>
       <c r="H35" s="6"/>
       <c r="I35" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6" t="s">
-        <v>268</v>
+        <v>51</v>
       </c>
       <c r="N35" s="6" t="s">
-        <v>269</v>
+        <v>52</v>
       </c>
       <c r="O35" s="6" t="s">
         <v>36</v>
@@ -4467,7 +4563,7 @@
         <v>38</v>
       </c>
       <c r="T35" s="6" t="s">
-        <v>270</v>
+        <v>54</v>
       </c>
       <c r="U35" s="6" t="s">
         <v>40</v>
@@ -4486,22 +4582,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA35" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>273</v>
+        <v>46</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>31</v>
@@ -4511,16 +4607,16 @@
       </c>
       <c r="H36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>85</v>
+        <v>49</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2" t="s">
-        <v>275</v>
+        <v>51</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>276</v>
+        <v>52</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>36</v>
@@ -4536,7 +4632,7 @@
         <v>38</v>
       </c>
       <c r="T36" s="2" t="s">
-        <v>277</v>
+        <v>54</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>40</v>
@@ -4555,22 +4651,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA36" s="2" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="7" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>31</v>
@@ -4580,16 +4676,16 @@
       </c>
       <c r="H37" s="6"/>
       <c r="I37" s="6" t="s">
-        <v>71</v>
+        <v>49</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="N37" s="6" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="O37" s="6" t="s">
         <v>36</v>
@@ -4605,7 +4701,7 @@
         <v>38</v>
       </c>
       <c r="T37" s="6" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="U37" s="6" t="s">
         <v>40</v>
@@ -4624,22 +4720,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA37" s="6" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>283</v>
+        <v>28</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>60</v>
+        <v>273</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>31</v>
@@ -4649,18 +4745,16 @@
       </c>
       <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>285</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="J38" s="2"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>62</v>
+        <v>275</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>63</v>
+        <v>276</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>36</v>
@@ -4670,13 +4764,13 @@
       </c>
       <c r="Q38" s="4"/>
       <c r="R38" s="2" t="s">
-        <v>286</v>
+        <v>37</v>
       </c>
       <c r="S38" s="2" t="s">
-        <v>287</v>
+        <v>38</v>
       </c>
       <c r="T38" s="2" t="s">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>40</v>
@@ -4686,7 +4780,7 @@
         <v>41</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>288</v>
+        <v>42</v>
       </c>
       <c r="Y38" s="4">
         <v>45960.46675283565</v>
@@ -4695,22 +4789,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA38" s="2" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="7" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>31</v>
@@ -4720,16 +4814,16 @@
       </c>
       <c r="H39" s="6"/>
       <c r="I39" s="6" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6" t="s">
-        <v>62</v>
+        <v>282</v>
       </c>
       <c r="N39" s="6" t="s">
-        <v>63</v>
+        <v>283</v>
       </c>
       <c r="O39" s="6" t="s">
         <v>36</v>
@@ -4745,7 +4839,7 @@
         <v>38</v>
       </c>
       <c r="T39" s="6" t="s">
-        <v>65</v>
+        <v>284</v>
       </c>
       <c r="U39" s="6" t="s">
         <v>40</v>
@@ -4764,22 +4858,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA39" s="6" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="40" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>60</v>
+        <v>287</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>31</v>
@@ -4789,16 +4883,16 @@
       </c>
       <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2" t="s">
-        <v>62</v>
+        <v>289</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>63</v>
+        <v>290</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>36</v>
@@ -4814,7 +4908,7 @@
         <v>38</v>
       </c>
       <c r="T40" s="2" t="s">
-        <v>65</v>
+        <v>291</v>
       </c>
       <c r="U40" s="2" t="s">
         <v>40</v>
@@ -4833,18 +4927,18 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA40" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>60</v>
+        <v>294</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="7" t="s">
@@ -4858,16 +4952,16 @@
       </c>
       <c r="H41" s="6"/>
       <c r="I41" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6" t="s">
-        <v>62</v>
+        <v>296</v>
       </c>
       <c r="N41" s="6" t="s">
-        <v>63</v>
+        <v>297</v>
       </c>
       <c r="O41" s="6" t="s">
         <v>36</v>
@@ -4883,7 +4977,7 @@
         <v>38</v>
       </c>
       <c r="T41" s="6" t="s">
-        <v>65</v>
+        <v>298</v>
       </c>
       <c r="U41" s="6" t="s">
         <v>40</v>
@@ -4902,22 +4996,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA41" s="6" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>60</v>
+        <v>301</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>31</v>
@@ -4927,16 +5021,16 @@
       </c>
       <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2" t="s">
-        <v>62</v>
+        <v>303</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>63</v>
+        <v>304</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>36</v>
@@ -4952,7 +5046,7 @@
         <v>38</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>65</v>
+        <v>305</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>40</v>
@@ -4971,22 +5065,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="43" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="7" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>31</v>
@@ -4996,16 +5090,16 @@
       </c>
       <c r="H43" s="6"/>
       <c r="I43" s="6" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="N43" s="6" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="O43" s="6" t="s">
         <v>36</v>
@@ -5021,7 +5115,7 @@
         <v>38</v>
       </c>
       <c r="T43" s="6" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="U43" s="6" t="s">
         <v>40</v>
@@ -5040,22 +5134,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA43" s="6" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="3" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>31</v>
@@ -5065,16 +5159,18 @@
       </c>
       <c r="H44" s="2"/>
       <c r="I44" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="J44" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>73</v>
+        <v>125</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>36</v>
@@ -5084,13 +5180,13 @@
       </c>
       <c r="Q44" s="4"/>
       <c r="R44" s="2" t="s">
-        <v>37</v>
+        <v>312</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="T44" s="2" t="s">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="U44" s="2" t="s">
         <v>40</v>
@@ -5100,7 +5196,7 @@
         <v>41</v>
       </c>
       <c r="X44" s="2" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Y44" s="4">
         <v>45960.46675283565</v>
@@ -5109,22 +5205,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA44" s="2" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="45" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>305</v>
+        <v>120</v>
       </c>
       <c r="D45" s="6"/>
       <c r="E45" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>31</v>
@@ -5134,16 +5230,16 @@
       </c>
       <c r="H45" s="6"/>
       <c r="I45" s="6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6" t="s">
-        <v>307</v>
+        <v>124</v>
       </c>
       <c r="N45" s="6" t="s">
-        <v>308</v>
+        <v>125</v>
       </c>
       <c r="O45" s="6" t="s">
         <v>36</v>
@@ -5159,7 +5255,7 @@
         <v>38</v>
       </c>
       <c r="T45" s="6" t="s">
-        <v>309</v>
+        <v>127</v>
       </c>
       <c r="U45" s="6" t="s">
         <v>40</v>
@@ -5178,22 +5274,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA45" s="6" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="3" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>31</v>
@@ -5203,16 +5299,16 @@
       </c>
       <c r="H46" s="2"/>
       <c r="I46" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2" t="s">
-        <v>314</v>
+        <v>124</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>315</v>
+        <v>125</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>36</v>
@@ -5228,7 +5324,7 @@
         <v>38</v>
       </c>
       <c r="T46" s="2" t="s">
-        <v>316</v>
+        <v>127</v>
       </c>
       <c r="U46" s="2" t="s">
         <v>40</v>
@@ -5247,18 +5343,18 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA46" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="47" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>312</v>
+        <v>120</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="7" t="s">
@@ -5272,16 +5368,16 @@
       </c>
       <c r="H47" s="6"/>
       <c r="I47" s="6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6" t="s">
-        <v>314</v>
+        <v>124</v>
       </c>
       <c r="N47" s="6" t="s">
-        <v>315</v>
+        <v>125</v>
       </c>
       <c r="O47" s="6" t="s">
         <v>36</v>
@@ -5297,7 +5393,7 @@
         <v>38</v>
       </c>
       <c r="T47" s="6" t="s">
-        <v>316</v>
+        <v>127</v>
       </c>
       <c r="U47" s="6" t="s">
         <v>40</v>
@@ -5321,17 +5417,17 @@
     </row>
     <row r="48" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>31</v>
@@ -5341,16 +5437,16 @@
       </c>
       <c r="H48" s="2"/>
       <c r="I48" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>36</v>
@@ -5366,7 +5462,7 @@
         <v>38</v>
       </c>
       <c r="T48" s="2" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="U48" s="2" t="s">
         <v>40</v>
@@ -5385,22 +5481,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA48" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="49" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B49" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>325</v>
+        <v>120</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>31</v>
@@ -5410,16 +5506,16 @@
       </c>
       <c r="H49" s="6"/>
       <c r="I49" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6" t="s">
-        <v>327</v>
+        <v>124</v>
       </c>
       <c r="N49" s="6" t="s">
-        <v>328</v>
+        <v>125</v>
       </c>
       <c r="O49" s="6" t="s">
         <v>36</v>
@@ -5435,7 +5531,7 @@
         <v>38</v>
       </c>
       <c r="T49" s="6" t="s">
-        <v>329</v>
+        <v>127</v>
       </c>
       <c r="U49" s="6" t="s">
         <v>40</v>
@@ -5454,22 +5550,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA49" s="6" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="50" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>332</v>
+        <v>75</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>31</v>
@@ -5479,16 +5575,16 @@
       </c>
       <c r="H50" s="2"/>
       <c r="I50" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2" t="s">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>36</v>
@@ -5504,7 +5600,7 @@
         <v>38</v>
       </c>
       <c r="T50" s="2" t="s">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="U50" s="2" t="s">
         <v>40</v>
@@ -5523,22 +5619,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA50" s="2" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="51" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="D51" s="6"/>
       <c r="E51" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>31</v>
@@ -5548,16 +5644,16 @@
       </c>
       <c r="H51" s="6"/>
       <c r="I51" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="N51" s="6" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="O51" s="6" t="s">
         <v>36</v>
@@ -5573,7 +5669,7 @@
         <v>38</v>
       </c>
       <c r="T51" s="6" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="U51" s="6" t="s">
         <v>40</v>
@@ -5592,22 +5688,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA51" s="6" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="3" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>31</v>
@@ -5617,16 +5713,16 @@
       </c>
       <c r="H52" s="2"/>
       <c r="I52" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
       <c r="M52" s="2" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>36</v>
@@ -5642,7 +5738,7 @@
         <v>38</v>
       </c>
       <c r="T52" s="2" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="U52" s="2" t="s">
         <v>40</v>
@@ -5661,22 +5757,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA52" s="2" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="53" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>353</v>
+        <v>336</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="7" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>31</v>
@@ -5692,10 +5788,10 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6" t="s">
-        <v>355</v>
+        <v>338</v>
       </c>
       <c r="N53" s="6" t="s">
-        <v>356</v>
+        <v>339</v>
       </c>
       <c r="O53" s="6" t="s">
         <v>36</v>
@@ -5711,7 +5807,7 @@
         <v>38</v>
       </c>
       <c r="T53" s="6" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="U53" s="6" t="s">
         <v>40</v>
@@ -5730,22 +5826,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA53" s="6" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="54" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>360</v>
+        <v>162</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="3" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>31</v>
@@ -5755,16 +5851,16 @@
       </c>
       <c r="H54" s="2"/>
       <c r="I54" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2" t="s">
-        <v>362</v>
+        <v>167</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>363</v>
+        <v>168</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>36</v>
@@ -5780,7 +5876,7 @@
         <v>38</v>
       </c>
       <c r="T54" s="2" t="s">
-        <v>364</v>
+        <v>169</v>
       </c>
       <c r="U54" s="2" t="s">
         <v>40</v>
@@ -5799,22 +5895,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
-        <v>366</v>
+        <v>348</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>367</v>
+        <v>349</v>
       </c>
       <c r="D55" s="6"/>
       <c r="E55" s="7" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>31</v>
@@ -5824,16 +5920,16 @@
       </c>
       <c r="H55" s="6"/>
       <c r="I55" s="6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6" t="s">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="N55" s="6" t="s">
-        <v>370</v>
+        <v>352</v>
       </c>
       <c r="O55" s="6" t="s">
         <v>36</v>
@@ -5849,7 +5945,7 @@
         <v>38</v>
       </c>
       <c r="T55" s="6" t="s">
-        <v>371</v>
+        <v>353</v>
       </c>
       <c r="U55" s="6" t="s">
         <v>40</v>
@@ -5868,22 +5964,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA55" s="6" t="s">
-        <v>372</v>
+        <v>354</v>
       </c>
     </row>
     <row r="56" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>373</v>
+        <v>355</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>374</v>
+        <v>356</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="3" t="s">
-        <v>375</v>
+        <v>357</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>31</v>
@@ -5899,10 +5995,10 @@
       <c r="K56" s="2"/>
       <c r="L56" s="2"/>
       <c r="M56" s="2" t="s">
-        <v>376</v>
+        <v>358</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>36</v>
@@ -5918,7 +6014,7 @@
         <v>38</v>
       </c>
       <c r="T56" s="2" t="s">
-        <v>378</v>
+        <v>360</v>
       </c>
       <c r="U56" s="2" t="s">
         <v>40</v>
@@ -5937,22 +6033,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA56" s="2" t="s">
-        <v>379</v>
+        <v>361</v>
       </c>
     </row>
     <row r="57" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
-        <v>380</v>
+        <v>362</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D57" s="6"/>
       <c r="E57" s="7" t="s">
-        <v>382</v>
+        <v>364</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>31</v>
@@ -5962,16 +6058,16 @@
       </c>
       <c r="H57" s="6"/>
       <c r="I57" s="6" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6" t="s">
-        <v>383</v>
+        <v>365</v>
       </c>
       <c r="N57" s="6" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="O57" s="6" t="s">
         <v>36</v>
@@ -5987,7 +6083,7 @@
         <v>38</v>
       </c>
       <c r="T57" s="6" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
       <c r="U57" s="6" t="s">
         <v>40</v>
@@ -6006,22 +6102,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA57" s="6" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
     </row>
     <row r="58" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>387</v>
+        <v>369</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="3" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>31</v>
@@ -6031,16 +6127,16 @@
       </c>
       <c r="H58" s="2"/>
       <c r="I58" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
       <c r="L58" s="2"/>
       <c r="M58" s="2" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>36</v>
@@ -6056,7 +6152,7 @@
         <v>38</v>
       </c>
       <c r="T58" s="2" t="s">
-        <v>392</v>
+        <v>374</v>
       </c>
       <c r="U58" s="2" t="s">
         <v>40</v>
@@ -6075,22 +6171,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA58" s="2" t="s">
-        <v>393</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
-        <v>394</v>
+        <v>376</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="7" t="s">
-        <v>396</v>
+        <v>378</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>31</v>
@@ -6106,10 +6202,10 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="N59" s="6" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="O59" s="6" t="s">
         <v>36</v>
@@ -6125,7 +6221,7 @@
         <v>38</v>
       </c>
       <c r="T59" s="6" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="U59" s="6" t="s">
         <v>40</v>
@@ -6144,22 +6240,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA59" s="6" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
     </row>
     <row r="60" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="3" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>31</v>
@@ -6169,16 +6265,16 @@
       </c>
       <c r="H60" s="2"/>
       <c r="I60" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
       <c r="L60" s="2"/>
       <c r="M60" s="2" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>36</v>
@@ -6194,7 +6290,7 @@
         <v>38</v>
       </c>
       <c r="T60" s="2" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="U60" s="2" t="s">
         <v>40</v>
@@ -6213,22 +6309,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA60" s="2" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
     </row>
     <row r="61" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="D61" s="6"/>
       <c r="E61" s="7" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="F61" s="6" t="s">
         <v>31</v>
@@ -6244,10 +6340,10 @@
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="N61" s="6" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="O61" s="6" t="s">
         <v>36</v>
@@ -6263,7 +6359,7 @@
         <v>38</v>
       </c>
       <c r="T61" s="6" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="U61" s="6" t="s">
         <v>40</v>
@@ -6282,22 +6378,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA61" s="6" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
     </row>
     <row r="62" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="3" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>31</v>
@@ -6307,16 +6403,16 @@
       </c>
       <c r="H62" s="2"/>
       <c r="I62" s="2" t="s">
-        <v>416</v>
+        <v>33</v>
       </c>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
       <c r="M62" s="2" t="s">
-        <v>417</v>
+        <v>400</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>36</v>
@@ -6332,7 +6428,7 @@
         <v>38</v>
       </c>
       <c r="T62" s="2" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="U62" s="2" t="s">
         <v>40</v>
@@ -6351,22 +6447,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA62" s="2" t="s">
-        <v>420</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="7" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>31</v>
@@ -6382,10 +6478,10 @@
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="N63" s="6" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="O63" s="6" t="s">
         <v>36</v>
@@ -6401,7 +6497,7 @@
         <v>38</v>
       </c>
       <c r="T63" s="6" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="U63" s="6" t="s">
         <v>40</v>
@@ -6420,22 +6516,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA63" s="6" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="3" t="s">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>31</v>
@@ -6445,16 +6541,16 @@
       </c>
       <c r="H64" s="2"/>
       <c r="I64" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
       <c r="L64" s="2"/>
       <c r="M64" s="2" t="s">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>36</v>
@@ -6470,7 +6566,7 @@
         <v>38</v>
       </c>
       <c r="T64" s="2" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="U64" s="2" t="s">
         <v>40</v>
@@ -6489,22 +6585,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
     </row>
     <row r="65" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="D65" s="6"/>
       <c r="E65" s="7" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>31</v>
@@ -6520,10 +6616,10 @@
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="N65" s="6" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="O65" s="6" t="s">
         <v>36</v>
@@ -6539,7 +6635,7 @@
         <v>38</v>
       </c>
       <c r="T65" s="6" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="U65" s="6" t="s">
         <v>40</v>
@@ -6558,22 +6654,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA65" s="6" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
     </row>
     <row r="66" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="3" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>31</v>
@@ -6589,10 +6685,10 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>36</v>
@@ -6608,7 +6704,7 @@
         <v>38</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="U66" s="2" t="s">
         <v>40</v>
@@ -6627,22 +6723,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA66" s="2" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
     </row>
     <row r="67" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>450</v>
+        <v>431</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="7" t="s">
-        <v>451</v>
+        <v>432</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>31</v>
@@ -6658,10 +6754,10 @@
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6" t="s">
-        <v>452</v>
+        <v>433</v>
       </c>
       <c r="N67" s="6" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="O67" s="6" t="s">
         <v>36</v>
@@ -6677,7 +6773,7 @@
         <v>38</v>
       </c>
       <c r="T67" s="6" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="U67" s="6" t="s">
         <v>40</v>
@@ -6696,22 +6792,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA67" s="6" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
     </row>
     <row r="68" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>60</v>
+        <v>438</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="3" t="s">
-        <v>457</v>
+        <v>439</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>31</v>
@@ -6721,16 +6817,16 @@
       </c>
       <c r="H68" s="2"/>
       <c r="I68" s="2" t="s">
-        <v>50</v>
+        <v>440</v>
       </c>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2" t="s">
-        <v>62</v>
+        <v>441</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>63</v>
+        <v>442</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>36</v>
@@ -6746,7 +6842,7 @@
         <v>38</v>
       </c>
       <c r="T68" s="2" t="s">
-        <v>65</v>
+        <v>443</v>
       </c>
       <c r="U68" s="2" t="s">
         <v>40</v>
@@ -6765,22 +6861,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA68" s="2" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
     </row>
     <row r="69" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>60</v>
+        <v>446</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="7" t="s">
-        <v>460</v>
+        <v>447</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>31</v>
@@ -6790,16 +6886,16 @@
       </c>
       <c r="H69" s="6"/>
       <c r="I69" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6" t="s">
-        <v>62</v>
+        <v>448</v>
       </c>
       <c r="N69" s="6" t="s">
-        <v>63</v>
+        <v>449</v>
       </c>
       <c r="O69" s="6" t="s">
         <v>36</v>
@@ -6815,7 +6911,7 @@
         <v>38</v>
       </c>
       <c r="T69" s="6" t="s">
-        <v>65</v>
+        <v>450</v>
       </c>
       <c r="U69" s="6" t="s">
         <v>40</v>
@@ -6834,22 +6930,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA69" s="6" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
     </row>
     <row r="70" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>463</v>
+        <v>58</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="3" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>31</v>
@@ -6859,16 +6955,16 @@
       </c>
       <c r="H70" s="2"/>
       <c r="I70" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2" t="s">
-        <v>465</v>
+        <v>60</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>466</v>
+        <v>61</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>36</v>
@@ -6884,7 +6980,7 @@
         <v>38</v>
       </c>
       <c r="T70" s="2" t="s">
-        <v>467</v>
+        <v>62</v>
       </c>
       <c r="U70" s="2" t="s">
         <v>40</v>
@@ -6903,22 +6999,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA70" s="2" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="7" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>31</v>
@@ -6934,10 +7030,10 @@
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
       <c r="N71" s="6" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="O71" s="6" t="s">
         <v>36</v>
@@ -6953,7 +7049,7 @@
         <v>38</v>
       </c>
       <c r="T71" s="6" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="U71" s="6" t="s">
         <v>40</v>
@@ -6972,22 +7068,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA71" s="6" t="s">
-        <v>475</v>
+        <v>461</v>
       </c>
     </row>
     <row r="72" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>476</v>
+        <v>462</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="3" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>31</v>
@@ -7003,10 +7099,10 @@
       <c r="K72" s="2"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>36</v>
@@ -7022,7 +7118,7 @@
         <v>38</v>
       </c>
       <c r="T72" s="2" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="U72" s="2" t="s">
         <v>40</v>
@@ -7041,22 +7137,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA72" s="2" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
     </row>
     <row r="73" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="7" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>31</v>
@@ -7066,16 +7162,16 @@
       </c>
       <c r="H73" s="6"/>
       <c r="I73" s="6" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="N73" s="6" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="O73" s="6" t="s">
         <v>36</v>
@@ -7091,7 +7187,7 @@
         <v>38</v>
       </c>
       <c r="T73" s="6" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="U73" s="6" t="s">
         <v>40</v>
@@ -7110,24 +7206,22 @@
         <v>45959.6893146875</v>
       </c>
       <c r="AA73" s="6" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
     </row>
     <row r="74" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D74" s="2"/>
       <c r="E74" s="3" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>31</v>
@@ -7137,16 +7231,16 @@
       </c>
       <c r="H74" s="2"/>
       <c r="I74" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>36</v>
@@ -7162,7 +7256,7 @@
         <v>38</v>
       </c>
       <c r="T74" s="2" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="U74" s="2" t="s">
         <v>40</v>
@@ -7175,30 +7269,28 @@
         <v>42</v>
       </c>
       <c r="Y74" s="4">
-        <v>45962.66437342593</v>
+        <v>45960.46675283565</v>
       </c>
       <c r="Z74" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA74" s="2" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
     </row>
     <row r="75" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>69</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D75" s="6"/>
       <c r="E75" s="7" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>31</v>
@@ -7208,16 +7300,16 @@
       </c>
       <c r="H75" s="6"/>
       <c r="I75" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="N75" s="6" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="O75" s="6" t="s">
         <v>36</v>
@@ -7233,7 +7325,7 @@
         <v>38</v>
       </c>
       <c r="T75" s="6" t="s">
-        <v>65</v>
+        <v>127</v>
       </c>
       <c r="U75" s="6" t="s">
         <v>40</v>
@@ -7246,30 +7338,28 @@
         <v>42</v>
       </c>
       <c r="Y75" s="8">
-        <v>45962.664823530096</v>
+        <v>45960.46675283565</v>
       </c>
       <c r="Z75" s="8">
         <v>45959.6893146875</v>
       </c>
       <c r="AA75" s="6" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
     </row>
     <row r="76" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>69</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="D76" s="2"/>
       <c r="E76" s="3" t="s">
-        <v>497</v>
+        <v>484</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>31</v>
@@ -7279,16 +7369,16 @@
       </c>
       <c r="H76" s="2"/>
       <c r="I76" s="2" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2" t="s">
-        <v>185</v>
+        <v>485</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>186</v>
+        <v>486</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>36</v>
@@ -7304,7 +7394,7 @@
         <v>38</v>
       </c>
       <c r="T76" s="2" t="s">
-        <v>187</v>
+        <v>487</v>
       </c>
       <c r="U76" s="2" t="s">
         <v>40</v>
@@ -7317,84 +7407,646 @@
         <v>42</v>
       </c>
       <c r="Y76" s="4">
-        <v>45962.665817789355</v>
+        <v>45960.46675283565</v>
       </c>
       <c r="Z76" s="4">
         <v>45959.6893146875</v>
       </c>
       <c r="AA76" s="2" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="77" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="N77" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="O77" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P77" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S77" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T77" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="U77" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X77" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y77" s="8">
+        <v>45960.46675283565</v>
+      </c>
+      <c r="Z77" s="8">
+        <v>45959.6893146875</v>
+      </c>
+      <c r="AA77" s="6" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="78" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="3" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="77" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
+      <c r="F78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="B77" s="10" t="s">
+      <c r="N78" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P78" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S78" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T78" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="U78" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X78" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y78" s="4">
+        <v>45960.46675283565</v>
+      </c>
+      <c r="Z78" s="4">
+        <v>45959.6893146875</v>
+      </c>
+      <c r="AA78" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="79" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A79" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="B79" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C77" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="11" t="s">
-        <v>500</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="G77" s="10" t="s">
+      <c r="C79" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="D79" s="6"/>
+      <c r="E79" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G79" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10" t="s">
+      <c r="H79" s="6"/>
+      <c r="I79" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="N79" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="O79" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P79" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q79" s="8"/>
+      <c r="R79" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S79" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T79" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="U79" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X79" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y79" s="8">
+        <v>45960.46675283565</v>
+      </c>
+      <c r="Z79" s="8">
+        <v>45959.6893146875</v>
+      </c>
+      <c r="AA79" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="80" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P80" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T80" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X80" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y80" s="4">
+        <v>45962.66437342593</v>
+      </c>
+      <c r="Z80" s="4">
+        <v>45959.6893146875</v>
+      </c>
+      <c r="AA80" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="81" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C81" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D81" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="N81" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="O81" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P81" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q81" s="8"/>
+      <c r="R81" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S81" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T81" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="U81" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X81" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y81" s="8">
+        <v>45962.664823530096</v>
+      </c>
+      <c r="Z81" s="8">
+        <v>45959.6893146875</v>
+      </c>
+      <c r="AA81" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="82" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="N77" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="O77" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="P77" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="10" t="s">
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="N82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P82" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="S77" s="10" t="s">
+      <c r="S82" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T77" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="U77" s="10" t="s">
+      <c r="T82" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="U82" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="V77" s="10"/>
-      <c r="W77" s="10" t="s">
+      <c r="V82" s="2"/>
+      <c r="W82" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="X77" s="10" t="s">
+      <c r="X82" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Y77" s="12">
+      <c r="Y82" s="4">
+        <v>45962.665817789355</v>
+      </c>
+      <c r="Z82" s="4">
+        <v>45959.6893146875</v>
+      </c>
+      <c r="AA82" s="2" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="83" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A83" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="O83" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="P83" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q83" s="8"/>
+      <c r="R83" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="S83" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="T83" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="U83" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="X83" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y83" s="8">
         <v>45962.66599195602</v>
       </c>
-      <c r="Z77" s="12">
+      <c r="Z83" s="8">
         <v>45959.6893146875</v>
       </c>
-      <c r="AA77" s="10" t="s">
-        <v>501</v>
+      <c r="AA83" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="84" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="N84" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="P84" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="T84" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="U84" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X84" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y84" s="4">
+        <v>45962.75889253472</v>
+      </c>
+      <c r="Z84" s="4">
+        <v>45962.75708601852</v>
+      </c>
+      <c r="AA84" s="2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="85" ht="20" customHeight="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="N85" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="O85" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="P85" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="T85" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="U85" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X85" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y85" s="12">
+        <v>45962.761098310184</v>
+      </c>
+      <c r="Z85" s="12">
+        <v>45962.761098310184</v>
+      </c>
+      <c r="AA85" s="10" t="s">
+        <v>527</v>
       </c>
     </row>
   </sheetData>
